--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Release_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyRelease.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Release_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyRelease.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5780" yWindow="1360" windowWidth="29560" windowHeight="16680" tabRatio="500"/>
+    <workbookView xWindow="3100" yWindow="700" windowWidth="29560" windowHeight="16680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
   <si>
     <t>Race</t>
   </si>
@@ -214,12 +214,6 @@
   </si>
   <si>
     <t>Alias</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Will be used only for record matching and will not be included in analytics data store</t>
   </si>
   <si>
     <t>Behavioral Health</t>
@@ -368,14 +362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -521,818 +508,800 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="736">
+  <cellStyleXfs count="746">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1340,35 +1309,63 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="735" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="735" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="735" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="735" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="736">
+  <cellStyles count="746">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1736,6 +1733,11 @@
     <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="737" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="739" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="741" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="745" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2103,6 +2105,11 @@
     <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="736" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="738" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="740" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="742" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="744" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="735" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2433,11 +2440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L370"/>
+  <dimension ref="A1:E370"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2450,19 +2457,16 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="34" customFormat="1" ht="36" customHeight="1">
-      <c r="A1" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="35"/>
+    <row r="1" spans="1:5" s="34" customFormat="1" ht="36" customHeight="1">
+      <c r="A1" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="36"/>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:12" ht="36" customHeight="1">
+    </row>
+    <row r="2" spans="1:5" ht="36" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2479,7 +2483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="10" customFormat="1" ht="14">
+    <row r="3" spans="1:5" s="10" customFormat="1" ht="14">
       <c r="A3" s="14" t="s">
         <v>58</v>
       </c>
@@ -2488,7 +2492,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:12" s="10" customFormat="1" ht="28">
+    <row r="4" spans="1:5" s="10" customFormat="1" ht="28">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -2501,7 +2505,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="10" customFormat="1" ht="14">
+    <row r="5" spans="1:5" s="10" customFormat="1" ht="14">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -2514,7 +2518,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="10" customFormat="1" ht="14">
+    <row r="6" spans="1:5" s="10" customFormat="1" ht="14">
       <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
@@ -2523,7 +2527,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:12" s="10" customFormat="1" ht="14">
+    <row r="7" spans="1:5" s="10" customFormat="1" ht="14">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
         <v>14</v>
@@ -2535,7 +2539,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="10" customFormat="1" ht="14">
+    <row r="8" spans="1:5" s="10" customFormat="1" ht="14">
       <c r="A8" s="11"/>
       <c r="B8" s="11" t="s">
         <v>16</v>
@@ -2547,7 +2551,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="10" customFormat="1" ht="14">
+    <row r="9" spans="1:5" s="10" customFormat="1" ht="14">
       <c r="A9" s="14" t="s">
         <v>33</v>
       </c>
@@ -2556,7 +2560,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:12" s="10" customFormat="1" ht="14">
+    <row r="10" spans="1:5" s="10" customFormat="1" ht="14">
       <c r="A10" s="4"/>
       <c r="B10" s="7" t="s">
         <v>39</v>
@@ -2567,7 +2571,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="10" customFormat="1" ht="14">
+    <row r="11" spans="1:5" s="10" customFormat="1" ht="14">
       <c r="A11" s="4"/>
       <c r="B11" s="7" t="s">
         <v>40</v>
@@ -2578,7 +2582,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="10" customFormat="1" ht="14">
+    <row r="12" spans="1:5" s="10" customFormat="1" ht="14">
       <c r="A12" s="14" t="s">
         <v>19</v>
       </c>
@@ -2587,7 +2591,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:12" s="30" customFormat="1" ht="30">
+    <row r="13" spans="1:5" s="30" customFormat="1" ht="30">
       <c r="A13" s="28"/>
       <c r="B13" s="29" t="s">
         <v>63</v>
@@ -2595,17 +2599,10 @@
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-    </row>
-    <row r="14" spans="1:12" s="10" customFormat="1" ht="28">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="10" customFormat="1" ht="28">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>11</v>
@@ -2615,10 +2612,10 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="10" customFormat="1" ht="28">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="10" customFormat="1" ht="28">
       <c r="A15" s="7"/>
       <c r="B15" s="7" t="s">
         <v>2</v>
@@ -2628,10 +2625,10 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="10" customFormat="1" ht="28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="10" customFormat="1" ht="28">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
         <v>0</v>
@@ -2641,10 +2638,10 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="10" customFormat="1" ht="28">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="10" customFormat="1" ht="28">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>12</v>
@@ -2654,10 +2651,10 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="10" customFormat="1" ht="42">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="10" customFormat="1" ht="42">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>25</v>
@@ -2667,10 +2664,10 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="10" customFormat="1" ht="42">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="10" customFormat="1" ht="42">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>35</v>
@@ -2680,10 +2677,10 @@
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="10" customFormat="1" ht="42">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="10" customFormat="1" ht="42">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>38</v>
@@ -2693,10 +2690,10 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="10" customFormat="1" ht="28">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="10" customFormat="1" ht="28">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
         <v>37</v>
@@ -2706,10 +2703,10 @@
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="10" customFormat="1" ht="28">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="10" customFormat="1" ht="28">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
         <v>27</v>
@@ -2719,10 +2716,10 @@
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="10" customFormat="1" ht="28">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="10" customFormat="1" ht="28">
       <c r="A23" s="5"/>
       <c r="B23" s="9" t="s">
         <v>29</v>
@@ -2732,10 +2729,10 @@
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="10" customFormat="1" ht="28">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="10" customFormat="1" ht="28">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
         <v>31</v>
@@ -2745,10 +2742,10 @@
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="10" customFormat="1" ht="28">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="10" customFormat="1" ht="28">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
         <v>1</v>
@@ -2758,10 +2755,10 @@
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="10" customFormat="1" ht="28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="10" customFormat="1" ht="28">
       <c r="A26" s="9"/>
       <c r="B26" s="9" t="s">
         <v>34</v>
@@ -2769,10 +2766,10 @@
       <c r="C26" s="9"/>
       <c r="D26" s="8"/>
       <c r="E26" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="27" customFormat="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="27" customFormat="1">
       <c r="A27" s="15" t="s">
         <v>64</v>
       </c>
@@ -2780,15 +2777,8 @@
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-    </row>
-    <row r="28" spans="1:12" s="31" customFormat="1" ht="60">
+    </row>
+    <row r="28" spans="1:5" s="31" customFormat="1" ht="60">
       <c r="A28" s="21"/>
       <c r="B28" s="21" t="s">
         <v>11</v>
@@ -2798,25 +2788,10 @@
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="J28" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="31" customFormat="1" ht="70" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="31" customFormat="1" ht="70" customHeight="1">
       <c r="A29" s="21"/>
       <c r="B29" s="21" t="s">
         <v>27</v>
@@ -2826,28 +2801,10 @@
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="J29" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="L29" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="31" customFormat="1" ht="74" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="31" customFormat="1" ht="74" customHeight="1">
       <c r="A30" s="21"/>
       <c r="B30" s="21" t="s">
         <v>29</v>
@@ -2857,28 +2814,10 @@
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="J30" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="L30" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="31" customFormat="1" ht="72" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="31" customFormat="1" ht="72" customHeight="1">
       <c r="A31" s="21"/>
       <c r="B31" s="21" t="s">
         <v>31</v>
@@ -2888,28 +2827,10 @@
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="I31" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="J31" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="L31" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="31" customFormat="1" ht="45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="31" customFormat="1" ht="45">
       <c r="A32" s="21"/>
       <c r="B32" s="21" t="s">
         <v>1</v>
@@ -2919,20 +2840,7 @@
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="I32" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="J32" s="31" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="17" customFormat="1">
@@ -2952,8 +2860,8 @@
         <v>61</v>
       </c>
       <c r="D34" s="19"/>
-      <c r="E34" s="36" t="s">
-        <v>94</v>
+      <c r="E34" s="35" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="17" customFormat="1">
@@ -2966,7 +2874,7 @@
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="17" customFormat="1" ht="19" customHeight="1">
@@ -2979,12 +2887,12 @@
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="17" customFormat="1">
       <c r="A37" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -2994,17 +2902,17 @@
     <row r="38" spans="1:5" s="10" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="11"/>
       <c r="B38" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="17" customFormat="1">
       <c r="A39" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -3014,10 +2922,10 @@
     <row r="40" spans="1:5" s="13" customFormat="1" ht="14">
       <c r="A40" s="12"/>
       <c r="B40" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="13" customFormat="1" ht="28">
@@ -3029,7 +2937,7 @@
         <v>43</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="10" customFormat="1" ht="14">
@@ -3042,7 +2950,7 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="10" customFormat="1" ht="14">
@@ -3060,7 +2968,7 @@
         <v>47</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="13" customFormat="1" ht="28">
@@ -3069,7 +2977,7 @@
         <v>48</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="13" customFormat="1" ht="28">
@@ -3078,7 +2986,7 @@
         <v>49</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="10" customFormat="1" ht="28">
@@ -3089,7 +2997,7 @@
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="10" customFormat="1" ht="28">
@@ -3100,140 +3008,123 @@
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="27" customFormat="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="27" customFormat="1">
       <c r="A49" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" s="26"/>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-    </row>
-    <row r="50" spans="1:12" s="31" customFormat="1" ht="30">
+    </row>
+    <row r="50" spans="1:5" s="31" customFormat="1" ht="30">
       <c r="A50" s="32"/>
       <c r="B50" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C50" s="32"/>
       <c r="D50" s="32"/>
       <c r="E50" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-    </row>
-    <row r="51" spans="1:12" s="31" customFormat="1" ht="31.5" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="31" customFormat="1" ht="31.5" customHeight="1">
       <c r="A51" s="32"/>
       <c r="B51" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-    </row>
-    <row r="52" spans="1:12" s="10" customFormat="1" ht="14">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="10" customFormat="1" ht="14">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
     </row>
-    <row r="53" spans="1:12" s="10" customFormat="1" ht="14">
+    <row r="53" spans="1:5" s="10" customFormat="1" ht="14">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
     </row>
-    <row r="54" spans="1:12" s="10" customFormat="1" ht="14">
+    <row r="54" spans="1:5" s="10" customFormat="1" ht="14">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
     </row>
-    <row r="55" spans="1:12" s="10" customFormat="1" ht="14">
+    <row r="55" spans="1:5" s="10" customFormat="1" ht="14">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
     </row>
-    <row r="56" spans="1:12" s="10" customFormat="1" ht="14">
+    <row r="56" spans="1:5" s="10" customFormat="1" ht="14">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:5">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:5">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:5">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:5">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:5">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:5">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:5">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:5">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -5389,7 +5280,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Release_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyRelease.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Release_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyRelease.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="700" windowWidth="29560" windowHeight="16680" tabRatio="500"/>
+    <workbookView xWindow="5420" yWindow="2740" windowWidth="29560" windowHeight="16680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
   <si>
     <t>Race</t>
   </si>
@@ -322,9 +322,6 @@
     <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/j:Booking/nc:ActivityDate/nc:DateTime</t>
   </si>
   <si>
-    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/j:Booking/j:BookingFacility/nc:FacilityIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
     <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/j:Detention/j:SupervisionAugmentation/j:SupervisionReleaseEligibilityDate/nc:Date</t>
   </si>
   <si>
@@ -356,13 +353,52 @@
   </si>
   <si>
     <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/crr-ext:BehavioralHealthInformation/crr-ext:SeriousMentalIllnessIndicator</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Eye Color</t>
+  </si>
+  <si>
+    <t>Hair Color</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Physical Feature Description</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/j:Booking/j:BookingDetentionFacility/nc:FacilityIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ReleasePerson/@structures:ref]/nc:PersonAgeMeasure/nc:MeasureValueText</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ReleasePerson/@structures:ref]/nc:PersonEyeColorText</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ReleasePerson/@structures:ref]/nc:PersonHairColorText</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ReleasePerson/@structures:ref]/nc:PersonHeightMeasure/nc:MeasureValueText</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ReleasePerson/@structures:ref]/nc:PersonWeightMeasure/nc:MeasureValueText</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ReleasePerson/@structures:ref]/nc:PersonPhysicalFeature/nc:PhysicalFeatureDescriptionText</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -473,6 +509,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -508,7 +557,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="746">
+  <cellStyleXfs count="758">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1255,8 +1304,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1273,9 +1334,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1287,12 +1345,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1309,7 +1361,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1324,9 +1375,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1349,23 +1397,35 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="735" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="735" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="746">
+  <cellStyles count="758">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1738,6 +1798,12 @@
     <cellStyle name="Followed Hyperlink" xfId="741" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="743" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="751" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="753" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="755" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="757" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2110,6 +2176,12 @@
     <cellStyle name="Hyperlink" xfId="740" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="742" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="744" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="746" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="748" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="750" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="752" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="754" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="756" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="735" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2440,11 +2512,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E370"/>
+  <dimension ref="A1:M376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:M1048576"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2457,16 +2529,16 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="34" customFormat="1" ht="36" customHeight="1">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:13" s="27" customFormat="1">
+      <c r="A1" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-    </row>
-    <row r="2" spans="1:5" ht="36" customHeight="1">
+      <c r="B1" s="35"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2483,8 +2555,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="10" customFormat="1" ht="14">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="14">
+      <c r="A3" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="3"/>
@@ -2492,7 +2564,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" s="10" customFormat="1" ht="28">
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="28">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -2505,7 +2577,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="10" customFormat="1" ht="14">
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="14">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -2518,8 +2590,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="10" customFormat="1" ht="14">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:13" s="9" customFormat="1" ht="14">
+      <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3"/>
@@ -2527,32 +2599,30 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" s="10" customFormat="1" ht="14">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="1:13" s="9" customFormat="1" ht="14">
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="10" customFormat="1" ht="14">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="14">
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="10" customFormat="1" ht="14">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:13" s="9" customFormat="1" ht="14">
+      <c r="A9" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="3"/>
@@ -2560,30 +2630,30 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" s="10" customFormat="1" ht="14">
+    <row r="10" spans="1:13" s="9" customFormat="1" ht="14">
       <c r="A10" s="4"/>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="10" customFormat="1" ht="14">
+    <row r="11" spans="1:13" s="9" customFormat="1" ht="14">
       <c r="A11" s="4"/>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="10" customFormat="1" ht="14">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:13" s="9" customFormat="1" ht="14">
+      <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="3"/>
@@ -2591,2687 +2661,2753 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" s="30" customFormat="1" ht="30">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29" t="s">
+    <row r="13" spans="1:13" s="25" customFormat="1" ht="30">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="21" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="10" customFormat="1" ht="28">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:13" s="25" customFormat="1" ht="28">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+    </row>
+    <row r="15" spans="1:13" s="25" customFormat="1" ht="28">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+    </row>
+    <row r="16" spans="1:13" s="25" customFormat="1" ht="28">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+    </row>
+    <row r="17" spans="1:13" s="25" customFormat="1" ht="28">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+    </row>
+    <row r="18" spans="1:13" s="25" customFormat="1" ht="28">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+    </row>
+    <row r="19" spans="1:13" s="25" customFormat="1" ht="28">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+    </row>
+    <row r="20" spans="1:13" s="9" customFormat="1" ht="28">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="4" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="10" customFormat="1" ht="28">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7" t="s">
+    <row r="21" spans="1:13" s="9" customFormat="1" ht="28">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="10" customFormat="1" ht="28">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7" t="s">
+    <row r="22" spans="1:13" s="9" customFormat="1" ht="28">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="10" customFormat="1" ht="28">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
+    <row r="23" spans="1:13" s="9" customFormat="1" ht="28">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="4" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="10" customFormat="1" ht="42">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9" t="s">
+    <row r="24" spans="1:13" s="9" customFormat="1" ht="42">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="10" customFormat="1" ht="42">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="10" customFormat="1" ht="42">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="10" customFormat="1" ht="28">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="10" customFormat="1" ht="28">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="10" customFormat="1" ht="28">
-      <c r="A23" s="5"/>
-      <c r="B23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="10" customFormat="1" ht="28">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="10" customFormat="1" ht="28">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9" t="s">
-        <v>1</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="9" customFormat="1" ht="42">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="9" customFormat="1" ht="42">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="9" customFormat="1" ht="28">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="9" customFormat="1" ht="28">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="9" customFormat="1" ht="28">
+      <c r="A29" s="5"/>
+      <c r="B29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="9" customFormat="1" ht="28">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="9" customFormat="1" ht="28">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="10" customFormat="1" ht="28">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9" t="s">
+    <row r="32" spans="1:13" s="9" customFormat="1" ht="28">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="4" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="27" customFormat="1">
-      <c r="A27" s="15" t="s">
+    <row r="33" spans="1:5" s="22" customFormat="1">
+      <c r="A33" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-    </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" ht="60">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21" t="s">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="1:5" s="26" customFormat="1" ht="60">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C34" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21" t="s">
+      <c r="D34" s="17"/>
+      <c r="E34" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" ht="70" customHeight="1">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21" t="s">
+    <row r="35" spans="1:5" s="26" customFormat="1" ht="60">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C35" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21" t="s">
+      <c r="D35" s="17"/>
+      <c r="E35" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" ht="74" customHeight="1">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21" t="s">
+    <row r="36" spans="1:5" s="26" customFormat="1" ht="60">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C36" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21" t="s">
+      <c r="D36" s="17"/>
+      <c r="E36" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" ht="72" customHeight="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21" t="s">
+    <row r="37" spans="1:5" s="26" customFormat="1" ht="60">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C37" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21" t="s">
+      <c r="D37" s="17"/>
+      <c r="E37" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" ht="45">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21" t="s">
+    <row r="38" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C38" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21" t="s">
+      <c r="D38" s="17"/>
+      <c r="E38" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="17" customFormat="1">
-      <c r="A33" s="15" t="s">
+    <row r="39" spans="1:5" s="14" customFormat="1">
+      <c r="A39" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" spans="1:5" s="18" customFormat="1" ht="28">
-      <c r="B34" s="24" t="s">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:5" s="32" customFormat="1" ht="28">
+      <c r="B40" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C40" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="35" t="s">
+      <c r="D40" s="15"/>
+      <c r="E40" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="17" customFormat="1">
-      <c r="A35" s="20"/>
-      <c r="B35" s="7" t="s">
+    <row r="41" spans="1:5" s="14" customFormat="1">
+      <c r="A41" s="16"/>
+      <c r="B41" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22" t="s">
+      <c r="D41" s="17"/>
+      <c r="E41" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="17" customFormat="1" ht="19" customHeight="1">
-      <c r="A36" s="20"/>
-      <c r="B36" s="7" t="s">
+    <row r="42" spans="1:5" s="14" customFormat="1" ht="30">
+      <c r="A42" s="16"/>
+      <c r="B42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23" t="s">
+      <c r="D42" s="18"/>
+      <c r="E42" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="14" customFormat="1">
+      <c r="A43" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" spans="1:5" s="9" customFormat="1" ht="14">
+      <c r="B44" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="17" customFormat="1">
-      <c r="A37" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-    </row>
-    <row r="38" spans="1:5" s="10" customFormat="1" ht="20" customHeight="1">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
+    <row r="45" spans="1:5" s="14" customFormat="1">
+      <c r="A45" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:5" s="10" customFormat="1" ht="14">
+      <c r="B46" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="17" customFormat="1">
-      <c r="A39" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="1:5" s="13" customFormat="1" ht="14">
-      <c r="A40" s="12"/>
-      <c r="B40" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" s="13" t="s">
+    <row r="47" spans="1:5" s="10" customFormat="1" ht="28">
+      <c r="A47" s="6"/>
+      <c r="B47" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="13" customFormat="1" ht="28">
-      <c r="A41" s="7"/>
-      <c r="B41" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="7" t="s">
+    <row r="48" spans="1:5" s="9" customFormat="1" ht="14">
+      <c r="B48" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="10" customFormat="1" ht="14">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11" t="s">
+    <row r="49" spans="1:5" s="9" customFormat="1" ht="14">
+      <c r="A49" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" s="9" customFormat="1" ht="28">
+      <c r="B50" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="10" customFormat="1" ht="14">
-      <c r="A43" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" s="10" customFormat="1" ht="28">
-      <c r="A44" s="11"/>
-      <c r="B44" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" s="4" t="s">
+    <row r="51" spans="1:5" s="10" customFormat="1" ht="28">
+      <c r="B51" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="13" customFormat="1" ht="28">
-      <c r="A45" s="12"/>
-      <c r="B45" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="4" t="s">
+    <row r="52" spans="1:5" s="10" customFormat="1" ht="28">
+      <c r="A52" s="6"/>
+      <c r="B52" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="13" customFormat="1" ht="28">
-      <c r="A46" s="7"/>
-      <c r="B46" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="4" t="s">
+    <row r="53" spans="1:5" s="9" customFormat="1" ht="28">
+      <c r="B53" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="10" customFormat="1" ht="28">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="4" t="s">
+    <row r="54" spans="1:5" s="9" customFormat="1" ht="28">
+      <c r="B54" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="10" customFormat="1" ht="28">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="4" t="s">
+    <row r="55" spans="1:5" s="22" customFormat="1">
+      <c r="A55" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+    </row>
+    <row r="56" spans="1:5" s="26" customFormat="1" ht="30">
+      <c r="B56" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="27" customFormat="1">
-      <c r="A49" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-    </row>
-    <row r="50" spans="1:5" s="31" customFormat="1" ht="30">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="21" t="s">
+    <row r="57" spans="1:5" s="26" customFormat="1">
+      <c r="B57" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" s="17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="31" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A51" s="32"/>
-      <c r="B51" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="10" customFormat="1" ht="14">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-    </row>
-    <row r="53" spans="1:5" s="10" customFormat="1" ht="14">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-    </row>
-    <row r="54" spans="1:5" s="10" customFormat="1" ht="14">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-    </row>
-    <row r="55" spans="1:5" s="10" customFormat="1" ht="14">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-    </row>
-    <row r="56" spans="1:5" s="10" customFormat="1" ht="14">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-    </row>
+    <row r="58" spans="1:5" s="9" customFormat="1" ht="14"/>
+    <row r="59" spans="1:5" s="9" customFormat="1" ht="14"/>
+    <row r="60" spans="1:5" s="9" customFormat="1" ht="14"/>
+    <row r="61" spans="1:5" s="9" customFormat="1" ht="14"/>
+    <row r="62" spans="1:5" s="9" customFormat="1" ht="14"/>
     <row r="63" spans="1:5">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
+      <c r="A71" s="34"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
+      <c r="A87" s="34"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
+      <c r="A92" s="34"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
+      <c r="A93" s="34"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
+      <c r="A95" s="34"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
+      <c r="A96" s="34"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
+      <c r="A97" s="34"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="34"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
+      <c r="A98" s="34"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
+      <c r="A99" s="34"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="34"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
+      <c r="A100" s="34"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
+      <c r="A101" s="34"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="34"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
+      <c r="A102" s="34"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
+      <c r="A104" s="34"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="34"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
+      <c r="A105" s="34"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="34"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
+      <c r="A106" s="34"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="34"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
+      <c r="A107" s="34"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="34"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
+      <c r="A108" s="34"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="34"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
+      <c r="A109" s="34"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="34"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
+      <c r="A110" s="34"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="34"/>
+      <c r="E110" s="34"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
+      <c r="A111" s="34"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="34"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
+      <c r="A112" s="34"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="34"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="34"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="34"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
+      <c r="A114" s="34"/>
+      <c r="B114" s="34"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="34"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
+      <c r="A115" s="34"/>
+      <c r="B115" s="34"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="34"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
+      <c r="A116" s="34"/>
+      <c r="B116" s="34"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="34"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
+      <c r="A117" s="34"/>
+      <c r="B117" s="34"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="34"/>
+      <c r="E117" s="34"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
+      <c r="A118" s="34"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="34"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
+      <c r="A119" s="34"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="34"/>
+      <c r="E119" s="34"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="6"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
+      <c r="A120" s="34"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="34"/>
+      <c r="E120" s="34"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
+      <c r="A121" s="34"/>
+      <c r="B121" s="34"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="34"/>
+      <c r="E121" s="34"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
+      <c r="A122" s="34"/>
+      <c r="B122" s="34"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="34"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="6"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
+      <c r="A123" s="34"/>
+      <c r="B123" s="34"/>
+      <c r="C123" s="34"/>
+      <c r="D123" s="34"/>
+      <c r="E123" s="34"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
+      <c r="A124" s="34"/>
+      <c r="B124" s="34"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="34"/>
+      <c r="E124" s="34"/>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="6"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
+      <c r="A125" s="34"/>
+      <c r="B125" s="34"/>
+      <c r="C125" s="34"/>
+      <c r="D125" s="34"/>
+      <c r="E125" s="34"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="6"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
+      <c r="A126" s="34"/>
+      <c r="B126" s="34"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="34"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
+      <c r="A127" s="34"/>
+      <c r="B127" s="34"/>
+      <c r="C127" s="34"/>
+      <c r="D127" s="34"/>
+      <c r="E127" s="34"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="6"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
+      <c r="A128" s="34"/>
+      <c r="B128" s="34"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="34"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
+      <c r="A129" s="34"/>
+      <c r="B129" s="34"/>
+      <c r="C129" s="34"/>
+      <c r="D129" s="34"/>
+      <c r="E129" s="34"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="6"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
+      <c r="A130" s="34"/>
+      <c r="B130" s="34"/>
+      <c r="C130" s="34"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="34"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="6"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
+      <c r="A131" s="34"/>
+      <c r="B131" s="34"/>
+      <c r="C131" s="34"/>
+      <c r="D131" s="34"/>
+      <c r="E131" s="34"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
+      <c r="A132" s="34"/>
+      <c r="B132" s="34"/>
+      <c r="C132" s="34"/>
+      <c r="D132" s="34"/>
+      <c r="E132" s="34"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
+      <c r="A133" s="34"/>
+      <c r="B133" s="34"/>
+      <c r="C133" s="34"/>
+      <c r="D133" s="34"/>
+      <c r="E133" s="34"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="6"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
+      <c r="A134" s="34"/>
+      <c r="B134" s="34"/>
+      <c r="C134" s="34"/>
+      <c r="D134" s="34"/>
+      <c r="E134" s="34"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="6"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
+      <c r="A135" s="34"/>
+      <c r="B135" s="34"/>
+      <c r="C135" s="34"/>
+      <c r="D135" s="34"/>
+      <c r="E135" s="34"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="6"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
+      <c r="A136" s="34"/>
+      <c r="B136" s="34"/>
+      <c r="C136" s="34"/>
+      <c r="D136" s="34"/>
+      <c r="E136" s="34"/>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
+      <c r="A137" s="34"/>
+      <c r="B137" s="34"/>
+      <c r="C137" s="34"/>
+      <c r="D137" s="34"/>
+      <c r="E137" s="34"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="6"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
+      <c r="A138" s="34"/>
+      <c r="B138" s="34"/>
+      <c r="C138" s="34"/>
+      <c r="D138" s="34"/>
+      <c r="E138" s="34"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="6"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
+      <c r="A139" s="34"/>
+      <c r="B139" s="34"/>
+      <c r="C139" s="34"/>
+      <c r="D139" s="34"/>
+      <c r="E139" s="34"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="6"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
+      <c r="A140" s="34"/>
+      <c r="B140" s="34"/>
+      <c r="C140" s="34"/>
+      <c r="D140" s="34"/>
+      <c r="E140" s="34"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="6"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
+      <c r="A141" s="34"/>
+      <c r="B141" s="34"/>
+      <c r="C141" s="34"/>
+      <c r="D141" s="34"/>
+      <c r="E141" s="34"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="6"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
+      <c r="A142" s="34"/>
+      <c r="B142" s="34"/>
+      <c r="C142" s="34"/>
+      <c r="D142" s="34"/>
+      <c r="E142" s="34"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="6"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
+      <c r="A143" s="34"/>
+      <c r="B143" s="34"/>
+      <c r="C143" s="34"/>
+      <c r="D143" s="34"/>
+      <c r="E143" s="34"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="6"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
+      <c r="A144" s="34"/>
+      <c r="B144" s="34"/>
+      <c r="C144" s="34"/>
+      <c r="D144" s="34"/>
+      <c r="E144" s="34"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
+      <c r="A145" s="34"/>
+      <c r="B145" s="34"/>
+      <c r="C145" s="34"/>
+      <c r="D145" s="34"/>
+      <c r="E145" s="34"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="6"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
+      <c r="A146" s="34"/>
+      <c r="B146" s="34"/>
+      <c r="C146" s="34"/>
+      <c r="D146" s="34"/>
+      <c r="E146" s="34"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="6"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
+      <c r="A147" s="34"/>
+      <c r="B147" s="34"/>
+      <c r="C147" s="34"/>
+      <c r="D147" s="34"/>
+      <c r="E147" s="34"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
+      <c r="A148" s="34"/>
+      <c r="B148" s="34"/>
+      <c r="C148" s="34"/>
+      <c r="D148" s="34"/>
+      <c r="E148" s="34"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
+      <c r="A149" s="34"/>
+      <c r="B149" s="34"/>
+      <c r="C149" s="34"/>
+      <c r="D149" s="34"/>
+      <c r="E149" s="34"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="6"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
+      <c r="A150" s="34"/>
+      <c r="B150" s="34"/>
+      <c r="C150" s="34"/>
+      <c r="D150" s="34"/>
+      <c r="E150" s="34"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
+      <c r="A151" s="34"/>
+      <c r="B151" s="34"/>
+      <c r="C151" s="34"/>
+      <c r="D151" s="34"/>
+      <c r="E151" s="34"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
+      <c r="A152" s="34"/>
+      <c r="B152" s="34"/>
+      <c r="C152" s="34"/>
+      <c r="D152" s="34"/>
+      <c r="E152" s="34"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="6"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
+      <c r="A153" s="34"/>
+      <c r="B153" s="34"/>
+      <c r="C153" s="34"/>
+      <c r="D153" s="34"/>
+      <c r="E153" s="34"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="6"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
+      <c r="A154" s="34"/>
+      <c r="B154" s="34"/>
+      <c r="C154" s="34"/>
+      <c r="D154" s="34"/>
+      <c r="E154" s="34"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="6"/>
-      <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
+      <c r="A155" s="34"/>
+      <c r="B155" s="34"/>
+      <c r="C155" s="34"/>
+      <c r="D155" s="34"/>
+      <c r="E155" s="34"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="6"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
+      <c r="A156" s="34"/>
+      <c r="B156" s="34"/>
+      <c r="C156" s="34"/>
+      <c r="D156" s="34"/>
+      <c r="E156" s="34"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="6"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
+      <c r="A157" s="34"/>
+      <c r="B157" s="34"/>
+      <c r="C157" s="34"/>
+      <c r="D157" s="34"/>
+      <c r="E157" s="34"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="6"/>
-      <c r="B158" s="6"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
+      <c r="A158" s="34"/>
+      <c r="B158" s="34"/>
+      <c r="C158" s="34"/>
+      <c r="D158" s="34"/>
+      <c r="E158" s="34"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="6"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
+      <c r="A159" s="34"/>
+      <c r="B159" s="34"/>
+      <c r="C159" s="34"/>
+      <c r="D159" s="34"/>
+      <c r="E159" s="34"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="6"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
+      <c r="A160" s="34"/>
+      <c r="B160" s="34"/>
+      <c r="C160" s="34"/>
+      <c r="D160" s="34"/>
+      <c r="E160" s="34"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="6"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
+      <c r="A161" s="34"/>
+      <c r="B161" s="34"/>
+      <c r="C161" s="34"/>
+      <c r="D161" s="34"/>
+      <c r="E161" s="34"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="6"/>
-      <c r="B162" s="6"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="6"/>
+      <c r="A162" s="34"/>
+      <c r="B162" s="34"/>
+      <c r="C162" s="34"/>
+      <c r="D162" s="34"/>
+      <c r="E162" s="34"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="6"/>
-      <c r="B163" s="6"/>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
-      <c r="E163" s="6"/>
+      <c r="A163" s="34"/>
+      <c r="B163" s="34"/>
+      <c r="C163" s="34"/>
+      <c r="D163" s="34"/>
+      <c r="E163" s="34"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="6"/>
-      <c r="B164" s="6"/>
-      <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
-      <c r="E164" s="6"/>
+      <c r="A164" s="34"/>
+      <c r="B164" s="34"/>
+      <c r="C164" s="34"/>
+      <c r="D164" s="34"/>
+      <c r="E164" s="34"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="6"/>
-      <c r="B165" s="6"/>
-      <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
-      <c r="E165" s="6"/>
+      <c r="A165" s="34"/>
+      <c r="B165" s="34"/>
+      <c r="C165" s="34"/>
+      <c r="D165" s="34"/>
+      <c r="E165" s="34"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="6"/>
-      <c r="B166" s="6"/>
-      <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="6"/>
+      <c r="A166" s="34"/>
+      <c r="B166" s="34"/>
+      <c r="C166" s="34"/>
+      <c r="D166" s="34"/>
+      <c r="E166" s="34"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="6"/>
-      <c r="B167" s="6"/>
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="6"/>
+      <c r="A167" s="34"/>
+      <c r="B167" s="34"/>
+      <c r="C167" s="34"/>
+      <c r="D167" s="34"/>
+      <c r="E167" s="34"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="6"/>
-      <c r="B168" s="6"/>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6"/>
+      <c r="A168" s="34"/>
+      <c r="B168" s="34"/>
+      <c r="C168" s="34"/>
+      <c r="D168" s="34"/>
+      <c r="E168" s="34"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="6"/>
-      <c r="B169" s="6"/>
-      <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="6"/>
+      <c r="A169" s="34"/>
+      <c r="B169" s="34"/>
+      <c r="C169" s="34"/>
+      <c r="D169" s="34"/>
+      <c r="E169" s="34"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="6"/>
-      <c r="B170" s="6"/>
-      <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
-      <c r="E170" s="6"/>
+      <c r="A170" s="34"/>
+      <c r="B170" s="34"/>
+      <c r="C170" s="34"/>
+      <c r="D170" s="34"/>
+      <c r="E170" s="34"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="6"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
+      <c r="A171" s="34"/>
+      <c r="B171" s="34"/>
+      <c r="C171" s="34"/>
+      <c r="D171" s="34"/>
+      <c r="E171" s="34"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="6"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
+      <c r="A172" s="34"/>
+      <c r="B172" s="34"/>
+      <c r="C172" s="34"/>
+      <c r="D172" s="34"/>
+      <c r="E172" s="34"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="6"/>
-      <c r="B173" s="6"/>
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="6"/>
+      <c r="A173" s="34"/>
+      <c r="B173" s="34"/>
+      <c r="C173" s="34"/>
+      <c r="D173" s="34"/>
+      <c r="E173" s="34"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="6"/>
-      <c r="B174" s="6"/>
-      <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="6"/>
+      <c r="A174" s="34"/>
+      <c r="B174" s="34"/>
+      <c r="C174" s="34"/>
+      <c r="D174" s="34"/>
+      <c r="E174" s="34"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="6"/>
-      <c r="B175" s="6"/>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
+      <c r="A175" s="34"/>
+      <c r="B175" s="34"/>
+      <c r="C175" s="34"/>
+      <c r="D175" s="34"/>
+      <c r="E175" s="34"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="6"/>
-      <c r="B176" s="6"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
+      <c r="A176" s="34"/>
+      <c r="B176" s="34"/>
+      <c r="C176" s="34"/>
+      <c r="D176" s="34"/>
+      <c r="E176" s="34"/>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="6"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
+      <c r="A177" s="34"/>
+      <c r="B177" s="34"/>
+      <c r="C177" s="34"/>
+      <c r="D177" s="34"/>
+      <c r="E177" s="34"/>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="6"/>
-      <c r="B178" s="6"/>
-      <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-      <c r="E178" s="6"/>
+      <c r="A178" s="34"/>
+      <c r="B178" s="34"/>
+      <c r="C178" s="34"/>
+      <c r="D178" s="34"/>
+      <c r="E178" s="34"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="6"/>
-      <c r="B179" s="6"/>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
+      <c r="A179" s="34"/>
+      <c r="B179" s="34"/>
+      <c r="C179" s="34"/>
+      <c r="D179" s="34"/>
+      <c r="E179" s="34"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="6"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
+      <c r="A180" s="34"/>
+      <c r="B180" s="34"/>
+      <c r="C180" s="34"/>
+      <c r="D180" s="34"/>
+      <c r="E180" s="34"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="6"/>
-      <c r="B181" s="6"/>
-      <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
-      <c r="E181" s="6"/>
+      <c r="A181" s="34"/>
+      <c r="B181" s="34"/>
+      <c r="C181" s="34"/>
+      <c r="D181" s="34"/>
+      <c r="E181" s="34"/>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="6"/>
-      <c r="B182" s="6"/>
-      <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
-      <c r="E182" s="6"/>
+      <c r="A182" s="34"/>
+      <c r="B182" s="34"/>
+      <c r="C182" s="34"/>
+      <c r="D182" s="34"/>
+      <c r="E182" s="34"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="6"/>
-      <c r="B183" s="6"/>
-      <c r="C183" s="6"/>
-      <c r="D183" s="6"/>
-      <c r="E183" s="6"/>
+      <c r="A183" s="34"/>
+      <c r="B183" s="34"/>
+      <c r="C183" s="34"/>
+      <c r="D183" s="34"/>
+      <c r="E183" s="34"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="6"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
+      <c r="A184" s="34"/>
+      <c r="B184" s="34"/>
+      <c r="C184" s="34"/>
+      <c r="D184" s="34"/>
+      <c r="E184" s="34"/>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="6"/>
-      <c r="B185" s="6"/>
-      <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
-      <c r="E185" s="6"/>
+      <c r="A185" s="34"/>
+      <c r="B185" s="34"/>
+      <c r="C185" s="34"/>
+      <c r="D185" s="34"/>
+      <c r="E185" s="34"/>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="6"/>
-      <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
+      <c r="A186" s="34"/>
+      <c r="B186" s="34"/>
+      <c r="C186" s="34"/>
+      <c r="D186" s="34"/>
+      <c r="E186" s="34"/>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="6"/>
-      <c r="B187" s="6"/>
-      <c r="C187" s="6"/>
-      <c r="D187" s="6"/>
-      <c r="E187" s="6"/>
+      <c r="A187" s="34"/>
+      <c r="B187" s="34"/>
+      <c r="C187" s="34"/>
+      <c r="D187" s="34"/>
+      <c r="E187" s="34"/>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="6"/>
-      <c r="B188" s="6"/>
-      <c r="C188" s="6"/>
-      <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
+      <c r="A188" s="34"/>
+      <c r="B188" s="34"/>
+      <c r="C188" s="34"/>
+      <c r="D188" s="34"/>
+      <c r="E188" s="34"/>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="6"/>
-      <c r="B189" s="6"/>
-      <c r="C189" s="6"/>
-      <c r="D189" s="6"/>
-      <c r="E189" s="6"/>
+      <c r="A189" s="34"/>
+      <c r="B189" s="34"/>
+      <c r="C189" s="34"/>
+      <c r="D189" s="34"/>
+      <c r="E189" s="34"/>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="6"/>
-      <c r="B190" s="6"/>
-      <c r="C190" s="6"/>
-      <c r="D190" s="6"/>
-      <c r="E190" s="6"/>
+      <c r="A190" s="34"/>
+      <c r="B190" s="34"/>
+      <c r="C190" s="34"/>
+      <c r="D190" s="34"/>
+      <c r="E190" s="34"/>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="6"/>
-      <c r="B191" s="6"/>
-      <c r="C191" s="6"/>
-      <c r="D191" s="6"/>
-      <c r="E191" s="6"/>
+      <c r="A191" s="34"/>
+      <c r="B191" s="34"/>
+      <c r="C191" s="34"/>
+      <c r="D191" s="34"/>
+      <c r="E191" s="34"/>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="6"/>
-      <c r="B192" s="6"/>
-      <c r="C192" s="6"/>
-      <c r="D192" s="6"/>
-      <c r="E192" s="6"/>
+      <c r="A192" s="34"/>
+      <c r="B192" s="34"/>
+      <c r="C192" s="34"/>
+      <c r="D192" s="34"/>
+      <c r="E192" s="34"/>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="6"/>
-      <c r="B193" s="6"/>
-      <c r="C193" s="6"/>
-      <c r="D193" s="6"/>
-      <c r="E193" s="6"/>
+      <c r="A193" s="34"/>
+      <c r="B193" s="34"/>
+      <c r="C193" s="34"/>
+      <c r="D193" s="34"/>
+      <c r="E193" s="34"/>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="6"/>
-      <c r="B194" s="6"/>
-      <c r="C194" s="6"/>
-      <c r="D194" s="6"/>
-      <c r="E194" s="6"/>
+      <c r="A194" s="34"/>
+      <c r="B194" s="34"/>
+      <c r="C194" s="34"/>
+      <c r="D194" s="34"/>
+      <c r="E194" s="34"/>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="6"/>
-      <c r="B195" s="6"/>
-      <c r="C195" s="6"/>
-      <c r="D195" s="6"/>
-      <c r="E195" s="6"/>
+      <c r="A195" s="34"/>
+      <c r="B195" s="34"/>
+      <c r="C195" s="34"/>
+      <c r="D195" s="34"/>
+      <c r="E195" s="34"/>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="6"/>
-      <c r="B196" s="6"/>
-      <c r="C196" s="6"/>
-      <c r="D196" s="6"/>
-      <c r="E196" s="6"/>
+      <c r="A196" s="34"/>
+      <c r="B196" s="34"/>
+      <c r="C196" s="34"/>
+      <c r="D196" s="34"/>
+      <c r="E196" s="34"/>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="6"/>
-      <c r="B197" s="6"/>
-      <c r="C197" s="6"/>
-      <c r="D197" s="6"/>
-      <c r="E197" s="6"/>
+      <c r="A197" s="34"/>
+      <c r="B197" s="34"/>
+      <c r="C197" s="34"/>
+      <c r="D197" s="34"/>
+      <c r="E197" s="34"/>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="6"/>
-      <c r="B198" s="6"/>
-      <c r="C198" s="6"/>
-      <c r="D198" s="6"/>
-      <c r="E198" s="6"/>
+      <c r="A198" s="34"/>
+      <c r="B198" s="34"/>
+      <c r="C198" s="34"/>
+      <c r="D198" s="34"/>
+      <c r="E198" s="34"/>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="6"/>
-      <c r="B199" s="6"/>
-      <c r="C199" s="6"/>
-      <c r="D199" s="6"/>
-      <c r="E199" s="6"/>
+      <c r="A199" s="34"/>
+      <c r="B199" s="34"/>
+      <c r="C199" s="34"/>
+      <c r="D199" s="34"/>
+      <c r="E199" s="34"/>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="6"/>
-      <c r="B200" s="6"/>
-      <c r="C200" s="6"/>
-      <c r="D200" s="6"/>
-      <c r="E200" s="6"/>
+      <c r="A200" s="34"/>
+      <c r="B200" s="34"/>
+      <c r="C200" s="34"/>
+      <c r="D200" s="34"/>
+      <c r="E200" s="34"/>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="6"/>
-      <c r="B201" s="6"/>
-      <c r="C201" s="6"/>
-      <c r="D201" s="6"/>
-      <c r="E201" s="6"/>
+      <c r="A201" s="34"/>
+      <c r="B201" s="34"/>
+      <c r="C201" s="34"/>
+      <c r="D201" s="34"/>
+      <c r="E201" s="34"/>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="6"/>
-      <c r="B202" s="6"/>
-      <c r="C202" s="6"/>
-      <c r="D202" s="6"/>
-      <c r="E202" s="6"/>
+      <c r="A202" s="34"/>
+      <c r="B202" s="34"/>
+      <c r="C202" s="34"/>
+      <c r="D202" s="34"/>
+      <c r="E202" s="34"/>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="6"/>
-      <c r="B203" s="6"/>
-      <c r="C203" s="6"/>
-      <c r="D203" s="6"/>
-      <c r="E203" s="6"/>
+      <c r="A203" s="34"/>
+      <c r="B203" s="34"/>
+      <c r="C203" s="34"/>
+      <c r="D203" s="34"/>
+      <c r="E203" s="34"/>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="6"/>
-      <c r="B204" s="6"/>
-      <c r="C204" s="6"/>
-      <c r="D204" s="6"/>
-      <c r="E204" s="6"/>
+      <c r="A204" s="34"/>
+      <c r="B204" s="34"/>
+      <c r="C204" s="34"/>
+      <c r="D204" s="34"/>
+      <c r="E204" s="34"/>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="6"/>
-      <c r="B205" s="6"/>
-      <c r="C205" s="6"/>
-      <c r="D205" s="6"/>
-      <c r="E205" s="6"/>
+      <c r="A205" s="34"/>
+      <c r="B205" s="34"/>
+      <c r="C205" s="34"/>
+      <c r="D205" s="34"/>
+      <c r="E205" s="34"/>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="6"/>
-      <c r="B206" s="6"/>
-      <c r="C206" s="6"/>
-      <c r="D206" s="6"/>
-      <c r="E206" s="6"/>
+      <c r="A206" s="34"/>
+      <c r="B206" s="34"/>
+      <c r="C206" s="34"/>
+      <c r="D206" s="34"/>
+      <c r="E206" s="34"/>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="6"/>
-      <c r="B207" s="6"/>
-      <c r="C207" s="6"/>
-      <c r="D207" s="6"/>
-      <c r="E207" s="6"/>
+      <c r="A207" s="34"/>
+      <c r="B207" s="34"/>
+      <c r="C207" s="34"/>
+      <c r="D207" s="34"/>
+      <c r="E207" s="34"/>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="6"/>
-      <c r="B208" s="6"/>
-      <c r="C208" s="6"/>
-      <c r="D208" s="6"/>
-      <c r="E208" s="6"/>
+      <c r="A208" s="34"/>
+      <c r="B208" s="34"/>
+      <c r="C208" s="34"/>
+      <c r="D208" s="34"/>
+      <c r="E208" s="34"/>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="6"/>
-      <c r="B209" s="6"/>
-      <c r="C209" s="6"/>
-      <c r="D209" s="6"/>
-      <c r="E209" s="6"/>
+      <c r="A209" s="34"/>
+      <c r="B209" s="34"/>
+      <c r="C209" s="34"/>
+      <c r="D209" s="34"/>
+      <c r="E209" s="34"/>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" s="6"/>
-      <c r="B210" s="6"/>
-      <c r="C210" s="6"/>
-      <c r="D210" s="6"/>
-      <c r="E210" s="6"/>
+      <c r="A210" s="34"/>
+      <c r="B210" s="34"/>
+      <c r="C210" s="34"/>
+      <c r="D210" s="34"/>
+      <c r="E210" s="34"/>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="6"/>
-      <c r="B211" s="6"/>
-      <c r="C211" s="6"/>
-      <c r="D211" s="6"/>
-      <c r="E211" s="6"/>
+      <c r="A211" s="34"/>
+      <c r="B211" s="34"/>
+      <c r="C211" s="34"/>
+      <c r="D211" s="34"/>
+      <c r="E211" s="34"/>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="6"/>
-      <c r="B212" s="6"/>
-      <c r="C212" s="6"/>
-      <c r="D212" s="6"/>
-      <c r="E212" s="6"/>
+      <c r="A212" s="34"/>
+      <c r="B212" s="34"/>
+      <c r="C212" s="34"/>
+      <c r="D212" s="34"/>
+      <c r="E212" s="34"/>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="6"/>
-      <c r="B213" s="6"/>
-      <c r="C213" s="6"/>
-      <c r="D213" s="6"/>
-      <c r="E213" s="6"/>
+      <c r="A213" s="34"/>
+      <c r="B213" s="34"/>
+      <c r="C213" s="34"/>
+      <c r="D213" s="34"/>
+      <c r="E213" s="34"/>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="6"/>
-      <c r="B214" s="6"/>
-      <c r="C214" s="6"/>
-      <c r="D214" s="6"/>
-      <c r="E214" s="6"/>
+      <c r="A214" s="34"/>
+      <c r="B214" s="34"/>
+      <c r="C214" s="34"/>
+      <c r="D214" s="34"/>
+      <c r="E214" s="34"/>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="6"/>
-      <c r="B215" s="6"/>
-      <c r="C215" s="6"/>
-      <c r="D215" s="6"/>
-      <c r="E215" s="6"/>
+      <c r="A215" s="34"/>
+      <c r="B215" s="34"/>
+      <c r="C215" s="34"/>
+      <c r="D215" s="34"/>
+      <c r="E215" s="34"/>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" s="6"/>
-      <c r="B216" s="6"/>
-      <c r="C216" s="6"/>
-      <c r="D216" s="6"/>
-      <c r="E216" s="6"/>
+      <c r="A216" s="34"/>
+      <c r="B216" s="34"/>
+      <c r="C216" s="34"/>
+      <c r="D216" s="34"/>
+      <c r="E216" s="34"/>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217" s="6"/>
-      <c r="B217" s="6"/>
-      <c r="C217" s="6"/>
-      <c r="D217" s="6"/>
-      <c r="E217" s="6"/>
+      <c r="A217" s="34"/>
+      <c r="B217" s="34"/>
+      <c r="C217" s="34"/>
+      <c r="D217" s="34"/>
+      <c r="E217" s="34"/>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" s="6"/>
-      <c r="B218" s="6"/>
-      <c r="C218" s="6"/>
-      <c r="D218" s="6"/>
-      <c r="E218" s="6"/>
+      <c r="A218" s="34"/>
+      <c r="B218" s="34"/>
+      <c r="C218" s="34"/>
+      <c r="D218" s="34"/>
+      <c r="E218" s="34"/>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219" s="6"/>
-      <c r="B219" s="6"/>
-      <c r="C219" s="6"/>
-      <c r="D219" s="6"/>
-      <c r="E219" s="6"/>
+      <c r="A219" s="34"/>
+      <c r="B219" s="34"/>
+      <c r="C219" s="34"/>
+      <c r="D219" s="34"/>
+      <c r="E219" s="34"/>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220" s="6"/>
-      <c r="B220" s="6"/>
-      <c r="C220" s="6"/>
-      <c r="D220" s="6"/>
-      <c r="E220" s="6"/>
+      <c r="A220" s="34"/>
+      <c r="B220" s="34"/>
+      <c r="C220" s="34"/>
+      <c r="D220" s="34"/>
+      <c r="E220" s="34"/>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221" s="6"/>
-      <c r="B221" s="6"/>
-      <c r="C221" s="6"/>
-      <c r="D221" s="6"/>
-      <c r="E221" s="6"/>
+      <c r="A221" s="34"/>
+      <c r="B221" s="34"/>
+      <c r="C221" s="34"/>
+      <c r="D221" s="34"/>
+      <c r="E221" s="34"/>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" s="6"/>
-      <c r="B222" s="6"/>
-      <c r="C222" s="6"/>
-      <c r="D222" s="6"/>
-      <c r="E222" s="6"/>
+      <c r="A222" s="34"/>
+      <c r="B222" s="34"/>
+      <c r="C222" s="34"/>
+      <c r="D222" s="34"/>
+      <c r="E222" s="34"/>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="6"/>
-      <c r="B223" s="6"/>
-      <c r="C223" s="6"/>
-      <c r="D223" s="6"/>
-      <c r="E223" s="6"/>
+      <c r="A223" s="34"/>
+      <c r="B223" s="34"/>
+      <c r="C223" s="34"/>
+      <c r="D223" s="34"/>
+      <c r="E223" s="34"/>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" s="6"/>
-      <c r="B224" s="6"/>
-      <c r="C224" s="6"/>
-      <c r="D224" s="6"/>
-      <c r="E224" s="6"/>
+      <c r="A224" s="34"/>
+      <c r="B224" s="34"/>
+      <c r="C224" s="34"/>
+      <c r="D224" s="34"/>
+      <c r="E224" s="34"/>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225" s="6"/>
-      <c r="B225" s="6"/>
-      <c r="C225" s="6"/>
-      <c r="D225" s="6"/>
-      <c r="E225" s="6"/>
+      <c r="A225" s="34"/>
+      <c r="B225" s="34"/>
+      <c r="C225" s="34"/>
+      <c r="D225" s="34"/>
+      <c r="E225" s="34"/>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226" s="6"/>
-      <c r="B226" s="6"/>
-      <c r="C226" s="6"/>
-      <c r="D226" s="6"/>
-      <c r="E226" s="6"/>
+      <c r="A226" s="34"/>
+      <c r="B226" s="34"/>
+      <c r="C226" s="34"/>
+      <c r="D226" s="34"/>
+      <c r="E226" s="34"/>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227" s="6"/>
-      <c r="B227" s="6"/>
-      <c r="C227" s="6"/>
-      <c r="D227" s="6"/>
-      <c r="E227" s="6"/>
+      <c r="A227" s="34"/>
+      <c r="B227" s="34"/>
+      <c r="C227" s="34"/>
+      <c r="D227" s="34"/>
+      <c r="E227" s="34"/>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" s="6"/>
-      <c r="B228" s="6"/>
-      <c r="C228" s="6"/>
-      <c r="D228" s="6"/>
-      <c r="E228" s="6"/>
+      <c r="A228" s="34"/>
+      <c r="B228" s="34"/>
+      <c r="C228" s="34"/>
+      <c r="D228" s="34"/>
+      <c r="E228" s="34"/>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" s="6"/>
-      <c r="B229" s="6"/>
-      <c r="C229" s="6"/>
-      <c r="D229" s="6"/>
-      <c r="E229" s="6"/>
+      <c r="A229" s="34"/>
+      <c r="B229" s="34"/>
+      <c r="C229" s="34"/>
+      <c r="D229" s="34"/>
+      <c r="E229" s="34"/>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230" s="6"/>
-      <c r="B230" s="6"/>
-      <c r="C230" s="6"/>
-      <c r="D230" s="6"/>
-      <c r="E230" s="6"/>
+      <c r="A230" s="34"/>
+      <c r="B230" s="34"/>
+      <c r="C230" s="34"/>
+      <c r="D230" s="34"/>
+      <c r="E230" s="34"/>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" s="6"/>
-      <c r="B231" s="6"/>
-      <c r="C231" s="6"/>
-      <c r="D231" s="6"/>
-      <c r="E231" s="6"/>
+      <c r="A231" s="34"/>
+      <c r="B231" s="34"/>
+      <c r="C231" s="34"/>
+      <c r="D231" s="34"/>
+      <c r="E231" s="34"/>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232" s="6"/>
-      <c r="B232" s="6"/>
-      <c r="C232" s="6"/>
-      <c r="D232" s="6"/>
-      <c r="E232" s="6"/>
+      <c r="A232" s="34"/>
+      <c r="B232" s="34"/>
+      <c r="C232" s="34"/>
+      <c r="D232" s="34"/>
+      <c r="E232" s="34"/>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="6"/>
-      <c r="B233" s="6"/>
-      <c r="C233" s="6"/>
-      <c r="D233" s="6"/>
-      <c r="E233" s="6"/>
+      <c r="A233" s="34"/>
+      <c r="B233" s="34"/>
+      <c r="C233" s="34"/>
+      <c r="D233" s="34"/>
+      <c r="E233" s="34"/>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" s="6"/>
-      <c r="B234" s="6"/>
-      <c r="C234" s="6"/>
-      <c r="D234" s="6"/>
-      <c r="E234" s="6"/>
+      <c r="A234" s="34"/>
+      <c r="B234" s="34"/>
+      <c r="C234" s="34"/>
+      <c r="D234" s="34"/>
+      <c r="E234" s="34"/>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="6"/>
-      <c r="B235" s="6"/>
-      <c r="C235" s="6"/>
-      <c r="D235" s="6"/>
-      <c r="E235" s="6"/>
+      <c r="A235" s="34"/>
+      <c r="B235" s="34"/>
+      <c r="C235" s="34"/>
+      <c r="D235" s="34"/>
+      <c r="E235" s="34"/>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236" s="6"/>
-      <c r="B236" s="6"/>
-      <c r="C236" s="6"/>
-      <c r="D236" s="6"/>
-      <c r="E236" s="6"/>
+      <c r="A236" s="34"/>
+      <c r="B236" s="34"/>
+      <c r="C236" s="34"/>
+      <c r="D236" s="34"/>
+      <c r="E236" s="34"/>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" s="6"/>
-      <c r="B237" s="6"/>
-      <c r="C237" s="6"/>
-      <c r="D237" s="6"/>
-      <c r="E237" s="6"/>
+      <c r="A237" s="34"/>
+      <c r="B237" s="34"/>
+      <c r="C237" s="34"/>
+      <c r="D237" s="34"/>
+      <c r="E237" s="34"/>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="6"/>
-      <c r="B238" s="6"/>
-      <c r="C238" s="6"/>
-      <c r="D238" s="6"/>
-      <c r="E238" s="6"/>
+      <c r="A238" s="34"/>
+      <c r="B238" s="34"/>
+      <c r="C238" s="34"/>
+      <c r="D238" s="34"/>
+      <c r="E238" s="34"/>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239" s="6"/>
-      <c r="B239" s="6"/>
-      <c r="C239" s="6"/>
-      <c r="D239" s="6"/>
-      <c r="E239" s="6"/>
+      <c r="A239" s="34"/>
+      <c r="B239" s="34"/>
+      <c r="C239" s="34"/>
+      <c r="D239" s="34"/>
+      <c r="E239" s="34"/>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240" s="6"/>
-      <c r="B240" s="6"/>
-      <c r="C240" s="6"/>
-      <c r="D240" s="6"/>
-      <c r="E240" s="6"/>
+      <c r="A240" s="34"/>
+      <c r="B240" s="34"/>
+      <c r="C240" s="34"/>
+      <c r="D240" s="34"/>
+      <c r="E240" s="34"/>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="6"/>
-      <c r="B241" s="6"/>
-      <c r="C241" s="6"/>
-      <c r="D241" s="6"/>
-      <c r="E241" s="6"/>
+      <c r="A241" s="34"/>
+      <c r="B241" s="34"/>
+      <c r="C241" s="34"/>
+      <c r="D241" s="34"/>
+      <c r="E241" s="34"/>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242" s="6"/>
-      <c r="B242" s="6"/>
-      <c r="C242" s="6"/>
-      <c r="D242" s="6"/>
-      <c r="E242" s="6"/>
+      <c r="A242" s="34"/>
+      <c r="B242" s="34"/>
+      <c r="C242" s="34"/>
+      <c r="D242" s="34"/>
+      <c r="E242" s="34"/>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" s="6"/>
-      <c r="B243" s="6"/>
-      <c r="C243" s="6"/>
-      <c r="D243" s="6"/>
-      <c r="E243" s="6"/>
+      <c r="A243" s="34"/>
+      <c r="B243" s="34"/>
+      <c r="C243" s="34"/>
+      <c r="D243" s="34"/>
+      <c r="E243" s="34"/>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" s="6"/>
-      <c r="B244" s="6"/>
-      <c r="C244" s="6"/>
-      <c r="D244" s="6"/>
-      <c r="E244" s="6"/>
+      <c r="A244" s="34"/>
+      <c r="B244" s="34"/>
+      <c r="C244" s="34"/>
+      <c r="D244" s="34"/>
+      <c r="E244" s="34"/>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245" s="6"/>
-      <c r="B245" s="6"/>
-      <c r="C245" s="6"/>
-      <c r="D245" s="6"/>
-      <c r="E245" s="6"/>
+      <c r="A245" s="34"/>
+      <c r="B245" s="34"/>
+      <c r="C245" s="34"/>
+      <c r="D245" s="34"/>
+      <c r="E245" s="34"/>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="6"/>
-      <c r="B246" s="6"/>
-      <c r="C246" s="6"/>
-      <c r="D246" s="6"/>
-      <c r="E246" s="6"/>
+      <c r="A246" s="34"/>
+      <c r="B246" s="34"/>
+      <c r="C246" s="34"/>
+      <c r="D246" s="34"/>
+      <c r="E246" s="34"/>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" s="6"/>
-      <c r="B247" s="6"/>
-      <c r="C247" s="6"/>
-      <c r="D247" s="6"/>
-      <c r="E247" s="6"/>
+      <c r="A247" s="34"/>
+      <c r="B247" s="34"/>
+      <c r="C247" s="34"/>
+      <c r="D247" s="34"/>
+      <c r="E247" s="34"/>
     </row>
     <row r="248" spans="1:5">
-      <c r="A248" s="6"/>
-      <c r="B248" s="6"/>
-      <c r="C248" s="6"/>
-      <c r="D248" s="6"/>
-      <c r="E248" s="6"/>
+      <c r="A248" s="34"/>
+      <c r="B248" s="34"/>
+      <c r="C248" s="34"/>
+      <c r="D248" s="34"/>
+      <c r="E248" s="34"/>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249" s="6"/>
-      <c r="B249" s="6"/>
-      <c r="C249" s="6"/>
-      <c r="D249" s="6"/>
-      <c r="E249" s="6"/>
+      <c r="A249" s="34"/>
+      <c r="B249" s="34"/>
+      <c r="C249" s="34"/>
+      <c r="D249" s="34"/>
+      <c r="E249" s="34"/>
     </row>
     <row r="250" spans="1:5">
-      <c r="A250" s="6"/>
-      <c r="B250" s="6"/>
-      <c r="C250" s="6"/>
-      <c r="D250" s="6"/>
-      <c r="E250" s="6"/>
+      <c r="A250" s="34"/>
+      <c r="B250" s="34"/>
+      <c r="C250" s="34"/>
+      <c r="D250" s="34"/>
+      <c r="E250" s="34"/>
     </row>
     <row r="251" spans="1:5">
-      <c r="A251" s="6"/>
-      <c r="B251" s="6"/>
-      <c r="C251" s="6"/>
-      <c r="D251" s="6"/>
-      <c r="E251" s="6"/>
+      <c r="A251" s="34"/>
+      <c r="B251" s="34"/>
+      <c r="C251" s="34"/>
+      <c r="D251" s="34"/>
+      <c r="E251" s="34"/>
     </row>
     <row r="252" spans="1:5">
-      <c r="A252" s="6"/>
-      <c r="B252" s="6"/>
-      <c r="C252" s="6"/>
-      <c r="D252" s="6"/>
-      <c r="E252" s="6"/>
+      <c r="A252" s="34"/>
+      <c r="B252" s="34"/>
+      <c r="C252" s="34"/>
+      <c r="D252" s="34"/>
+      <c r="E252" s="34"/>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253" s="6"/>
-      <c r="B253" s="6"/>
-      <c r="C253" s="6"/>
-      <c r="D253" s="6"/>
-      <c r="E253" s="6"/>
+      <c r="A253" s="34"/>
+      <c r="B253" s="34"/>
+      <c r="C253" s="34"/>
+      <c r="D253" s="34"/>
+      <c r="E253" s="34"/>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254" s="6"/>
-      <c r="B254" s="6"/>
-      <c r="C254" s="6"/>
-      <c r="D254" s="6"/>
-      <c r="E254" s="6"/>
+      <c r="A254" s="34"/>
+      <c r="B254" s="34"/>
+      <c r="C254" s="34"/>
+      <c r="D254" s="34"/>
+      <c r="E254" s="34"/>
     </row>
     <row r="255" spans="1:5">
-      <c r="A255" s="6"/>
-      <c r="B255" s="6"/>
-      <c r="C255" s="6"/>
-      <c r="D255" s="6"/>
-      <c r="E255" s="6"/>
+      <c r="A255" s="34"/>
+      <c r="B255" s="34"/>
+      <c r="C255" s="34"/>
+      <c r="D255" s="34"/>
+      <c r="E255" s="34"/>
     </row>
     <row r="256" spans="1:5">
-      <c r="A256" s="6"/>
-      <c r="B256" s="6"/>
-      <c r="C256" s="6"/>
-      <c r="D256" s="6"/>
-      <c r="E256" s="6"/>
+      <c r="A256" s="34"/>
+      <c r="B256" s="34"/>
+      <c r="C256" s="34"/>
+      <c r="D256" s="34"/>
+      <c r="E256" s="34"/>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="6"/>
-      <c r="B257" s="6"/>
-      <c r="C257" s="6"/>
-      <c r="D257" s="6"/>
-      <c r="E257" s="6"/>
+      <c r="A257" s="34"/>
+      <c r="B257" s="34"/>
+      <c r="C257" s="34"/>
+      <c r="D257" s="34"/>
+      <c r="E257" s="34"/>
     </row>
     <row r="258" spans="1:5">
-      <c r="A258" s="6"/>
-      <c r="B258" s="6"/>
-      <c r="C258" s="6"/>
-      <c r="D258" s="6"/>
-      <c r="E258" s="6"/>
-    </row>
-    <row r="259" spans="1:5" hidden="1">
-      <c r="A259" s="6"/>
-      <c r="B259" s="6"/>
-      <c r="C259" s="6"/>
-      <c r="D259" s="6"/>
-      <c r="E259" s="6"/>
-    </row>
-    <row r="260" spans="1:5" hidden="1">
-      <c r="A260" s="6"/>
-      <c r="B260" s="6"/>
-      <c r="C260" s="6"/>
-      <c r="D260" s="6"/>
-      <c r="E260" s="6"/>
-    </row>
-    <row r="261" spans="1:5" hidden="1">
-      <c r="A261" s="6"/>
-      <c r="B261" s="6"/>
-      <c r="C261" s="6"/>
-      <c r="D261" s="6"/>
-      <c r="E261" s="6"/>
-    </row>
-    <row r="262" spans="1:5" hidden="1">
-      <c r="A262" s="6"/>
-      <c r="B262" s="6"/>
-      <c r="C262" s="6"/>
-      <c r="D262" s="6"/>
-      <c r="E262" s="6"/>
-    </row>
-    <row r="263" spans="1:5" hidden="1">
-      <c r="A263" s="6"/>
-      <c r="B263" s="6"/>
-      <c r="C263" s="6"/>
-      <c r="D263" s="6"/>
-      <c r="E263" s="6"/>
-    </row>
-    <row r="264" spans="1:5" hidden="1">
-      <c r="A264" s="6"/>
-      <c r="B264" s="6"/>
-      <c r="C264" s="6"/>
-      <c r="D264" s="6"/>
-      <c r="E264" s="6"/>
-    </row>
-    <row r="265" spans="1:5" hidden="1">
-      <c r="A265" s="6"/>
-      <c r="B265" s="6"/>
-      <c r="C265" s="6"/>
-      <c r="D265" s="6"/>
-      <c r="E265" s="6"/>
-    </row>
-    <row r="266" spans="1:5" hidden="1">
-      <c r="A266" s="6"/>
-      <c r="B266" s="6"/>
-      <c r="C266" s="6"/>
-      <c r="D266" s="6"/>
-      <c r="E266" s="6"/>
-    </row>
-    <row r="267" spans="1:5" hidden="1">
-      <c r="A267" s="6"/>
-      <c r="B267" s="6"/>
-      <c r="C267" s="6"/>
-      <c r="D267" s="6"/>
-      <c r="E267" s="6"/>
-    </row>
-    <row r="268" spans="1:5" hidden="1">
-      <c r="A268" s="6"/>
-      <c r="B268" s="6"/>
-      <c r="C268" s="6"/>
-      <c r="D268" s="6"/>
-      <c r="E268" s="6"/>
-    </row>
-    <row r="269" spans="1:5" hidden="1">
-      <c r="A269" s="6"/>
-      <c r="B269" s="6"/>
-      <c r="C269" s="6"/>
-      <c r="D269" s="6"/>
-      <c r="E269" s="6"/>
-    </row>
-    <row r="270" spans="1:5" hidden="1">
-      <c r="A270" s="6"/>
-      <c r="B270" s="6"/>
-      <c r="C270" s="6"/>
-      <c r="D270" s="6"/>
-      <c r="E270" s="6"/>
-    </row>
-    <row r="271" spans="1:5" hidden="1">
-      <c r="A271" s="6"/>
-      <c r="B271" s="6"/>
-      <c r="C271" s="6"/>
-      <c r="D271" s="6"/>
-      <c r="E271" s="6"/>
-    </row>
-    <row r="272" spans="1:5" hidden="1">
-      <c r="A272" s="6"/>
-      <c r="B272" s="6"/>
-      <c r="C272" s="6"/>
-      <c r="D272" s="6"/>
-      <c r="E272" s="6"/>
+      <c r="A258" s="34"/>
+      <c r="B258" s="34"/>
+      <c r="C258" s="34"/>
+      <c r="D258" s="34"/>
+      <c r="E258" s="34"/>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="34"/>
+      <c r="B259" s="34"/>
+      <c r="C259" s="34"/>
+      <c r="D259" s="34"/>
+      <c r="E259" s="34"/>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="34"/>
+      <c r="B260" s="34"/>
+      <c r="C260" s="34"/>
+      <c r="D260" s="34"/>
+      <c r="E260" s="34"/>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="34"/>
+      <c r="B261" s="34"/>
+      <c r="C261" s="34"/>
+      <c r="D261" s="34"/>
+      <c r="E261" s="34"/>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="34"/>
+      <c r="B262" s="34"/>
+      <c r="C262" s="34"/>
+      <c r="D262" s="34"/>
+      <c r="E262" s="34"/>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="34"/>
+      <c r="B263" s="34"/>
+      <c r="C263" s="34"/>
+      <c r="D263" s="34"/>
+      <c r="E263" s="34"/>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="34"/>
+      <c r="B264" s="34"/>
+      <c r="C264" s="34"/>
+      <c r="D264" s="34"/>
+      <c r="E264" s="34"/>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="34"/>
+      <c r="B265" s="34"/>
+      <c r="C265" s="34"/>
+      <c r="D265" s="34"/>
+      <c r="E265" s="34"/>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="34"/>
+      <c r="B266" s="34"/>
+      <c r="C266" s="34"/>
+      <c r="D266" s="34"/>
+      <c r="E266" s="34"/>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="34"/>
+      <c r="B267" s="34"/>
+      <c r="C267" s="34"/>
+      <c r="D267" s="34"/>
+      <c r="E267" s="34"/>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="34"/>
+      <c r="B268" s="34"/>
+      <c r="C268" s="34"/>
+      <c r="D268" s="34"/>
+      <c r="E268" s="34"/>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="34"/>
+      <c r="B269" s="34"/>
+      <c r="C269" s="34"/>
+      <c r="D269" s="34"/>
+      <c r="E269" s="34"/>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="34"/>
+      <c r="B270" s="34"/>
+      <c r="C270" s="34"/>
+      <c r="D270" s="34"/>
+      <c r="E270" s="34"/>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="34"/>
+      <c r="B271" s="34"/>
+      <c r="C271" s="34"/>
+      <c r="D271" s="34"/>
+      <c r="E271" s="34"/>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="34"/>
+      <c r="B272" s="34"/>
+      <c r="C272" s="34"/>
+      <c r="D272" s="34"/>
+      <c r="E272" s="34"/>
     </row>
     <row r="273" spans="1:5">
-      <c r="A273" s="6"/>
-      <c r="B273" s="6"/>
-      <c r="C273" s="6"/>
-      <c r="D273" s="6"/>
-      <c r="E273" s="6"/>
+      <c r="A273" s="34"/>
+      <c r="B273" s="34"/>
+      <c r="C273" s="34"/>
+      <c r="D273" s="34"/>
+      <c r="E273" s="34"/>
     </row>
     <row r="274" spans="1:5">
-      <c r="A274" s="6"/>
-      <c r="B274" s="6"/>
-      <c r="C274" s="6"/>
-      <c r="D274" s="6"/>
-      <c r="E274" s="6"/>
+      <c r="A274" s="34"/>
+      <c r="B274" s="34"/>
+      <c r="C274" s="34"/>
+      <c r="D274" s="34"/>
+      <c r="E274" s="34"/>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="6"/>
-      <c r="B275" s="6"/>
-      <c r="C275" s="6"/>
-      <c r="D275" s="6"/>
-      <c r="E275" s="6"/>
+      <c r="A275" s="34"/>
+      <c r="B275" s="34"/>
+      <c r="C275" s="34"/>
+      <c r="D275" s="34"/>
+      <c r="E275" s="34"/>
     </row>
     <row r="276" spans="1:5">
-      <c r="A276" s="6"/>
-      <c r="B276" s="6"/>
-      <c r="C276" s="6"/>
-      <c r="D276" s="6"/>
-      <c r="E276" s="6"/>
+      <c r="A276" s="34"/>
+      <c r="B276" s="34"/>
+      <c r="C276" s="34"/>
+      <c r="D276" s="34"/>
+      <c r="E276" s="34"/>
     </row>
     <row r="277" spans="1:5">
-      <c r="A277" s="6"/>
-      <c r="B277" s="6"/>
-      <c r="C277" s="6"/>
-      <c r="D277" s="6"/>
-      <c r="E277" s="6"/>
+      <c r="A277" s="34"/>
+      <c r="B277" s="34"/>
+      <c r="C277" s="34"/>
+      <c r="D277" s="34"/>
+      <c r="E277" s="34"/>
     </row>
     <row r="278" spans="1:5">
-      <c r="A278" s="6"/>
-      <c r="B278" s="6"/>
-      <c r="C278" s="6"/>
-      <c r="D278" s="6"/>
-      <c r="E278" s="6"/>
+      <c r="A278" s="34"/>
+      <c r="B278" s="34"/>
+      <c r="C278" s="34"/>
+      <c r="D278" s="34"/>
+      <c r="E278" s="34"/>
     </row>
     <row r="279" spans="1:5">
-      <c r="A279" s="6"/>
-      <c r="B279" s="6"/>
-      <c r="C279" s="6"/>
-      <c r="D279" s="6"/>
-      <c r="E279" s="6"/>
+      <c r="A279" s="34"/>
+      <c r="B279" s="34"/>
+      <c r="C279" s="34"/>
+      <c r="D279" s="34"/>
+      <c r="E279" s="34"/>
     </row>
     <row r="280" spans="1:5">
-      <c r="A280" s="6"/>
-      <c r="B280" s="6"/>
-      <c r="C280" s="6"/>
-      <c r="D280" s="6"/>
-      <c r="E280" s="6"/>
+      <c r="A280" s="34"/>
+      <c r="B280" s="34"/>
+      <c r="C280" s="34"/>
+      <c r="D280" s="34"/>
+      <c r="E280" s="34"/>
     </row>
     <row r="281" spans="1:5">
-      <c r="A281" s="6"/>
-      <c r="B281" s="6"/>
-      <c r="C281" s="6"/>
-      <c r="D281" s="6"/>
-      <c r="E281" s="6"/>
+      <c r="A281" s="34"/>
+      <c r="B281" s="34"/>
+      <c r="C281" s="34"/>
+      <c r="D281" s="34"/>
+      <c r="E281" s="34"/>
     </row>
     <row r="282" spans="1:5">
-      <c r="A282" s="6"/>
-      <c r="B282" s="6"/>
-      <c r="C282" s="6"/>
-      <c r="D282" s="6"/>
-      <c r="E282" s="6"/>
+      <c r="A282" s="34"/>
+      <c r="B282" s="34"/>
+      <c r="C282" s="34"/>
+      <c r="D282" s="34"/>
+      <c r="E282" s="34"/>
     </row>
     <row r="283" spans="1:5">
-      <c r="A283" s="6"/>
-      <c r="B283" s="6"/>
-      <c r="C283" s="6"/>
-      <c r="D283" s="6"/>
-      <c r="E283" s="6"/>
+      <c r="A283" s="34"/>
+      <c r="B283" s="34"/>
+      <c r="C283" s="34"/>
+      <c r="D283" s="34"/>
+      <c r="E283" s="34"/>
     </row>
     <row r="284" spans="1:5">
-      <c r="A284" s="6"/>
-      <c r="B284" s="6"/>
-      <c r="C284" s="6"/>
-      <c r="D284" s="6"/>
-      <c r="E284" s="6"/>
+      <c r="A284" s="34"/>
+      <c r="B284" s="34"/>
+      <c r="C284" s="34"/>
+      <c r="D284" s="34"/>
+      <c r="E284" s="34"/>
     </row>
     <row r="285" spans="1:5">
-      <c r="A285" s="6"/>
-      <c r="B285" s="6"/>
-      <c r="C285" s="6"/>
-      <c r="D285" s="6"/>
-      <c r="E285" s="6"/>
+      <c r="A285" s="34"/>
+      <c r="B285" s="34"/>
+      <c r="C285" s="34"/>
+      <c r="D285" s="34"/>
+      <c r="E285" s="34"/>
     </row>
     <row r="286" spans="1:5">
-      <c r="A286" s="6"/>
-      <c r="B286" s="6"/>
-      <c r="C286" s="6"/>
-      <c r="D286" s="6"/>
-      <c r="E286" s="6"/>
+      <c r="A286" s="34"/>
+      <c r="B286" s="34"/>
+      <c r="C286" s="34"/>
+      <c r="D286" s="34"/>
+      <c r="E286" s="34"/>
     </row>
     <row r="287" spans="1:5">
-      <c r="A287" s="6"/>
-      <c r="B287" s="6"/>
-      <c r="C287" s="6"/>
-      <c r="D287" s="6"/>
-      <c r="E287" s="6"/>
+      <c r="A287" s="34"/>
+      <c r="B287" s="34"/>
+      <c r="C287" s="34"/>
+      <c r="D287" s="34"/>
+      <c r="E287" s="34"/>
     </row>
     <row r="288" spans="1:5">
-      <c r="A288" s="6"/>
-      <c r="B288" s="6"/>
-      <c r="C288" s="6"/>
-      <c r="D288" s="6"/>
-      <c r="E288" s="6"/>
+      <c r="A288" s="34"/>
+      <c r="B288" s="34"/>
+      <c r="C288" s="34"/>
+      <c r="D288" s="34"/>
+      <c r="E288" s="34"/>
     </row>
     <row r="289" spans="1:5">
-      <c r="A289" s="6"/>
-      <c r="B289" s="6"/>
-      <c r="C289" s="6"/>
-      <c r="D289" s="6"/>
-      <c r="E289" s="6"/>
+      <c r="A289" s="34"/>
+      <c r="B289" s="34"/>
+      <c r="C289" s="34"/>
+      <c r="D289" s="34"/>
+      <c r="E289" s="34"/>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290" s="6"/>
-      <c r="B290" s="6"/>
-      <c r="C290" s="6"/>
-      <c r="D290" s="6"/>
-      <c r="E290" s="6"/>
+      <c r="A290" s="34"/>
+      <c r="B290" s="34"/>
+      <c r="C290" s="34"/>
+      <c r="D290" s="34"/>
+      <c r="E290" s="34"/>
     </row>
     <row r="291" spans="1:5">
-      <c r="A291" s="6"/>
-      <c r="B291" s="6"/>
-      <c r="C291" s="6"/>
-      <c r="D291" s="6"/>
-      <c r="E291" s="6"/>
+      <c r="A291" s="34"/>
+      <c r="B291" s="34"/>
+      <c r="C291" s="34"/>
+      <c r="D291" s="34"/>
+      <c r="E291" s="34"/>
     </row>
     <row r="292" spans="1:5">
-      <c r="A292" s="6"/>
-      <c r="B292" s="6"/>
-      <c r="C292" s="6"/>
-      <c r="D292" s="6"/>
-      <c r="E292" s="6"/>
+      <c r="A292" s="34"/>
+      <c r="B292" s="34"/>
+      <c r="C292" s="34"/>
+      <c r="D292" s="34"/>
+      <c r="E292" s="34"/>
     </row>
     <row r="293" spans="1:5">
-      <c r="A293" s="6"/>
-      <c r="B293" s="6"/>
-      <c r="C293" s="6"/>
-      <c r="D293" s="6"/>
-      <c r="E293" s="6"/>
+      <c r="A293" s="34"/>
+      <c r="B293" s="34"/>
+      <c r="C293" s="34"/>
+      <c r="D293" s="34"/>
+      <c r="E293" s="34"/>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294" s="6"/>
-      <c r="B294" s="6"/>
-      <c r="C294" s="6"/>
-      <c r="D294" s="6"/>
-      <c r="E294" s="6"/>
+      <c r="A294" s="34"/>
+      <c r="B294" s="34"/>
+      <c r="C294" s="34"/>
+      <c r="D294" s="34"/>
+      <c r="E294" s="34"/>
     </row>
     <row r="295" spans="1:5">
-      <c r="A295" s="6"/>
-      <c r="B295" s="6"/>
-      <c r="C295" s="6"/>
-      <c r="D295" s="6"/>
-      <c r="E295" s="6"/>
+      <c r="A295" s="34"/>
+      <c r="B295" s="34"/>
+      <c r="C295" s="34"/>
+      <c r="D295" s="34"/>
+      <c r="E295" s="34"/>
     </row>
     <row r="296" spans="1:5">
-      <c r="A296" s="6"/>
-      <c r="B296" s="6"/>
-      <c r="C296" s="6"/>
-      <c r="D296" s="6"/>
-      <c r="E296" s="6"/>
+      <c r="A296" s="34"/>
+      <c r="B296" s="34"/>
+      <c r="C296" s="34"/>
+      <c r="D296" s="34"/>
+      <c r="E296" s="34"/>
     </row>
     <row r="297" spans="1:5">
-      <c r="A297" s="6"/>
-      <c r="B297" s="6"/>
-      <c r="C297" s="6"/>
-      <c r="D297" s="6"/>
-      <c r="E297" s="6"/>
+      <c r="A297" s="34"/>
+      <c r="B297" s="34"/>
+      <c r="C297" s="34"/>
+      <c r="D297" s="34"/>
+      <c r="E297" s="34"/>
     </row>
     <row r="298" spans="1:5">
-      <c r="A298" s="6"/>
-      <c r="B298" s="6"/>
-      <c r="C298" s="6"/>
-      <c r="D298" s="6"/>
-      <c r="E298" s="6"/>
+      <c r="A298" s="34"/>
+      <c r="B298" s="34"/>
+      <c r="C298" s="34"/>
+      <c r="D298" s="34"/>
+      <c r="E298" s="34"/>
     </row>
     <row r="299" spans="1:5">
-      <c r="A299" s="6"/>
-      <c r="B299" s="6"/>
-      <c r="C299" s="6"/>
-      <c r="D299" s="6"/>
-      <c r="E299" s="6"/>
+      <c r="A299" s="34"/>
+      <c r="B299" s="34"/>
+      <c r="C299" s="34"/>
+      <c r="D299" s="34"/>
+      <c r="E299" s="34"/>
     </row>
     <row r="300" spans="1:5">
-      <c r="A300" s="6"/>
-      <c r="B300" s="6"/>
-      <c r="C300" s="6"/>
-      <c r="D300" s="6"/>
-      <c r="E300" s="6"/>
+      <c r="A300" s="34"/>
+      <c r="B300" s="34"/>
+      <c r="C300" s="34"/>
+      <c r="D300" s="34"/>
+      <c r="E300" s="34"/>
     </row>
     <row r="301" spans="1:5">
-      <c r="A301" s="6"/>
-      <c r="B301" s="6"/>
-      <c r="C301" s="6"/>
-      <c r="D301" s="6"/>
-      <c r="E301" s="6"/>
+      <c r="A301" s="34"/>
+      <c r="B301" s="34"/>
+      <c r="C301" s="34"/>
+      <c r="D301" s="34"/>
+      <c r="E301" s="34"/>
     </row>
     <row r="302" spans="1:5">
-      <c r="A302" s="6"/>
-      <c r="B302" s="6"/>
-      <c r="C302" s="6"/>
-      <c r="D302" s="6"/>
-      <c r="E302" s="6"/>
+      <c r="A302" s="34"/>
+      <c r="B302" s="34"/>
+      <c r="C302" s="34"/>
+      <c r="D302" s="34"/>
+      <c r="E302" s="34"/>
     </row>
     <row r="303" spans="1:5">
-      <c r="A303" s="6"/>
-      <c r="B303" s="6"/>
-      <c r="C303" s="6"/>
-      <c r="D303" s="6"/>
-      <c r="E303" s="6"/>
+      <c r="A303" s="34"/>
+      <c r="B303" s="34"/>
+      <c r="C303" s="34"/>
+      <c r="D303" s="34"/>
+      <c r="E303" s="34"/>
     </row>
     <row r="304" spans="1:5">
-      <c r="A304" s="6"/>
-      <c r="B304" s="6"/>
-      <c r="C304" s="6"/>
-      <c r="D304" s="6"/>
-      <c r="E304" s="6"/>
+      <c r="A304" s="34"/>
+      <c r="B304" s="34"/>
+      <c r="C304" s="34"/>
+      <c r="D304" s="34"/>
+      <c r="E304" s="34"/>
     </row>
     <row r="305" spans="1:5">
-      <c r="A305" s="6"/>
-      <c r="B305" s="6"/>
-      <c r="C305" s="6"/>
-      <c r="D305" s="6"/>
-      <c r="E305" s="6"/>
+      <c r="A305" s="34"/>
+      <c r="B305" s="34"/>
+      <c r="C305" s="34"/>
+      <c r="D305" s="34"/>
+      <c r="E305" s="34"/>
     </row>
     <row r="306" spans="1:5">
-      <c r="A306" s="6"/>
-      <c r="B306" s="6"/>
-      <c r="C306" s="6"/>
-      <c r="D306" s="6"/>
-      <c r="E306" s="6"/>
+      <c r="A306" s="34"/>
+      <c r="B306" s="34"/>
+      <c r="C306" s="34"/>
+      <c r="D306" s="34"/>
+      <c r="E306" s="34"/>
     </row>
     <row r="307" spans="1:5">
-      <c r="A307" s="6"/>
-      <c r="B307" s="6"/>
-      <c r="C307" s="6"/>
-      <c r="D307" s="6"/>
-      <c r="E307" s="6"/>
+      <c r="A307" s="34"/>
+      <c r="B307" s="34"/>
+      <c r="C307" s="34"/>
+      <c r="D307" s="34"/>
+      <c r="E307" s="34"/>
     </row>
     <row r="308" spans="1:5">
-      <c r="A308" s="6"/>
-      <c r="B308" s="6"/>
-      <c r="C308" s="6"/>
-      <c r="D308" s="6"/>
-      <c r="E308" s="6"/>
+      <c r="A308" s="34"/>
+      <c r="B308" s="34"/>
+      <c r="C308" s="34"/>
+      <c r="D308" s="34"/>
+      <c r="E308" s="34"/>
     </row>
     <row r="309" spans="1:5">
-      <c r="A309" s="6"/>
-      <c r="B309" s="6"/>
-      <c r="C309" s="6"/>
-      <c r="D309" s="6"/>
-      <c r="E309" s="6"/>
+      <c r="A309" s="34"/>
+      <c r="B309" s="34"/>
+      <c r="C309" s="34"/>
+      <c r="D309" s="34"/>
+      <c r="E309" s="34"/>
     </row>
     <row r="310" spans="1:5">
-      <c r="A310" s="6"/>
-      <c r="B310" s="6"/>
-      <c r="C310" s="6"/>
-      <c r="D310" s="6"/>
-      <c r="E310" s="6"/>
+      <c r="A310" s="34"/>
+      <c r="B310" s="34"/>
+      <c r="C310" s="34"/>
+      <c r="D310" s="34"/>
+      <c r="E310" s="34"/>
     </row>
     <row r="311" spans="1:5">
-      <c r="A311" s="6"/>
-      <c r="B311" s="6"/>
-      <c r="C311" s="6"/>
-      <c r="D311" s="6"/>
-      <c r="E311" s="6"/>
+      <c r="A311" s="34"/>
+      <c r="B311" s="34"/>
+      <c r="C311" s="34"/>
+      <c r="D311" s="34"/>
+      <c r="E311" s="34"/>
     </row>
     <row r="312" spans="1:5">
-      <c r="A312" s="6"/>
-      <c r="B312" s="6"/>
-      <c r="C312" s="6"/>
-      <c r="D312" s="6"/>
-      <c r="E312" s="6"/>
+      <c r="A312" s="34"/>
+      <c r="B312" s="34"/>
+      <c r="C312" s="34"/>
+      <c r="D312" s="34"/>
+      <c r="E312" s="34"/>
     </row>
     <row r="313" spans="1:5">
-      <c r="A313" s="6"/>
-      <c r="B313" s="6"/>
-      <c r="C313" s="6"/>
-      <c r="D313" s="6"/>
-      <c r="E313" s="6"/>
+      <c r="A313" s="34"/>
+      <c r="B313" s="34"/>
+      <c r="C313" s="34"/>
+      <c r="D313" s="34"/>
+      <c r="E313" s="34"/>
     </row>
     <row r="314" spans="1:5">
-      <c r="A314" s="6"/>
-      <c r="B314" s="6"/>
-      <c r="C314" s="6"/>
-      <c r="D314" s="6"/>
-      <c r="E314" s="6"/>
+      <c r="A314" s="34"/>
+      <c r="B314" s="34"/>
+      <c r="C314" s="34"/>
+      <c r="D314" s="34"/>
+      <c r="E314" s="34"/>
     </row>
     <row r="315" spans="1:5">
-      <c r="A315" s="6"/>
-      <c r="B315" s="6"/>
-      <c r="C315" s="6"/>
-      <c r="D315" s="6"/>
-      <c r="E315" s="6"/>
+      <c r="A315" s="34"/>
+      <c r="B315" s="34"/>
+      <c r="C315" s="34"/>
+      <c r="D315" s="34"/>
+      <c r="E315" s="34"/>
     </row>
     <row r="316" spans="1:5">
-      <c r="A316" s="6"/>
-      <c r="B316" s="6"/>
-      <c r="C316" s="6"/>
-      <c r="D316" s="6"/>
-      <c r="E316" s="6"/>
+      <c r="A316" s="34"/>
+      <c r="B316" s="34"/>
+      <c r="C316" s="34"/>
+      <c r="D316" s="34"/>
+      <c r="E316" s="34"/>
     </row>
     <row r="317" spans="1:5">
-      <c r="A317" s="6"/>
-      <c r="B317" s="6"/>
-      <c r="C317" s="6"/>
-      <c r="D317" s="6"/>
-      <c r="E317" s="6"/>
+      <c r="A317" s="34"/>
+      <c r="B317" s="34"/>
+      <c r="C317" s="34"/>
+      <c r="D317" s="34"/>
+      <c r="E317" s="34"/>
     </row>
     <row r="318" spans="1:5">
-      <c r="A318" s="6"/>
-      <c r="B318" s="6"/>
-      <c r="C318" s="6"/>
-      <c r="D318" s="6"/>
-      <c r="E318" s="6"/>
+      <c r="A318" s="34"/>
+      <c r="B318" s="34"/>
+      <c r="C318" s="34"/>
+      <c r="D318" s="34"/>
+      <c r="E318" s="34"/>
     </row>
     <row r="319" spans="1:5">
-      <c r="A319" s="6"/>
-      <c r="B319" s="6"/>
-      <c r="C319" s="6"/>
-      <c r="D319" s="6"/>
-      <c r="E319" s="6"/>
+      <c r="A319" s="34"/>
+      <c r="B319" s="34"/>
+      <c r="C319" s="34"/>
+      <c r="D319" s="34"/>
+      <c r="E319" s="34"/>
     </row>
     <row r="320" spans="1:5">
-      <c r="A320" s="6"/>
-      <c r="B320" s="6"/>
-      <c r="C320" s="6"/>
-      <c r="D320" s="6"/>
-      <c r="E320" s="6"/>
+      <c r="A320" s="34"/>
+      <c r="B320" s="34"/>
+      <c r="C320" s="34"/>
+      <c r="D320" s="34"/>
+      <c r="E320" s="34"/>
     </row>
     <row r="321" spans="1:5">
-      <c r="A321" s="6"/>
-      <c r="B321" s="6"/>
-      <c r="C321" s="6"/>
-      <c r="D321" s="6"/>
-      <c r="E321" s="6"/>
+      <c r="A321" s="34"/>
+      <c r="B321" s="34"/>
+      <c r="C321" s="34"/>
+      <c r="D321" s="34"/>
+      <c r="E321" s="34"/>
     </row>
     <row r="322" spans="1:5">
-      <c r="A322" s="6"/>
-      <c r="B322" s="6"/>
-      <c r="C322" s="6"/>
-      <c r="D322" s="6"/>
-      <c r="E322" s="6"/>
+      <c r="A322" s="34"/>
+      <c r="B322" s="34"/>
+      <c r="C322" s="34"/>
+      <c r="D322" s="34"/>
+      <c r="E322" s="34"/>
     </row>
     <row r="323" spans="1:5">
-      <c r="A323" s="6"/>
-      <c r="B323" s="6"/>
-      <c r="C323" s="6"/>
-      <c r="D323" s="6"/>
-      <c r="E323" s="6"/>
+      <c r="A323" s="34"/>
+      <c r="B323" s="34"/>
+      <c r="C323" s="34"/>
+      <c r="D323" s="34"/>
+      <c r="E323" s="34"/>
     </row>
     <row r="324" spans="1:5">
-      <c r="A324" s="6"/>
-      <c r="B324" s="6"/>
-      <c r="C324" s="6"/>
-      <c r="D324" s="6"/>
-      <c r="E324" s="6"/>
+      <c r="A324" s="34"/>
+      <c r="B324" s="34"/>
+      <c r="C324" s="34"/>
+      <c r="D324" s="34"/>
+      <c r="E324" s="34"/>
     </row>
     <row r="325" spans="1:5">
-      <c r="A325" s="6"/>
-      <c r="B325" s="6"/>
-      <c r="C325" s="6"/>
-      <c r="D325" s="6"/>
-      <c r="E325" s="6"/>
+      <c r="A325" s="34"/>
+      <c r="B325" s="34"/>
+      <c r="C325" s="34"/>
+      <c r="D325" s="34"/>
+      <c r="E325" s="34"/>
     </row>
     <row r="326" spans="1:5">
-      <c r="A326" s="6"/>
-      <c r="B326" s="6"/>
-      <c r="C326" s="6"/>
-      <c r="D326" s="6"/>
-      <c r="E326" s="6"/>
+      <c r="A326" s="34"/>
+      <c r="B326" s="34"/>
+      <c r="C326" s="34"/>
+      <c r="D326" s="34"/>
+      <c r="E326" s="34"/>
     </row>
     <row r="327" spans="1:5">
-      <c r="A327" s="6"/>
-      <c r="B327" s="6"/>
-      <c r="C327" s="6"/>
-      <c r="D327" s="6"/>
-      <c r="E327" s="6"/>
+      <c r="A327" s="34"/>
+      <c r="B327" s="34"/>
+      <c r="C327" s="34"/>
+      <c r="D327" s="34"/>
+      <c r="E327" s="34"/>
     </row>
     <row r="328" spans="1:5">
-      <c r="A328" s="6"/>
-      <c r="B328" s="6"/>
-      <c r="C328" s="6"/>
-      <c r="D328" s="6"/>
-      <c r="E328" s="6"/>
+      <c r="A328" s="34"/>
+      <c r="B328" s="34"/>
+      <c r="C328" s="34"/>
+      <c r="D328" s="34"/>
+      <c r="E328" s="34"/>
     </row>
     <row r="329" spans="1:5">
-      <c r="A329" s="6"/>
-      <c r="B329" s="6"/>
-      <c r="C329" s="6"/>
-      <c r="D329" s="6"/>
-      <c r="E329" s="6"/>
+      <c r="A329" s="34"/>
+      <c r="B329" s="34"/>
+      <c r="C329" s="34"/>
+      <c r="D329" s="34"/>
+      <c r="E329" s="34"/>
     </row>
     <row r="330" spans="1:5">
-      <c r="A330" s="6"/>
-      <c r="B330" s="6"/>
-      <c r="C330" s="6"/>
-      <c r="D330" s="6"/>
-      <c r="E330" s="6"/>
+      <c r="A330" s="34"/>
+      <c r="B330" s="34"/>
+      <c r="C330" s="34"/>
+      <c r="D330" s="34"/>
+      <c r="E330" s="34"/>
     </row>
     <row r="331" spans="1:5">
-      <c r="A331" s="6"/>
-      <c r="B331" s="6"/>
-      <c r="C331" s="6"/>
-      <c r="D331" s="6"/>
-      <c r="E331" s="6"/>
+      <c r="A331" s="34"/>
+      <c r="B331" s="34"/>
+      <c r="C331" s="34"/>
+      <c r="D331" s="34"/>
+      <c r="E331" s="34"/>
     </row>
     <row r="332" spans="1:5">
-      <c r="A332" s="6"/>
-      <c r="B332" s="6"/>
-      <c r="C332" s="6"/>
-      <c r="D332" s="6"/>
-      <c r="E332" s="6"/>
+      <c r="A332" s="34"/>
+      <c r="B332" s="34"/>
+      <c r="C332" s="34"/>
+      <c r="D332" s="34"/>
+      <c r="E332" s="34"/>
     </row>
     <row r="333" spans="1:5">
-      <c r="A333" s="6"/>
-      <c r="B333" s="6"/>
-      <c r="C333" s="6"/>
-      <c r="D333" s="6"/>
-      <c r="E333" s="6"/>
+      <c r="A333" s="34"/>
+      <c r="B333" s="34"/>
+      <c r="C333" s="34"/>
+      <c r="D333" s="34"/>
+      <c r="E333" s="34"/>
     </row>
     <row r="334" spans="1:5">
-      <c r="A334" s="6"/>
-      <c r="B334" s="6"/>
-      <c r="C334" s="6"/>
-      <c r="D334" s="6"/>
-      <c r="E334" s="6"/>
+      <c r="A334" s="34"/>
+      <c r="B334" s="34"/>
+      <c r="C334" s="34"/>
+      <c r="D334" s="34"/>
+      <c r="E334" s="34"/>
     </row>
     <row r="335" spans="1:5">
-      <c r="A335" s="6"/>
-      <c r="B335" s="6"/>
-      <c r="C335" s="6"/>
-      <c r="D335" s="6"/>
-      <c r="E335" s="6"/>
+      <c r="A335" s="34"/>
+      <c r="B335" s="34"/>
+      <c r="C335" s="34"/>
+      <c r="D335" s="34"/>
+      <c r="E335" s="34"/>
     </row>
     <row r="336" spans="1:5">
-      <c r="A336" s="6"/>
-      <c r="B336" s="6"/>
-      <c r="C336" s="6"/>
-      <c r="D336" s="6"/>
-      <c r="E336" s="6"/>
+      <c r="A336" s="34"/>
+      <c r="B336" s="34"/>
+      <c r="C336" s="34"/>
+      <c r="D336" s="34"/>
+      <c r="E336" s="34"/>
     </row>
     <row r="337" spans="1:5">
-      <c r="A337" s="6"/>
-      <c r="B337" s="6"/>
-      <c r="C337" s="6"/>
-      <c r="D337" s="6"/>
-      <c r="E337" s="6"/>
+      <c r="A337" s="34"/>
+      <c r="B337" s="34"/>
+      <c r="C337" s="34"/>
+      <c r="D337" s="34"/>
+      <c r="E337" s="34"/>
     </row>
     <row r="338" spans="1:5">
-      <c r="A338" s="6"/>
-      <c r="B338" s="6"/>
-      <c r="C338" s="6"/>
-      <c r="D338" s="6"/>
-      <c r="E338" s="6"/>
+      <c r="A338" s="34"/>
+      <c r="B338" s="34"/>
+      <c r="C338" s="34"/>
+      <c r="D338" s="34"/>
+      <c r="E338" s="34"/>
     </row>
     <row r="339" spans="1:5">
-      <c r="A339" s="6"/>
-      <c r="B339" s="6"/>
-      <c r="C339" s="6"/>
-      <c r="D339" s="6"/>
-      <c r="E339" s="6"/>
+      <c r="A339" s="34"/>
+      <c r="B339" s="34"/>
+      <c r="C339" s="34"/>
+      <c r="D339" s="34"/>
+      <c r="E339" s="34"/>
     </row>
     <row r="340" spans="1:5">
-      <c r="A340" s="6"/>
-      <c r="B340" s="6"/>
-      <c r="C340" s="6"/>
-      <c r="D340" s="6"/>
-      <c r="E340" s="6"/>
+      <c r="A340" s="34"/>
+      <c r="B340" s="34"/>
+      <c r="C340" s="34"/>
+      <c r="D340" s="34"/>
+      <c r="E340" s="34"/>
     </row>
     <row r="341" spans="1:5">
-      <c r="A341" s="6"/>
-      <c r="B341" s="6"/>
-      <c r="C341" s="6"/>
-      <c r="D341" s="6"/>
-      <c r="E341" s="6"/>
+      <c r="A341" s="34"/>
+      <c r="B341" s="34"/>
+      <c r="C341" s="34"/>
+      <c r="D341" s="34"/>
+      <c r="E341" s="34"/>
     </row>
     <row r="342" spans="1:5">
-      <c r="A342" s="6"/>
-      <c r="B342" s="6"/>
-      <c r="C342" s="6"/>
-      <c r="D342" s="6"/>
-      <c r="E342" s="6"/>
+      <c r="A342" s="34"/>
+      <c r="B342" s="34"/>
+      <c r="C342" s="34"/>
+      <c r="D342" s="34"/>
+      <c r="E342" s="34"/>
     </row>
     <row r="343" spans="1:5">
-      <c r="A343" s="6"/>
-      <c r="B343" s="6"/>
-      <c r="C343" s="6"/>
-      <c r="D343" s="6"/>
-      <c r="E343" s="6"/>
+      <c r="A343" s="34"/>
+      <c r="B343" s="34"/>
+      <c r="C343" s="34"/>
+      <c r="D343" s="34"/>
+      <c r="E343" s="34"/>
     </row>
     <row r="344" spans="1:5">
-      <c r="A344" s="6"/>
-      <c r="B344" s="6"/>
-      <c r="C344" s="6"/>
-      <c r="D344" s="6"/>
-      <c r="E344" s="6"/>
+      <c r="A344" s="34"/>
+      <c r="B344" s="34"/>
+      <c r="C344" s="34"/>
+      <c r="D344" s="34"/>
+      <c r="E344" s="34"/>
     </row>
     <row r="345" spans="1:5">
-      <c r="A345" s="6"/>
-      <c r="B345" s="6"/>
-      <c r="C345" s="6"/>
-      <c r="D345" s="6"/>
-      <c r="E345" s="6"/>
+      <c r="A345" s="34"/>
+      <c r="B345" s="34"/>
+      <c r="C345" s="34"/>
+      <c r="D345" s="34"/>
+      <c r="E345" s="34"/>
     </row>
     <row r="346" spans="1:5">
-      <c r="A346" s="6"/>
-      <c r="B346" s="6"/>
-      <c r="C346" s="6"/>
-      <c r="D346" s="6"/>
-      <c r="E346" s="6"/>
+      <c r="A346" s="34"/>
+      <c r="B346" s="34"/>
+      <c r="C346" s="34"/>
+      <c r="D346" s="34"/>
+      <c r="E346" s="34"/>
     </row>
     <row r="347" spans="1:5">
-      <c r="A347" s="6"/>
-      <c r="B347" s="6"/>
-      <c r="C347" s="6"/>
-      <c r="D347" s="6"/>
-      <c r="E347" s="6"/>
+      <c r="A347" s="34"/>
+      <c r="B347" s="34"/>
+      <c r="C347" s="34"/>
+      <c r="D347" s="34"/>
+      <c r="E347" s="34"/>
     </row>
     <row r="348" spans="1:5">
-      <c r="A348" s="6"/>
-      <c r="B348" s="6"/>
-      <c r="C348" s="6"/>
-      <c r="D348" s="6"/>
-      <c r="E348" s="6"/>
+      <c r="A348" s="34"/>
+      <c r="B348" s="34"/>
+      <c r="C348" s="34"/>
+      <c r="D348" s="34"/>
+      <c r="E348" s="34"/>
     </row>
     <row r="349" spans="1:5">
-      <c r="A349" s="6"/>
-      <c r="B349" s="6"/>
-      <c r="C349" s="6"/>
-      <c r="D349" s="6"/>
-      <c r="E349" s="6"/>
+      <c r="A349" s="34"/>
+      <c r="B349" s="34"/>
+      <c r="C349" s="34"/>
+      <c r="D349" s="34"/>
+      <c r="E349" s="34"/>
     </row>
     <row r="350" spans="1:5">
-      <c r="A350" s="6"/>
-      <c r="B350" s="6"/>
-      <c r="C350" s="6"/>
-      <c r="D350" s="6"/>
-      <c r="E350" s="6"/>
+      <c r="A350" s="34"/>
+      <c r="B350" s="34"/>
+      <c r="C350" s="34"/>
+      <c r="D350" s="34"/>
+      <c r="E350" s="34"/>
     </row>
     <row r="351" spans="1:5">
-      <c r="A351" s="6"/>
-      <c r="B351" s="6"/>
-      <c r="C351" s="6"/>
-      <c r="D351" s="6"/>
-      <c r="E351" s="6"/>
+      <c r="A351" s="34"/>
+      <c r="B351" s="34"/>
+      <c r="C351" s="34"/>
+      <c r="D351" s="34"/>
+      <c r="E351" s="34"/>
     </row>
     <row r="352" spans="1:5">
-      <c r="A352" s="6"/>
-      <c r="B352" s="6"/>
-      <c r="C352" s="6"/>
-      <c r="D352" s="6"/>
-      <c r="E352" s="6"/>
+      <c r="A352" s="34"/>
+      <c r="B352" s="34"/>
+      <c r="C352" s="34"/>
+      <c r="D352" s="34"/>
+      <c r="E352" s="34"/>
     </row>
     <row r="353" spans="1:5">
-      <c r="A353" s="6"/>
-      <c r="B353" s="6"/>
-      <c r="C353" s="6"/>
-      <c r="D353" s="6"/>
-      <c r="E353" s="6"/>
+      <c r="A353" s="34"/>
+      <c r="B353" s="34"/>
+      <c r="C353" s="34"/>
+      <c r="D353" s="34"/>
+      <c r="E353" s="34"/>
     </row>
     <row r="354" spans="1:5">
-      <c r="A354" s="6"/>
-      <c r="B354" s="6"/>
-      <c r="C354" s="6"/>
-      <c r="D354" s="6"/>
-      <c r="E354" s="6"/>
+      <c r="A354" s="34"/>
+      <c r="B354" s="34"/>
+      <c r="C354" s="34"/>
+      <c r="D354" s="34"/>
+      <c r="E354" s="34"/>
     </row>
     <row r="355" spans="1:5">
-      <c r="A355" s="6"/>
-      <c r="B355" s="6"/>
-      <c r="C355" s="6"/>
-      <c r="D355" s="6"/>
-      <c r="E355" s="6"/>
+      <c r="A355" s="34"/>
+      <c r="B355" s="34"/>
+      <c r="C355" s="34"/>
+      <c r="D355" s="34"/>
+      <c r="E355" s="34"/>
     </row>
     <row r="356" spans="1:5">
-      <c r="A356" s="6"/>
-      <c r="B356" s="6"/>
-      <c r="C356" s="6"/>
-      <c r="D356" s="6"/>
-      <c r="E356" s="6"/>
+      <c r="A356" s="34"/>
+      <c r="B356" s="34"/>
+      <c r="C356" s="34"/>
+      <c r="D356" s="34"/>
+      <c r="E356" s="34"/>
     </row>
     <row r="357" spans="1:5">
-      <c r="A357" s="6"/>
-      <c r="B357" s="6"/>
-      <c r="C357" s="6"/>
-      <c r="D357" s="6"/>
-      <c r="E357" s="6"/>
+      <c r="A357" s="34"/>
+      <c r="B357" s="34"/>
+      <c r="C357" s="34"/>
+      <c r="D357" s="34"/>
+      <c r="E357" s="34"/>
     </row>
     <row r="358" spans="1:5">
-      <c r="A358" s="6"/>
-      <c r="B358" s="6"/>
-      <c r="C358" s="6"/>
-      <c r="D358" s="6"/>
-      <c r="E358" s="6"/>
+      <c r="A358" s="34"/>
+      <c r="B358" s="34"/>
+      <c r="C358" s="34"/>
+      <c r="D358" s="34"/>
+      <c r="E358" s="34"/>
     </row>
     <row r="359" spans="1:5">
-      <c r="A359" s="6"/>
-      <c r="B359" s="6"/>
-      <c r="C359" s="6"/>
-      <c r="D359" s="6"/>
-      <c r="E359" s="6"/>
+      <c r="A359" s="34"/>
+      <c r="B359" s="34"/>
+      <c r="C359" s="34"/>
+      <c r="D359" s="34"/>
+      <c r="E359" s="34"/>
     </row>
     <row r="360" spans="1:5">
-      <c r="A360" s="6"/>
-      <c r="B360" s="6"/>
-      <c r="C360" s="6"/>
-      <c r="D360" s="6"/>
-      <c r="E360" s="6"/>
+      <c r="A360" s="34"/>
+      <c r="B360" s="34"/>
+      <c r="C360" s="34"/>
+      <c r="D360" s="34"/>
+      <c r="E360" s="34"/>
     </row>
     <row r="361" spans="1:5">
-      <c r="A361" s="6"/>
-      <c r="B361" s="6"/>
-      <c r="C361" s="6"/>
-      <c r="D361" s="6"/>
-      <c r="E361" s="6"/>
+      <c r="A361" s="34"/>
+      <c r="B361" s="34"/>
+      <c r="C361" s="34"/>
+      <c r="D361" s="34"/>
+      <c r="E361" s="34"/>
     </row>
     <row r="362" spans="1:5">
-      <c r="A362" s="6"/>
-      <c r="B362" s="6"/>
-      <c r="C362" s="6"/>
-      <c r="D362" s="6"/>
-      <c r="E362" s="6"/>
+      <c r="A362" s="34"/>
+      <c r="B362" s="34"/>
+      <c r="C362" s="34"/>
+      <c r="D362" s="34"/>
+      <c r="E362" s="34"/>
     </row>
     <row r="363" spans="1:5">
-      <c r="A363" s="6"/>
-      <c r="B363" s="6"/>
-      <c r="C363" s="6"/>
-      <c r="D363" s="6"/>
-      <c r="E363" s="6"/>
+      <c r="A363" s="34"/>
+      <c r="B363" s="34"/>
+      <c r="C363" s="34"/>
+      <c r="D363" s="34"/>
+      <c r="E363" s="34"/>
     </row>
     <row r="364" spans="1:5">
-      <c r="A364" s="6"/>
-      <c r="B364" s="6"/>
-      <c r="C364" s="6"/>
-      <c r="D364" s="6"/>
-      <c r="E364" s="6"/>
+      <c r="A364" s="34"/>
+      <c r="B364" s="34"/>
+      <c r="C364" s="34"/>
+      <c r="D364" s="34"/>
+      <c r="E364" s="34"/>
     </row>
     <row r="365" spans="1:5">
-      <c r="A365" s="6"/>
-      <c r="B365" s="6"/>
-      <c r="C365" s="6"/>
-      <c r="D365" s="6"/>
-      <c r="E365" s="6"/>
+      <c r="A365" s="34"/>
+      <c r="B365" s="34"/>
+      <c r="C365" s="34"/>
+      <c r="D365" s="34"/>
+      <c r="E365" s="34"/>
     </row>
     <row r="366" spans="1:5">
-      <c r="A366" s="6"/>
-      <c r="B366" s="6"/>
-      <c r="C366" s="6"/>
-      <c r="D366" s="6"/>
-      <c r="E366" s="6"/>
+      <c r="A366" s="34"/>
+      <c r="B366" s="34"/>
+      <c r="C366" s="34"/>
+      <c r="D366" s="34"/>
+      <c r="E366" s="34"/>
     </row>
     <row r="367" spans="1:5">
-      <c r="A367" s="6"/>
-      <c r="B367" s="6"/>
-      <c r="C367" s="6"/>
-      <c r="D367" s="6"/>
-      <c r="E367" s="6"/>
+      <c r="A367" s="34"/>
+      <c r="B367" s="34"/>
+      <c r="C367" s="34"/>
+      <c r="D367" s="34"/>
+      <c r="E367" s="34"/>
     </row>
     <row r="368" spans="1:5">
-      <c r="A368" s="6"/>
-      <c r="B368" s="6"/>
-      <c r="C368" s="6"/>
-      <c r="D368" s="6"/>
-      <c r="E368" s="6"/>
+      <c r="A368" s="34"/>
+      <c r="B368" s="34"/>
+      <c r="C368" s="34"/>
+      <c r="D368" s="34"/>
+      <c r="E368" s="34"/>
     </row>
     <row r="369" spans="1:5">
-      <c r="A369" s="6"/>
-      <c r="B369" s="6"/>
-      <c r="C369" s="6"/>
-      <c r="D369" s="6"/>
-      <c r="E369" s="6"/>
+      <c r="A369" s="34"/>
+      <c r="B369" s="34"/>
+      <c r="C369" s="34"/>
+      <c r="D369" s="34"/>
+      <c r="E369" s="34"/>
     </row>
     <row r="370" spans="1:5">
-      <c r="A370" s="6"/>
-      <c r="B370" s="6"/>
-      <c r="C370" s="6"/>
-      <c r="D370" s="6"/>
-      <c r="E370" s="6"/>
+      <c r="A370" s="34"/>
+      <c r="B370" s="34"/>
+      <c r="C370" s="34"/>
+      <c r="D370" s="34"/>
+      <c r="E370" s="34"/>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="34"/>
+      <c r="B371" s="34"/>
+      <c r="C371" s="34"/>
+      <c r="D371" s="34"/>
+      <c r="E371" s="34"/>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="34"/>
+      <c r="B372" s="34"/>
+      <c r="C372" s="34"/>
+      <c r="D372" s="34"/>
+      <c r="E372" s="34"/>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="34"/>
+      <c r="B373" s="34"/>
+      <c r="C373" s="34"/>
+      <c r="D373" s="34"/>
+      <c r="E373" s="34"/>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="34"/>
+      <c r="B374" s="34"/>
+      <c r="C374" s="34"/>
+      <c r="D374" s="34"/>
+      <c r="E374" s="34"/>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="34"/>
+      <c r="B375" s="34"/>
+      <c r="C375" s="34"/>
+      <c r="D375" s="34"/>
+      <c r="E375" s="34"/>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="34"/>
+      <c r="B376" s="34"/>
+      <c r="C376" s="34"/>
+      <c r="D376" s="34"/>
+      <c r="E376" s="34"/>
     </row>
   </sheetData>
   <sortState ref="A8:J35">

--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Release_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyRelease.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Release_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyRelease.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="2740" windowWidth="29560" windowHeight="16680" tabRatio="500"/>
+    <workbookView xWindow="4820" yWindow="1340" windowWidth="29560" windowHeight="16680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="120">
   <si>
     <t>Race</t>
   </si>
@@ -162,19 +162,7 @@
     <t>Release To Location</t>
   </si>
   <si>
-    <t>Street Full Text</t>
-  </si>
-  <si>
     <t>Apt/Suite</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Zip Code</t>
   </si>
   <si>
     <t>/crr-doc:CustodyReleaseReport/nc:DocumentCreationDate/nc:DateTime</t>
@@ -334,18 +322,12 @@
     <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ActivityReasonText</t>
   </si>
   <si>
-    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Location[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ReleaseToLocation/@structures:ref]/nc:Address/nc:LocationStreet/nc:StreetFullText</t>
-  </si>
-  <si>
     <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Location[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ReleaseToLocation/@structures:ref]/nc:Address/nc:AddressSecondaryUnitText</t>
   </si>
   <si>
     <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Location[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ReleaseToLocation/@structures:ref]/nc:Address/nc:LocationCityName</t>
   </si>
   <si>
-    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Location[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ReleaseToLocation/@structures:ref]/nc:Address/j:LocationStateNCICLISCode</t>
-  </si>
-  <si>
     <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Location[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ReleaseToLocation/@structures:ref]/nc:Address/nc:LocationPostalCode</t>
   </si>
   <si>
@@ -392,6 +374,30 @@
   </si>
   <si>
     <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ReleasePerson/@structures:ref]/nc:PersonPhysicalFeature/nc:PhysicalFeatureDescriptionText</t>
+  </si>
+  <si>
+    <t>Street Number</t>
+  </si>
+  <si>
+    <t>Street Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> City</t>
+  </si>
+  <si>
+    <t>State Code</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Location[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ReleaseToLocation/@structures:ref]/nc:Address/nc:LocationStreet/nc:StreetNumberText</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Location[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ReleaseToLocation/@structures:ref]/nc:Address/nc:LocationStreet/nc:StreetName</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Location[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ReleaseToLocation/@structures:ref]/nc:Address/nc:LocationStateUSPostalServiceCode</t>
   </si>
 </sst>
 </file>
@@ -557,7 +563,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="758">
+  <cellStyleXfs count="768">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1316,8 +1322,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1424,8 +1440,14 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="735" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="758">
+  <cellStyles count="768">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1804,6 +1826,11 @@
     <cellStyle name="Followed Hyperlink" xfId="753" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="755" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="757" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="759" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="761" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="763" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="765" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="767" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2182,6 +2209,11 @@
     <cellStyle name="Hyperlink" xfId="752" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="754" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="756" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="758" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="760" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="762" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="764" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="766" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="735" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2512,11 +2544,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M376"/>
+  <dimension ref="A1:M377"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14:B19"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2531,7 +2563,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="27" customFormat="1">
       <c r="A1" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="28"/>
@@ -2557,7 +2589,7 @@
     </row>
     <row r="3" spans="1:13" s="9" customFormat="1" ht="14">
       <c r="A3" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2574,7 +2606,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="9" customFormat="1" ht="14">
@@ -2587,7 +2619,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="9" customFormat="1" ht="14">
@@ -2607,7 +2639,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="9" customFormat="1" ht="14">
@@ -2618,7 +2650,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" ht="14">
@@ -2638,7 +2670,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="9" customFormat="1" ht="14">
@@ -2649,7 +2681,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="9" customFormat="1" ht="14">
@@ -2664,23 +2696,23 @@
     <row r="13" spans="1:13" s="25" customFormat="1" ht="30">
       <c r="A13" s="23"/>
       <c r="B13" s="24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="25" customFormat="1" ht="28">
       <c r="A14" s="23"/>
       <c r="B14" s="24" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="29"/>
       <c r="E14" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="31"/>
@@ -2694,12 +2726,12 @@
     <row r="15" spans="1:13" s="25" customFormat="1" ht="28">
       <c r="A15" s="23"/>
       <c r="B15" s="24" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="29"/>
       <c r="E15" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F15" s="30"/>
       <c r="G15" s="31"/>
@@ -2713,12 +2745,12 @@
     <row r="16" spans="1:13" s="25" customFormat="1" ht="28">
       <c r="A16" s="23"/>
       <c r="B16" s="24" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="29"/>
       <c r="E16" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="31"/>
@@ -2732,12 +2764,12 @@
     <row r="17" spans="1:13" s="25" customFormat="1" ht="28">
       <c r="A17" s="23"/>
       <c r="B17" s="24" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="29"/>
       <c r="E17" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="31"/>
@@ -2751,12 +2783,12 @@
     <row r="18" spans="1:13" s="25" customFormat="1" ht="28">
       <c r="A18" s="23"/>
       <c r="B18" s="24" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="29"/>
       <c r="E18" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="31"/>
@@ -2770,12 +2802,12 @@
     <row r="19" spans="1:13" s="25" customFormat="1" ht="28">
       <c r="A19" s="23"/>
       <c r="B19" s="24" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="29"/>
       <c r="E19" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="31"/>
@@ -2796,7 +2828,7 @@
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="9" customFormat="1" ht="28">
@@ -2809,7 +2841,7 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="9" customFormat="1" ht="28">
@@ -2822,7 +2854,7 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="9" customFormat="1" ht="28">
@@ -2835,7 +2867,7 @@
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="9" customFormat="1" ht="42">
@@ -2848,7 +2880,7 @@
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="9" customFormat="1" ht="42">
@@ -2861,7 +2893,7 @@
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="9" customFormat="1" ht="42">
@@ -2874,7 +2906,7 @@
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="9" customFormat="1" ht="28">
@@ -2887,7 +2919,7 @@
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="9" customFormat="1" ht="28">
@@ -2900,7 +2932,7 @@
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="9" customFormat="1" ht="28">
@@ -2913,7 +2945,7 @@
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="9" customFormat="1" ht="28">
@@ -2926,7 +2958,7 @@
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="9" customFormat="1" ht="28">
@@ -2939,7 +2971,7 @@
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="9" customFormat="1" ht="28">
@@ -2950,12 +2982,12 @@
       <c r="C32" s="8"/>
       <c r="D32" s="7"/>
       <c r="E32" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="22" customFormat="1">
       <c r="A33" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -2972,7 +3004,7 @@
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="26" customFormat="1" ht="60">
@@ -2985,7 +3017,7 @@
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="26" customFormat="1" ht="60">
@@ -2998,7 +3030,7 @@
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="26" customFormat="1" ht="60">
@@ -3011,7 +3043,7 @@
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="26" customFormat="1" ht="45">
@@ -3024,12 +3056,12 @@
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="14" customFormat="1">
       <c r="A39" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -3038,27 +3070,27 @@
     </row>
     <row r="40" spans="1:5" s="32" customFormat="1" ht="28">
       <c r="B40" s="33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="14" customFormat="1">
       <c r="A41" s="16"/>
       <c r="B41" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="14" customFormat="1" ht="30">
@@ -3071,12 +3103,12 @@
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="19" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="14" customFormat="1">
       <c r="A43" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -3085,15 +3117,15 @@
     </row>
     <row r="44" spans="1:5" s="9" customFormat="1" ht="14">
       <c r="B44" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="14" customFormat="1">
       <c r="A45" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -3102,10 +3134,10 @@
     </row>
     <row r="46" spans="1:5" s="10" customFormat="1" ht="14">
       <c r="B46" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="10" customFormat="1" ht="28">
@@ -3117,7 +3149,7 @@
         <v>43</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="9" customFormat="1" ht="14">
@@ -3128,7 +3160,7 @@
         <v>45</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="9" customFormat="1" ht="14">
@@ -3140,84 +3172,102 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" s="9" customFormat="1" ht="28">
-      <c r="B50" s="8" t="s">
+    <row r="50" spans="1:5" s="37" customFormat="1" ht="30">
+      <c r="A50" s="25"/>
+      <c r="B50" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="37" customFormat="1" ht="30">
+      <c r="A51" s="25"/>
+      <c r="B51" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="37" customFormat="1" ht="30">
+      <c r="A52" s="25"/>
+      <c r="B52" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="37" customFormat="1" ht="30">
+      <c r="A53" s="25"/>
+      <c r="B53" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="37" customFormat="1" ht="30">
+      <c r="A54" s="25"/>
+      <c r="B54" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="37" customFormat="1" ht="30">
+      <c r="A55" s="25"/>
+      <c r="B55" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="22" customFormat="1">
+      <c r="A56" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+    </row>
+    <row r="57" spans="1:5" s="26" customFormat="1" ht="30">
+      <c r="B57" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="26" customFormat="1">
+      <c r="B58" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="10" customFormat="1" ht="28">
-      <c r="B51" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="10" customFormat="1" ht="28">
-      <c r="A52" s="6"/>
-      <c r="B52" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="9" customFormat="1" ht="28">
-      <c r="B53" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="9" customFormat="1" ht="28">
-      <c r="B54" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="22" customFormat="1">
-      <c r="A55" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-    </row>
-    <row r="56" spans="1:5" s="26" customFormat="1" ht="30">
-      <c r="B56" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="26" customFormat="1">
-      <c r="B57" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="9" customFormat="1" ht="14"/>
     <row r="59" spans="1:5" s="9" customFormat="1" ht="14"/>
     <row r="60" spans="1:5" s="9" customFormat="1" ht="14"/>
     <row r="61" spans="1:5" s="9" customFormat="1" ht="14"/>
     <row r="62" spans="1:5" s="9" customFormat="1" ht="14"/>
-    <row r="63" spans="1:5">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-    </row>
+    <row r="63" spans="1:5" s="9" customFormat="1" ht="14"/>
     <row r="64" spans="1:5">
       <c r="A64" s="34"/>
       <c r="B64" s="34"/>
@@ -5408,6 +5458,13 @@
       <c r="C376" s="34"/>
       <c r="D376" s="34"/>
       <c r="E376" s="34"/>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="34"/>
+      <c r="B377" s="34"/>
+      <c r="C377" s="34"/>
+      <c r="D377" s="34"/>
+      <c r="E377" s="34"/>
     </row>
   </sheetData>
   <sortState ref="A8:J35">

--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Release_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyRelease.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Release_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyRelease.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="1340" windowWidth="29560" windowHeight="16680" tabRatio="500"/>
+    <workbookView xWindow="5260" yWindow="1660" windowWidth="29560" windowHeight="16680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="159">
   <si>
     <t>Race</t>
   </si>
@@ -205,9 +205,6 @@
   </si>
   <si>
     <t>Behavioral Health</t>
-  </si>
-  <si>
-    <t>Diagnosis</t>
   </si>
   <si>
     <t>SMI Indicator</t>
@@ -331,12 +328,6 @@
     <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Location[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ReleaseToLocation/@structures:ref]/nc:Address/nc:LocationPostalCode</t>
   </si>
   <si>
-    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/crr-ext:BehavioralHealthInformation/j:Evaluation/j:EvaluationDiagnosisDescriptionText</t>
-  </si>
-  <si>
-    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/crr-ext:BehavioralHealthInformation/crr-ext:SeriousMentalIllnessIndicator</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -398,6 +389,132 @@
   </si>
   <si>
     <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Location[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ReleaseToLocation/@structures:ref]/nc:Address/nc:LocationStateUSPostalServiceCode</t>
+  </si>
+  <si>
+    <t>Serious Mental Ilness</t>
+  </si>
+  <si>
+    <t>HRN Indicator</t>
+  </si>
+  <si>
+    <t>High Risk Needs</t>
+  </si>
+  <si>
+    <t>SA Indicator</t>
+  </si>
+  <si>
+    <t>Substance Abuse</t>
+  </si>
+  <si>
+    <t>GMHC Indicatior</t>
+  </si>
+  <si>
+    <t>General Mental Health Condition</t>
+  </si>
+  <si>
+    <t>Diagnosis Description</t>
+  </si>
+  <si>
+    <t>Treatment Start Date</t>
+  </si>
+  <si>
+    <t>Treatment End Date</t>
+  </si>
+  <si>
+    <t>Treatment Provider</t>
+  </si>
+  <si>
+    <t>TCO Indicator</t>
+  </si>
+  <si>
+    <t>Treeatment Court Ordered</t>
+  </si>
+  <si>
+    <t>TA Indicator</t>
+  </si>
+  <si>
+    <t>Treatment Active Indicator</t>
+  </si>
+  <si>
+    <t>Prescribed Medication Name</t>
+  </si>
+  <si>
+    <t>Medication Product ID</t>
+  </si>
+  <si>
+    <t>Medication Dispensing Date</t>
+  </si>
+  <si>
+    <t>Medication Dose Text</t>
+  </si>
+  <si>
+    <t>Medicaid Indicator</t>
+  </si>
+  <si>
+    <t>Regional Behavioral Health Authority Assigment Text</t>
+  </si>
+  <si>
+    <t>Care Episode</t>
+  </si>
+  <si>
+    <t>Care EpisodeStart Date</t>
+  </si>
+  <si>
+    <t>Care Episode End Date</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/crr-ext:BehavioralHealthInformation[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person/crr-ext:PersonBehavioralHealthInformation/@structures:ref]/crr-ext:SeriousMentalIllnessIndicator</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/crr-ext:BehavioralHealthInformation[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person/crr-ext:PersonBehavioralHealthInformation/@structures:ref]/crr-ext:HighRiskNeedsIndicator</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/crr-ext:BehavioralHealthInformation[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person/crr-ext:PersonBehavioralHealthInformation/@structures:ref]/crr-ext:SubstanceAbuseIndicator</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/crr-ext:BehavioralHealthInformation[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person/crr-ext:PersonBehavioralHealthInformation/@structures:ref]/crr-ext:GeneralMentalHealthConditionIndicator</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/crr-ext:BehavioralHealthInformation[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person/crr-ext:PersonBehavioralHealthInformation/@structures:ref]/j:Evaluation/j:EvaluationDiagnosisDescriptionText</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/crr-ext:BehavioralHealthInformation[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person/crr-ext:PersonBehavioralHealthInformation/@structures:ref]/nc:Treatment/nc:ActivityDateRange/nc:StartDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/crr-ext:BehavioralHealthInformation[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person/crr-ext:PersonBehavioralHealthInformation/@structures:ref]/nc:Treatment/nc:ActivityDateRange/nc:EndDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/crr-ext:BehavioralHealthInformation[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person/crr-ext:PersonBehavioralHealthInformation/@structures:ref]/nc:Treatment/nc:TreatmentProvider/nc:EntityOrganization/nc:OrganizationName</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/crr-ext:BehavioralHealthInformation[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person/crr-ext:PersonBehavioralHealthInformation/@structures:ref]/nc:Treatment/crr-ext:TreatmentCourtOrderedIndicator</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/crr-ext:BehavioralHealthInformation[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person/crr-ext:PersonBehavioralHealthInformation/@structures:ref]/nc:Treatment/crr-ext:TreatmentActiveIndicator</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/crr-ext:BehavioralHealthInformation[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person/crr-ext:PersonBehavioralHealthInformation/@structures:ref]/crr-ext:PrescribedMedication/cyfs:Medication/nc:ItemName</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/crr-ext:BehavioralHealthInformation[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person/crr-ext:PersonBehavioralHealthInformation/@structures:ref]/crr-ext:PrescribedMedication/cyfs:Medication/crr-ext:MedicationGeneralProductIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/crr-ext:BehavioralHealthInformation[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person/crr-ext:PersonBehavioralHealthInformation/@structures:ref]/crr-ext:PrescribedMedication/cyfs:MedicationDispensingDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/crr-ext:BehavioralHealthInformation[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person/crr-ext:PersonBehavioralHealthInformation/@structures:ref]/crr-ext:PrescribedMedication/cyfs:MedicationDoseMeasure/nc:MeasureValueText</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/crr-ext:BehavioralHealthInformation[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person/crr-ext:PersonBehavioralHealthInformation/@structures:ref]/hs:MedicaidIndicator</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/crr-ext:BehavioralHealthInformation[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person/crr-ext:PersonBehavioralHealthInformation/@structures:ref]/crr-ext:RegionalBehavioralHealthAuthorityAssignmentText</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/crr-ext:CareEpisode[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person/crr-ext:PersonCareEpisode/@structures:ref]/nc:ActivityDateRange/nc:StartDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/crr-ext:CareEpisode[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person/crr-ext:PersonCareEpisode/@structures:ref]/nc:ActivityDateRange/nc:EndDate/nc:Date</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1450,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1437,13 +1554,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="735" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="735" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2544,11 +2667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M377"/>
+  <dimension ref="A1:M394"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <pane ySplit="2" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2562,10 +2685,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="27" customFormat="1">
-      <c r="A1" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="35"/>
+      <c r="A1" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="37"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
@@ -2701,18 +2824,18 @@
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="25" customFormat="1" ht="28">
       <c r="A14" s="23"/>
       <c r="B14" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="29"/>
       <c r="E14" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="31"/>
@@ -2726,12 +2849,12 @@
     <row r="15" spans="1:13" s="25" customFormat="1" ht="28">
       <c r="A15" s="23"/>
       <c r="B15" s="24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="29"/>
       <c r="E15" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F15" s="30"/>
       <c r="G15" s="31"/>
@@ -2745,12 +2868,12 @@
     <row r="16" spans="1:13" s="25" customFormat="1" ht="28">
       <c r="A16" s="23"/>
       <c r="B16" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="29"/>
       <c r="E16" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="31"/>
@@ -2764,12 +2887,12 @@
     <row r="17" spans="1:13" s="25" customFormat="1" ht="28">
       <c r="A17" s="23"/>
       <c r="B17" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="29"/>
       <c r="E17" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="31"/>
@@ -2783,12 +2906,12 @@
     <row r="18" spans="1:13" s="25" customFormat="1" ht="28">
       <c r="A18" s="23"/>
       <c r="B18" s="24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="29"/>
       <c r="E18" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="31"/>
@@ -2802,12 +2925,12 @@
     <row r="19" spans="1:13" s="25" customFormat="1" ht="28">
       <c r="A19" s="23"/>
       <c r="B19" s="24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="29"/>
       <c r="E19" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="31"/>
@@ -2828,7 +2951,7 @@
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="9" customFormat="1" ht="28">
@@ -2841,7 +2964,7 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="9" customFormat="1" ht="28">
@@ -2854,7 +2977,7 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="9" customFormat="1" ht="28">
@@ -2867,7 +2990,7 @@
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="9" customFormat="1" ht="42">
@@ -2880,7 +3003,7 @@
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="9" customFormat="1" ht="42">
@@ -2893,7 +3016,7 @@
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="9" customFormat="1" ht="42">
@@ -2906,7 +3029,7 @@
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="9" customFormat="1" ht="28">
@@ -2919,7 +3042,7 @@
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="9" customFormat="1" ht="28">
@@ -2932,7 +3055,7 @@
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="9" customFormat="1" ht="28">
@@ -2945,7 +3068,7 @@
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="9" customFormat="1" ht="28">
@@ -2958,7 +3081,7 @@
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="9" customFormat="1" ht="28">
@@ -2971,7 +3094,7 @@
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="9" customFormat="1" ht="28">
@@ -2982,7 +3105,7 @@
       <c r="C32" s="8"/>
       <c r="D32" s="7"/>
       <c r="E32" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="22" customFormat="1">
@@ -3004,7 +3127,7 @@
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="26" customFormat="1" ht="60">
@@ -3017,7 +3140,7 @@
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="26" customFormat="1" ht="60">
@@ -3030,7 +3153,7 @@
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="26" customFormat="1" ht="60">
@@ -3043,7 +3166,7 @@
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="26" customFormat="1" ht="45">
@@ -3056,7 +3179,7 @@
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="14" customFormat="1">
@@ -3077,7 +3200,7 @@
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="14" customFormat="1">
@@ -3090,7 +3213,7 @@
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="14" customFormat="1" ht="30">
@@ -3103,12 +3226,12 @@
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="14" customFormat="1">
       <c r="A43" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -3117,15 +3240,15 @@
     </row>
     <row r="44" spans="1:5" s="9" customFormat="1" ht="14">
       <c r="B44" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="14" customFormat="1">
       <c r="A45" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -3134,10 +3257,10 @@
     </row>
     <row r="46" spans="1:5" s="10" customFormat="1" ht="14">
       <c r="B46" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="10" customFormat="1" ht="28">
@@ -3149,7 +3272,7 @@
         <v>43</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="9" customFormat="1" ht="14">
@@ -3160,7 +3283,7 @@
         <v>45</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="9" customFormat="1" ht="14">
@@ -3172,221 +3295,257 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" s="37" customFormat="1" ht="30">
+    <row r="50" spans="1:5" s="36" customFormat="1" ht="30">
       <c r="A50" s="25"/>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="35" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
       <c r="E50" s="24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="37" customFormat="1" ht="30">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="36" customFormat="1" ht="30">
       <c r="A51" s="25"/>
-      <c r="B51" s="36" t="s">
-        <v>112</v>
+      <c r="B51" s="35" t="s">
+        <v>109</v>
       </c>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
       <c r="E51" s="24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="37" customFormat="1" ht="30">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="36" customFormat="1" ht="30">
       <c r="A52" s="25"/>
-      <c r="B52" s="36" t="s">
-        <v>113</v>
+      <c r="B52" s="35" t="s">
+        <v>110</v>
       </c>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
       <c r="E52" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="37" customFormat="1" ht="30">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="36" customFormat="1" ht="30">
       <c r="A53" s="25"/>
-      <c r="B53" s="36" t="s">
-        <v>114</v>
+      <c r="B53" s="35" t="s">
+        <v>111</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
       <c r="E53" s="24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="37" customFormat="1" ht="30">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="36" customFormat="1" ht="30">
       <c r="A54" s="25"/>
-      <c r="B54" s="36" t="s">
-        <v>115</v>
+      <c r="B54" s="35" t="s">
+        <v>112</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
       <c r="E54" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="37" customFormat="1" ht="30">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="36" customFormat="1" ht="30">
       <c r="A55" s="25"/>
-      <c r="B55" s="36" t="s">
-        <v>116</v>
+      <c r="B55" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
       <c r="E55" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="22" customFormat="1">
-      <c r="A56" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="26" customFormat="1">
+      <c r="A56" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-    </row>
-    <row r="57" spans="1:5" s="26" customFormat="1" ht="30">
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+    </row>
+    <row r="57" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B57" s="26" t="s">
         <v>62</v>
       </c>
+      <c r="C57" s="26" t="s">
+        <v>117</v>
+      </c>
       <c r="E57" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="26" customFormat="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="26" customFormat="1" ht="30">
       <c r="B58" s="24" t="s">
-        <v>63</v>
+        <v>118</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>119</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="9" customFormat="1" ht="14"/>
-    <row r="60" spans="1:5" s="9" customFormat="1" ht="14"/>
-    <row r="61" spans="1:5" s="9" customFormat="1" ht="14"/>
-    <row r="62" spans="1:5" s="9" customFormat="1" ht="14"/>
-    <row r="63" spans="1:5" s="9" customFormat="1" ht="14"/>
-    <row r="64" spans="1:5">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="34"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="34"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="34"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="34"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="34"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="34"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="34"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="34"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="34"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="34"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="34"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="34"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="34"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-    </row>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="26" customFormat="1" ht="30">
+      <c r="B59" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B60" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="26" customFormat="1" ht="30">
+      <c r="B61" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="26" customFormat="1" ht="30">
+      <c r="B62" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="26" customFormat="1" ht="30">
+      <c r="B63" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="26" customFormat="1" ht="60">
+      <c r="B64" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="26" customFormat="1" ht="30">
+      <c r="B65" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="26" customFormat="1" ht="30">
+      <c r="B66" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="26" customFormat="1" ht="30">
+      <c r="B67" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B68" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B69" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B70" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="26" customFormat="1" ht="30">
+      <c r="B71" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B72" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="26" customFormat="1">
+      <c r="A73" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+    </row>
+    <row r="74" spans="1:5" s="26" customFormat="1" ht="30">
+      <c r="B74" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="26" customFormat="1" ht="30">
+      <c r="B75" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="9" customFormat="1" ht="14"/>
+    <row r="77" spans="1:5" s="9" customFormat="1" ht="14"/>
+    <row r="78" spans="1:5" s="9" customFormat="1" ht="14"/>
+    <row r="79" spans="1:5" s="9" customFormat="1" ht="14"/>
+    <row r="80" spans="1:5" s="9" customFormat="1" ht="14"/>
     <row r="81" spans="1:5">
       <c r="A81" s="34"/>
       <c r="B81" s="34"/>
@@ -5465,6 +5624,125 @@
       <c r="C377" s="34"/>
       <c r="D377" s="34"/>
       <c r="E377" s="34"/>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="34"/>
+      <c r="B378" s="34"/>
+      <c r="C378" s="34"/>
+      <c r="D378" s="34"/>
+      <c r="E378" s="34"/>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="34"/>
+      <c r="B379" s="34"/>
+      <c r="C379" s="34"/>
+      <c r="D379" s="34"/>
+      <c r="E379" s="34"/>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="34"/>
+      <c r="B380" s="34"/>
+      <c r="C380" s="34"/>
+      <c r="D380" s="34"/>
+      <c r="E380" s="34"/>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="34"/>
+      <c r="B381" s="34"/>
+      <c r="C381" s="34"/>
+      <c r="D381" s="34"/>
+      <c r="E381" s="34"/>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="34"/>
+      <c r="B382" s="34"/>
+      <c r="C382" s="34"/>
+      <c r="D382" s="34"/>
+      <c r="E382" s="34"/>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="34"/>
+      <c r="B383" s="34"/>
+      <c r="C383" s="34"/>
+      <c r="D383" s="34"/>
+      <c r="E383" s="34"/>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="34"/>
+      <c r="B384" s="34"/>
+      <c r="C384" s="34"/>
+      <c r="D384" s="34"/>
+      <c r="E384" s="34"/>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="34"/>
+      <c r="B385" s="34"/>
+      <c r="C385" s="34"/>
+      <c r="D385" s="34"/>
+      <c r="E385" s="34"/>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="34"/>
+      <c r="B386" s="34"/>
+      <c r="C386" s="34"/>
+      <c r="D386" s="34"/>
+      <c r="E386" s="34"/>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="34"/>
+      <c r="B387" s="34"/>
+      <c r="C387" s="34"/>
+      <c r="D387" s="34"/>
+      <c r="E387" s="34"/>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="34"/>
+      <c r="B388" s="34"/>
+      <c r="C388" s="34"/>
+      <c r="D388" s="34"/>
+      <c r="E388" s="34"/>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="34"/>
+      <c r="B389" s="34"/>
+      <c r="C389" s="34"/>
+      <c r="D389" s="34"/>
+      <c r="E389" s="34"/>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="34"/>
+      <c r="B390" s="34"/>
+      <c r="C390" s="34"/>
+      <c r="D390" s="34"/>
+      <c r="E390" s="34"/>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="34"/>
+      <c r="B391" s="34"/>
+      <c r="C391" s="34"/>
+      <c r="D391" s="34"/>
+      <c r="E391" s="34"/>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="34"/>
+      <c r="B392" s="34"/>
+      <c r="C392" s="34"/>
+      <c r="D392" s="34"/>
+      <c r="E392" s="34"/>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="34"/>
+      <c r="B393" s="34"/>
+      <c r="C393" s="34"/>
+      <c r="D393" s="34"/>
+      <c r="E393" s="34"/>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="34"/>
+      <c r="B394" s="34"/>
+      <c r="C394" s="34"/>
+      <c r="D394" s="34"/>
+      <c r="E394" s="34"/>
     </row>
   </sheetData>
   <sortState ref="A8:J35">

--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Release_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyRelease.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Release_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyRelease.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="1665" windowWidth="29565" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="-8625" yWindow="1020" windowWidth="29565" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
@@ -370,9 +370,6 @@
     <t>Street Name</t>
   </si>
   <si>
-    <t xml:space="preserve"> City</t>
-  </si>
-  <si>
     <t>State Code</t>
   </si>
   <si>
@@ -521,6 +518,9 @@
   </si>
   <si>
     <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/j:Booking/j:BookingAgencyRecordIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>City</t>
   </si>
 </sst>
 </file>
@@ -1580,11 +1580,11 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="735" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="768">
@@ -2692,8 +2692,8 @@
   <dimension ref="A1:M395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <pane ySplit="2" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E75" sqref="E75:E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2707,10 +2707,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
@@ -3216,17 +3216,17 @@
     <row r="40" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
       <c r="E40" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B41" s="39" t="s">
-        <v>159</v>
+      <c r="B41" s="38" t="s">
+        <v>158</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>56</v>
@@ -3347,7 +3347,7 @@
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
       <c r="E52" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="35" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -3358,13 +3358,13 @@
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
       <c r="E53" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="35" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
       <c r="B54" s="34" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -3375,18 +3375,18 @@
     <row r="55" spans="1:5" s="35" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="B55" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
       <c r="E55" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="35" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
       <c r="B56" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -3408,150 +3408,150 @@
         <v>61</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B59" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="26" t="s">
-        <v>118</v>
-      </c>
       <c r="E59" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B60" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="26" t="s">
-        <v>120</v>
-      </c>
       <c r="E60" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B61" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="26" t="s">
-        <v>122</v>
-      </c>
       <c r="E61" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B62" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B63" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B64" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="26" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="B65" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B66" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C66" s="26" t="s">
-        <v>128</v>
-      </c>
       <c r="E66" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B67" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C67" s="26" t="s">
-        <v>130</v>
-      </c>
       <c r="E67" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B68" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B69" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B70" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B71" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B72" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B73" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B74" s="37"/>
       <c r="C74" s="37"/>
@@ -3560,18 +3560,18 @@
     </row>
     <row r="75" spans="1:5" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B75" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B76" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>

--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Release_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyRelease.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Release_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyRelease.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-8625" yWindow="1020" windowWidth="29565" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="164">
   <si>
     <t>Race</t>
   </si>
@@ -521,6 +521,15 @@
   </si>
   <si>
     <t>City</t>
+  </si>
+  <si>
+    <t>x-ext</t>
+  </si>
+  <si>
+    <t>Race Code (Adams County)</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/nc:Person[@structures:id=/br-doc:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/ac-bkg-codes:PersonRaceCode</t>
   </si>
 </sst>
 </file>
@@ -2689,24 +2698,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M395"/>
+  <dimension ref="A1:M396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75:E76"/>
+      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="104.875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="1"/>
+    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="104.83203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="27" customFormat="1">
       <c r="A1" s="39" t="s">
         <v>71</v>
       </c>
@@ -2715,7 +2724,7 @@
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2732,7 +2741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="14">
       <c r="A3" s="11" t="s">
         <v>54</v>
       </c>
@@ -2741,7 +2750,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="28">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -2754,7 +2763,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="14">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -2767,7 +2776,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="9" customFormat="1" ht="14">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
@@ -2776,7 +2785,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="9" customFormat="1" ht="14">
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
@@ -2787,7 +2796,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="14">
       <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
@@ -2798,7 +2807,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="9" customFormat="1" ht="14">
       <c r="A9" s="11" t="s">
         <v>33</v>
       </c>
@@ -2807,7 +2816,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="9" customFormat="1" ht="14">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>39</v>
@@ -2818,7 +2827,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="9" customFormat="1" ht="14">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
         <v>40</v>
@@ -2829,7 +2838,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="9" customFormat="1" ht="14">
       <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
@@ -2838,7 +2847,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:13" s="25" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="25" customFormat="1" ht="30">
       <c r="A13" s="23"/>
       <c r="B13" s="24" t="s">
         <v>58</v>
@@ -2849,7 +2858,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="25" customFormat="1" ht="28">
       <c r="A14" s="23"/>
       <c r="B14" s="24" t="s">
         <v>95</v>
@@ -2868,7 +2877,7 @@
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
     </row>
-    <row r="15" spans="1:13" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="25" customFormat="1" ht="28">
       <c r="A15" s="23"/>
       <c r="B15" s="24" t="s">
         <v>96</v>
@@ -2887,7 +2896,7 @@
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:13" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="25" customFormat="1" ht="28">
       <c r="A16" s="23"/>
       <c r="B16" s="24" t="s">
         <v>97</v>
@@ -2906,7 +2915,7 @@
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
     </row>
-    <row r="17" spans="1:13" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="25" customFormat="1" ht="28">
       <c r="A17" s="23"/>
       <c r="B17" s="24" t="s">
         <v>98</v>
@@ -2925,7 +2934,7 @@
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
     </row>
-    <row r="18" spans="1:13" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="25" customFormat="1" ht="28">
       <c r="A18" s="23"/>
       <c r="B18" s="24" t="s">
         <v>99</v>
@@ -2944,7 +2953,7 @@
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
     </row>
-    <row r="19" spans="1:13" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="25" customFormat="1" ht="28">
       <c r="A19" s="23"/>
       <c r="B19" s="24" t="s">
         <v>100</v>
@@ -2963,7 +2972,7 @@
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
     </row>
-    <row r="20" spans="1:13" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="9" customFormat="1" ht="28">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>11</v>
@@ -2976,7 +2985,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="9" customFormat="1" ht="28">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
         <v>2</v>
@@ -2989,7 +2998,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="9" customFormat="1" ht="28">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
         <v>0</v>
@@ -3002,2780 +3011,2794 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="1:13" s="26" customFormat="1" ht="30">
+      <c r="A23" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="9" customFormat="1" ht="28">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="4" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="9" customFormat="1" ht="42">
       <c r="A25" s="7"/>
       <c r="B25" s="8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="9" customFormat="1" ht="42">
       <c r="A26" s="7"/>
       <c r="B26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="9" customFormat="1" ht="42">
       <c r="A27" s="7"/>
       <c r="B27" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="9" customFormat="1" ht="28">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="9" customFormat="1" ht="28">
       <c r="A29" s="5"/>
-      <c r="B29" s="8" t="s">
-        <v>29</v>
+      <c r="B29" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="9" customFormat="1" ht="28">
       <c r="A30" s="5"/>
-      <c r="B30" s="5" t="s">
-        <v>31</v>
+      <c r="B30" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8" t="s">
-        <v>1</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="9" customFormat="1" ht="28">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="9" customFormat="1" ht="28">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="9" customFormat="1" ht="28">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="4" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+    <row r="34" spans="1:5" s="22" customFormat="1">
+      <c r="A34" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-    </row>
-    <row r="34" spans="1:5" s="26" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="26" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="1:5" s="26" customFormat="1" ht="60">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="26" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="26" customFormat="1" ht="60">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="26" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="26" customFormat="1" ht="60">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="26" customFormat="1" ht="60">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+    <row r="40" spans="1:5" s="14" customFormat="1">
+      <c r="A40" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:5" s="26" customFormat="1">
+      <c r="A41" s="23"/>
+      <c r="B41" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="1" t="s">
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B41" s="38" t="s">
+    <row r="42" spans="1:5" s="32" customFormat="1" ht="28">
+      <c r="B42" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C42" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="1" t="s">
+      <c r="D42" s="15"/>
+      <c r="E42" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="14" customFormat="1">
       <c r="A43" s="16"/>
       <c r="B43" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="14" customFormat="1" ht="30">
+      <c r="A44" s="16"/>
+      <c r="B44" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="19" t="s">
+      <c r="D44" s="18"/>
+      <c r="E44" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+    <row r="45" spans="1:5" s="14" customFormat="1">
+      <c r="A45" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="45" spans="1:5" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:5" s="9" customFormat="1" ht="14">
+      <c r="B46" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E46" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+    <row r="47" spans="1:5" s="14" customFormat="1">
+      <c r="A47" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" spans="1:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" spans="1:5" s="10" customFormat="1" ht="14">
+      <c r="B48" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E48" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="10" t="s">
+    <row r="49" spans="1:5" s="10" customFormat="1" ht="28">
+      <c r="A49" s="6"/>
+      <c r="B49" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E49" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="9" t="s">
+    <row r="50" spans="1:5" s="9" customFormat="1" ht="14">
+      <c r="B50" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C50" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E50" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+    <row r="51" spans="1:5" s="9" customFormat="1" ht="14">
+      <c r="A51" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" s="35" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="35" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" s="35" customFormat="1" ht="30">
       <c r="A52" s="25"/>
       <c r="B52" s="34" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
       <c r="E52" s="24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="35" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="35" customFormat="1" ht="30">
       <c r="A53" s="25"/>
       <c r="B53" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
       <c r="E53" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="35" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="35" customFormat="1" ht="30">
       <c r="A54" s="25"/>
       <c r="B54" s="34" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
       <c r="E54" s="24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="35" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="35" customFormat="1" ht="30">
       <c r="A55" s="25"/>
       <c r="B55" s="34" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
       <c r="E55" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="35" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="35" customFormat="1" ht="30">
       <c r="A56" s="25"/>
       <c r="B56" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
       <c r="E56" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="35" customFormat="1" ht="30">
+      <c r="A57" s="25"/>
+      <c r="B57" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="36" t="s">
+    <row r="58" spans="1:5" s="26" customFormat="1">
+      <c r="A58" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-    </row>
-    <row r="58" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+    </row>
+    <row r="59" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B59" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C59" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="E58" s="17" t="s">
+      <c r="E59" s="17" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B59" s="24" t="s">
+    <row r="60" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B60" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C60" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E60" s="17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B60" s="26" t="s">
+    <row r="61" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B61" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C61" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E61" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B61" s="26" t="s">
+    <row r="62" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B62" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C62" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="E62" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B62" s="26" t="s">
+    <row r="63" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B63" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="E63" s="17" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B63" s="26" t="s">
+    <row r="64" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B64" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="E64" s="17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B64" s="26" t="s">
+    <row r="65" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B65" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="E65" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="26" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="B65" s="26" t="s">
+    <row r="66" spans="1:5" s="26" customFormat="1" ht="60">
+      <c r="B66" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E66" s="17" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B66" s="26" t="s">
+    <row r="67" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B67" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C67" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E67" s="17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B67" s="26" t="s">
+    <row r="68" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B68" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C68" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E68" s="17" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B68" s="26" t="s">
+    <row r="69" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B69" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E69" s="17" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B69" s="26" t="s">
+    <row r="70" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B70" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E69" s="17" t="s">
+      <c r="E70" s="17" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B70" s="26" t="s">
+    <row r="71" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B71" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="E70" s="17" t="s">
+      <c r="E71" s="17" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B71" s="26" t="s">
+    <row r="72" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B72" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="E71" s="17" t="s">
+      <c r="E72" s="17" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B72" s="24" t="s">
+    <row r="73" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B73" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E73" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B73" s="24" t="s">
+    <row r="74" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B74" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E74" s="17" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="36" t="s">
+    <row r="75" spans="1:5" s="26" customFormat="1">
+      <c r="A75" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="B74" s="37"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-    </row>
-    <row r="75" spans="1:5" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+    </row>
+    <row r="76" spans="1:5" s="26" customFormat="1" ht="30">
+      <c r="B76" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E76" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B76" s="24" t="s">
+    <row r="77" spans="1:5" s="26" customFormat="1" ht="30">
+      <c r="B77" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="E76" s="17" t="s">
+      <c r="E77" s="17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="33"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" s="9" customFormat="1" ht="14"/>
+    <row r="79" spans="1:5" s="9" customFormat="1" ht="14"/>
+    <row r="80" spans="1:5" s="9" customFormat="1" ht="14"/>
+    <row r="81" spans="1:5" s="9" customFormat="1" ht="14"/>
+    <row r="82" spans="1:5" s="9" customFormat="1" ht="14"/>
+    <row r="83" spans="1:5">
       <c r="A83" s="33"/>
       <c r="B83" s="33"/>
       <c r="C83" s="33"/>
       <c r="D83" s="33"/>
       <c r="E83" s="33"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" s="33"/>
       <c r="B84" s="33"/>
       <c r="C84" s="33"/>
       <c r="D84" s="33"/>
       <c r="E84" s="33"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="33"/>
       <c r="B85" s="33"/>
       <c r="C85" s="33"/>
       <c r="D85" s="33"/>
       <c r="E85" s="33"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="33"/>
       <c r="B86" s="33"/>
       <c r="C86" s="33"/>
       <c r="D86" s="33"/>
       <c r="E86" s="33"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" s="33"/>
       <c r="B87" s="33"/>
       <c r="C87" s="33"/>
       <c r="D87" s="33"/>
       <c r="E87" s="33"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" s="33"/>
       <c r="B88" s="33"/>
       <c r="C88" s="33"/>
       <c r="D88" s="33"/>
       <c r="E88" s="33"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" s="33"/>
       <c r="B89" s="33"/>
       <c r="C89" s="33"/>
       <c r="D89" s="33"/>
       <c r="E89" s="33"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="33"/>
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
       <c r="D90" s="33"/>
       <c r="E90" s="33"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="33"/>
       <c r="B91" s="33"/>
       <c r="C91" s="33"/>
       <c r="D91" s="33"/>
       <c r="E91" s="33"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" s="33"/>
       <c r="B92" s="33"/>
       <c r="C92" s="33"/>
       <c r="D92" s="33"/>
       <c r="E92" s="33"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" s="33"/>
       <c r="B93" s="33"/>
       <c r="C93" s="33"/>
       <c r="D93" s="33"/>
       <c r="E93" s="33"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="33"/>
       <c r="B94" s="33"/>
       <c r="C94" s="33"/>
       <c r="D94" s="33"/>
       <c r="E94" s="33"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="33"/>
       <c r="B95" s="33"/>
       <c r="C95" s="33"/>
       <c r="D95" s="33"/>
       <c r="E95" s="33"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="33"/>
       <c r="B96" s="33"/>
       <c r="C96" s="33"/>
       <c r="D96" s="33"/>
       <c r="E96" s="33"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="33"/>
       <c r="B97" s="33"/>
       <c r="C97" s="33"/>
       <c r="D97" s="33"/>
       <c r="E97" s="33"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="33"/>
       <c r="B98" s="33"/>
       <c r="C98" s="33"/>
       <c r="D98" s="33"/>
       <c r="E98" s="33"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="33"/>
       <c r="B99" s="33"/>
       <c r="C99" s="33"/>
       <c r="D99" s="33"/>
       <c r="E99" s="33"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="33"/>
       <c r="B100" s="33"/>
       <c r="C100" s="33"/>
       <c r="D100" s="33"/>
       <c r="E100" s="33"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" s="33"/>
       <c r="B101" s="33"/>
       <c r="C101" s="33"/>
       <c r="D101" s="33"/>
       <c r="E101" s="33"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" s="33"/>
       <c r="B102" s="33"/>
       <c r="C102" s="33"/>
       <c r="D102" s="33"/>
       <c r="E102" s="33"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" s="33"/>
       <c r="B103" s="33"/>
       <c r="C103" s="33"/>
       <c r="D103" s="33"/>
       <c r="E103" s="33"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" s="33"/>
       <c r="B104" s="33"/>
       <c r="C104" s="33"/>
       <c r="D104" s="33"/>
       <c r="E104" s="33"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" s="33"/>
       <c r="B105" s="33"/>
       <c r="C105" s="33"/>
       <c r="D105" s="33"/>
       <c r="E105" s="33"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" s="33"/>
       <c r="B106" s="33"/>
       <c r="C106" s="33"/>
       <c r="D106" s="33"/>
       <c r="E106" s="33"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" s="33"/>
       <c r="B107" s="33"/>
       <c r="C107" s="33"/>
       <c r="D107" s="33"/>
       <c r="E107" s="33"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" s="33"/>
       <c r="B108" s="33"/>
       <c r="C108" s="33"/>
       <c r="D108" s="33"/>
       <c r="E108" s="33"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" s="33"/>
       <c r="B109" s="33"/>
       <c r="C109" s="33"/>
       <c r="D109" s="33"/>
       <c r="E109" s="33"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" s="33"/>
       <c r="B110" s="33"/>
       <c r="C110" s="33"/>
       <c r="D110" s="33"/>
       <c r="E110" s="33"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" s="33"/>
       <c r="B111" s="33"/>
       <c r="C111" s="33"/>
       <c r="D111" s="33"/>
       <c r="E111" s="33"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" s="33"/>
       <c r="B112" s="33"/>
       <c r="C112" s="33"/>
       <c r="D112" s="33"/>
       <c r="E112" s="33"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="33"/>
       <c r="B113" s="33"/>
       <c r="C113" s="33"/>
       <c r="D113" s="33"/>
       <c r="E113" s="33"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" s="33"/>
       <c r="B114" s="33"/>
       <c r="C114" s="33"/>
       <c r="D114" s="33"/>
       <c r="E114" s="33"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="33"/>
       <c r="B115" s="33"/>
       <c r="C115" s="33"/>
       <c r="D115" s="33"/>
       <c r="E115" s="33"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" s="33"/>
       <c r="B116" s="33"/>
       <c r="C116" s="33"/>
       <c r="D116" s="33"/>
       <c r="E116" s="33"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="33"/>
       <c r="B117" s="33"/>
       <c r="C117" s="33"/>
       <c r="D117" s="33"/>
       <c r="E117" s="33"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" s="33"/>
       <c r="B118" s="33"/>
       <c r="C118" s="33"/>
       <c r="D118" s="33"/>
       <c r="E118" s="33"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" s="33"/>
       <c r="B119" s="33"/>
       <c r="C119" s="33"/>
       <c r="D119" s="33"/>
       <c r="E119" s="33"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="33"/>
       <c r="B120" s="33"/>
       <c r="C120" s="33"/>
       <c r="D120" s="33"/>
       <c r="E120" s="33"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="33"/>
       <c r="B121" s="33"/>
       <c r="C121" s="33"/>
       <c r="D121" s="33"/>
       <c r="E121" s="33"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" s="33"/>
       <c r="B122" s="33"/>
       <c r="C122" s="33"/>
       <c r="D122" s="33"/>
       <c r="E122" s="33"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" s="33"/>
       <c r="B123" s="33"/>
       <c r="C123" s="33"/>
       <c r="D123" s="33"/>
       <c r="E123" s="33"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" s="33"/>
       <c r="B124" s="33"/>
       <c r="C124" s="33"/>
       <c r="D124" s="33"/>
       <c r="E124" s="33"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" s="33"/>
       <c r="B125" s="33"/>
       <c r="C125" s="33"/>
       <c r="D125" s="33"/>
       <c r="E125" s="33"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" s="33"/>
       <c r="B126" s="33"/>
       <c r="C126" s="33"/>
       <c r="D126" s="33"/>
       <c r="E126" s="33"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" s="33"/>
       <c r="B127" s="33"/>
       <c r="C127" s="33"/>
       <c r="D127" s="33"/>
       <c r="E127" s="33"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" s="33"/>
       <c r="B128" s="33"/>
       <c r="C128" s="33"/>
       <c r="D128" s="33"/>
       <c r="E128" s="33"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" s="33"/>
       <c r="B129" s="33"/>
       <c r="C129" s="33"/>
       <c r="D129" s="33"/>
       <c r="E129" s="33"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" s="33"/>
       <c r="B130" s="33"/>
       <c r="C130" s="33"/>
       <c r="D130" s="33"/>
       <c r="E130" s="33"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" s="33"/>
       <c r="B131" s="33"/>
       <c r="C131" s="33"/>
       <c r="D131" s="33"/>
       <c r="E131" s="33"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" s="33"/>
       <c r="B132" s="33"/>
       <c r="C132" s="33"/>
       <c r="D132" s="33"/>
       <c r="E132" s="33"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" s="33"/>
       <c r="B133" s="33"/>
       <c r="C133" s="33"/>
       <c r="D133" s="33"/>
       <c r="E133" s="33"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" s="33"/>
       <c r="B134" s="33"/>
       <c r="C134" s="33"/>
       <c r="D134" s="33"/>
       <c r="E134" s="33"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" s="33"/>
       <c r="B135" s="33"/>
       <c r="C135" s="33"/>
       <c r="D135" s="33"/>
       <c r="E135" s="33"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" s="33"/>
       <c r="B136" s="33"/>
       <c r="C136" s="33"/>
       <c r="D136" s="33"/>
       <c r="E136" s="33"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" s="33"/>
       <c r="B137" s="33"/>
       <c r="C137" s="33"/>
       <c r="D137" s="33"/>
       <c r="E137" s="33"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" s="33"/>
       <c r="B138" s="33"/>
       <c r="C138" s="33"/>
       <c r="D138" s="33"/>
       <c r="E138" s="33"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" s="33"/>
       <c r="B139" s="33"/>
       <c r="C139" s="33"/>
       <c r="D139" s="33"/>
       <c r="E139" s="33"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" s="33"/>
       <c r="B140" s="33"/>
       <c r="C140" s="33"/>
       <c r="D140" s="33"/>
       <c r="E140" s="33"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" s="33"/>
       <c r="B141" s="33"/>
       <c r="C141" s="33"/>
       <c r="D141" s="33"/>
       <c r="E141" s="33"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" s="33"/>
       <c r="B142" s="33"/>
       <c r="C142" s="33"/>
       <c r="D142" s="33"/>
       <c r="E142" s="33"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" s="33"/>
       <c r="B143" s="33"/>
       <c r="C143" s="33"/>
       <c r="D143" s="33"/>
       <c r="E143" s="33"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" s="33"/>
       <c r="B144" s="33"/>
       <c r="C144" s="33"/>
       <c r="D144" s="33"/>
       <c r="E144" s="33"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" s="33"/>
       <c r="B145" s="33"/>
       <c r="C145" s="33"/>
       <c r="D145" s="33"/>
       <c r="E145" s="33"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" s="33"/>
       <c r="B146" s="33"/>
       <c r="C146" s="33"/>
       <c r="D146" s="33"/>
       <c r="E146" s="33"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" s="33"/>
       <c r="B147" s="33"/>
       <c r="C147" s="33"/>
       <c r="D147" s="33"/>
       <c r="E147" s="33"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" s="33"/>
       <c r="B148" s="33"/>
       <c r="C148" s="33"/>
       <c r="D148" s="33"/>
       <c r="E148" s="33"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" s="33"/>
       <c r="B149" s="33"/>
       <c r="C149" s="33"/>
       <c r="D149" s="33"/>
       <c r="E149" s="33"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" s="33"/>
       <c r="B150" s="33"/>
       <c r="C150" s="33"/>
       <c r="D150" s="33"/>
       <c r="E150" s="33"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" s="33"/>
       <c r="B151" s="33"/>
       <c r="C151" s="33"/>
       <c r="D151" s="33"/>
       <c r="E151" s="33"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" s="33"/>
       <c r="B152" s="33"/>
       <c r="C152" s="33"/>
       <c r="D152" s="33"/>
       <c r="E152" s="33"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" s="33"/>
       <c r="B153" s="33"/>
       <c r="C153" s="33"/>
       <c r="D153" s="33"/>
       <c r="E153" s="33"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" s="33"/>
       <c r="B154" s="33"/>
       <c r="C154" s="33"/>
       <c r="D154" s="33"/>
       <c r="E154" s="33"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" s="33"/>
       <c r="B155" s="33"/>
       <c r="C155" s="33"/>
       <c r="D155" s="33"/>
       <c r="E155" s="33"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" s="33"/>
       <c r="B156" s="33"/>
       <c r="C156" s="33"/>
       <c r="D156" s="33"/>
       <c r="E156" s="33"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" s="33"/>
       <c r="B157" s="33"/>
       <c r="C157" s="33"/>
       <c r="D157" s="33"/>
       <c r="E157" s="33"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" s="33"/>
       <c r="B158" s="33"/>
       <c r="C158" s="33"/>
       <c r="D158" s="33"/>
       <c r="E158" s="33"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" s="33"/>
       <c r="B159" s="33"/>
       <c r="C159" s="33"/>
       <c r="D159" s="33"/>
       <c r="E159" s="33"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" s="33"/>
       <c r="B160" s="33"/>
       <c r="C160" s="33"/>
       <c r="D160" s="33"/>
       <c r="E160" s="33"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" s="33"/>
       <c r="B161" s="33"/>
       <c r="C161" s="33"/>
       <c r="D161" s="33"/>
       <c r="E161" s="33"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" s="33"/>
       <c r="B162" s="33"/>
       <c r="C162" s="33"/>
       <c r="D162" s="33"/>
       <c r="E162" s="33"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" s="33"/>
       <c r="B163" s="33"/>
       <c r="C163" s="33"/>
       <c r="D163" s="33"/>
       <c r="E163" s="33"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" s="33"/>
       <c r="B164" s="33"/>
       <c r="C164" s="33"/>
       <c r="D164" s="33"/>
       <c r="E164" s="33"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" s="33"/>
       <c r="B165" s="33"/>
       <c r="C165" s="33"/>
       <c r="D165" s="33"/>
       <c r="E165" s="33"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" s="33"/>
       <c r="B166" s="33"/>
       <c r="C166" s="33"/>
       <c r="D166" s="33"/>
       <c r="E166" s="33"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" s="33"/>
       <c r="B167" s="33"/>
       <c r="C167" s="33"/>
       <c r="D167" s="33"/>
       <c r="E167" s="33"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" s="33"/>
       <c r="B168" s="33"/>
       <c r="C168" s="33"/>
       <c r="D168" s="33"/>
       <c r="E168" s="33"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" s="33"/>
       <c r="B169" s="33"/>
       <c r="C169" s="33"/>
       <c r="D169" s="33"/>
       <c r="E169" s="33"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" s="33"/>
       <c r="B170" s="33"/>
       <c r="C170" s="33"/>
       <c r="D170" s="33"/>
       <c r="E170" s="33"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" s="33"/>
       <c r="B171" s="33"/>
       <c r="C171" s="33"/>
       <c r="D171" s="33"/>
       <c r="E171" s="33"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" s="33"/>
       <c r="B172" s="33"/>
       <c r="C172" s="33"/>
       <c r="D172" s="33"/>
       <c r="E172" s="33"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" s="33"/>
       <c r="B173" s="33"/>
       <c r="C173" s="33"/>
       <c r="D173" s="33"/>
       <c r="E173" s="33"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" s="33"/>
       <c r="B174" s="33"/>
       <c r="C174" s="33"/>
       <c r="D174" s="33"/>
       <c r="E174" s="33"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" s="33"/>
       <c r="B175" s="33"/>
       <c r="C175" s="33"/>
       <c r="D175" s="33"/>
       <c r="E175" s="33"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" s="33"/>
       <c r="B176" s="33"/>
       <c r="C176" s="33"/>
       <c r="D176" s="33"/>
       <c r="E176" s="33"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177" s="33"/>
       <c r="B177" s="33"/>
       <c r="C177" s="33"/>
       <c r="D177" s="33"/>
       <c r="E177" s="33"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" s="33"/>
       <c r="B178" s="33"/>
       <c r="C178" s="33"/>
       <c r="D178" s="33"/>
       <c r="E178" s="33"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179" s="33"/>
       <c r="B179" s="33"/>
       <c r="C179" s="33"/>
       <c r="D179" s="33"/>
       <c r="E179" s="33"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" s="33"/>
       <c r="B180" s="33"/>
       <c r="C180" s="33"/>
       <c r="D180" s="33"/>
       <c r="E180" s="33"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" s="33"/>
       <c r="B181" s="33"/>
       <c r="C181" s="33"/>
       <c r="D181" s="33"/>
       <c r="E181" s="33"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182" s="33"/>
       <c r="B182" s="33"/>
       <c r="C182" s="33"/>
       <c r="D182" s="33"/>
       <c r="E182" s="33"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183" s="33"/>
       <c r="B183" s="33"/>
       <c r="C183" s="33"/>
       <c r="D183" s="33"/>
       <c r="E183" s="33"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184" s="33"/>
       <c r="B184" s="33"/>
       <c r="C184" s="33"/>
       <c r="D184" s="33"/>
       <c r="E184" s="33"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185" s="33"/>
       <c r="B185" s="33"/>
       <c r="C185" s="33"/>
       <c r="D185" s="33"/>
       <c r="E185" s="33"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" s="33"/>
       <c r="B186" s="33"/>
       <c r="C186" s="33"/>
       <c r="D186" s="33"/>
       <c r="E186" s="33"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187" s="33"/>
       <c r="B187" s="33"/>
       <c r="C187" s="33"/>
       <c r="D187" s="33"/>
       <c r="E187" s="33"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188" s="33"/>
       <c r="B188" s="33"/>
       <c r="C188" s="33"/>
       <c r="D188" s="33"/>
       <c r="E188" s="33"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" s="33"/>
       <c r="B189" s="33"/>
       <c r="C189" s="33"/>
       <c r="D189" s="33"/>
       <c r="E189" s="33"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190" s="33"/>
       <c r="B190" s="33"/>
       <c r="C190" s="33"/>
       <c r="D190" s="33"/>
       <c r="E190" s="33"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191" s="33"/>
       <c r="B191" s="33"/>
       <c r="C191" s="33"/>
       <c r="D191" s="33"/>
       <c r="E191" s="33"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" s="33"/>
       <c r="B192" s="33"/>
       <c r="C192" s="33"/>
       <c r="D192" s="33"/>
       <c r="E192" s="33"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193" s="33"/>
       <c r="B193" s="33"/>
       <c r="C193" s="33"/>
       <c r="D193" s="33"/>
       <c r="E193" s="33"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194" s="33"/>
       <c r="B194" s="33"/>
       <c r="C194" s="33"/>
       <c r="D194" s="33"/>
       <c r="E194" s="33"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195" s="33"/>
       <c r="B195" s="33"/>
       <c r="C195" s="33"/>
       <c r="D195" s="33"/>
       <c r="E195" s="33"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196" s="33"/>
       <c r="B196" s="33"/>
       <c r="C196" s="33"/>
       <c r="D196" s="33"/>
       <c r="E196" s="33"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197" s="33"/>
       <c r="B197" s="33"/>
       <c r="C197" s="33"/>
       <c r="D197" s="33"/>
       <c r="E197" s="33"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198" s="33"/>
       <c r="B198" s="33"/>
       <c r="C198" s="33"/>
       <c r="D198" s="33"/>
       <c r="E198" s="33"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199" s="33"/>
       <c r="B199" s="33"/>
       <c r="C199" s="33"/>
       <c r="D199" s="33"/>
       <c r="E199" s="33"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200" s="33"/>
       <c r="B200" s="33"/>
       <c r="C200" s="33"/>
       <c r="D200" s="33"/>
       <c r="E200" s="33"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201" s="33"/>
       <c r="B201" s="33"/>
       <c r="C201" s="33"/>
       <c r="D201" s="33"/>
       <c r="E201" s="33"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5">
       <c r="A202" s="33"/>
       <c r="B202" s="33"/>
       <c r="C202" s="33"/>
       <c r="D202" s="33"/>
       <c r="E202" s="33"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5">
       <c r="A203" s="33"/>
       <c r="B203" s="33"/>
       <c r="C203" s="33"/>
       <c r="D203" s="33"/>
       <c r="E203" s="33"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5">
       <c r="A204" s="33"/>
       <c r="B204" s="33"/>
       <c r="C204" s="33"/>
       <c r="D204" s="33"/>
       <c r="E204" s="33"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5">
       <c r="A205" s="33"/>
       <c r="B205" s="33"/>
       <c r="C205" s="33"/>
       <c r="D205" s="33"/>
       <c r="E205" s="33"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206" s="33"/>
       <c r="B206" s="33"/>
       <c r="C206" s="33"/>
       <c r="D206" s="33"/>
       <c r="E206" s="33"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5">
       <c r="A207" s="33"/>
       <c r="B207" s="33"/>
       <c r="C207" s="33"/>
       <c r="D207" s="33"/>
       <c r="E207" s="33"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5">
       <c r="A208" s="33"/>
       <c r="B208" s="33"/>
       <c r="C208" s="33"/>
       <c r="D208" s="33"/>
       <c r="E208" s="33"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5">
       <c r="A209" s="33"/>
       <c r="B209" s="33"/>
       <c r="C209" s="33"/>
       <c r="D209" s="33"/>
       <c r="E209" s="33"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5">
       <c r="A210" s="33"/>
       <c r="B210" s="33"/>
       <c r="C210" s="33"/>
       <c r="D210" s="33"/>
       <c r="E210" s="33"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5">
       <c r="A211" s="33"/>
       <c r="B211" s="33"/>
       <c r="C211" s="33"/>
       <c r="D211" s="33"/>
       <c r="E211" s="33"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5">
       <c r="A212" s="33"/>
       <c r="B212" s="33"/>
       <c r="C212" s="33"/>
       <c r="D212" s="33"/>
       <c r="E212" s="33"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5">
       <c r="A213" s="33"/>
       <c r="B213" s="33"/>
       <c r="C213" s="33"/>
       <c r="D213" s="33"/>
       <c r="E213" s="33"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5">
       <c r="A214" s="33"/>
       <c r="B214" s="33"/>
       <c r="C214" s="33"/>
       <c r="D214" s="33"/>
       <c r="E214" s="33"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5">
       <c r="A215" s="33"/>
       <c r="B215" s="33"/>
       <c r="C215" s="33"/>
       <c r="D215" s="33"/>
       <c r="E215" s="33"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5">
       <c r="A216" s="33"/>
       <c r="B216" s="33"/>
       <c r="C216" s="33"/>
       <c r="D216" s="33"/>
       <c r="E216" s="33"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5">
       <c r="A217" s="33"/>
       <c r="B217" s="33"/>
       <c r="C217" s="33"/>
       <c r="D217" s="33"/>
       <c r="E217" s="33"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5">
       <c r="A218" s="33"/>
       <c r="B218" s="33"/>
       <c r="C218" s="33"/>
       <c r="D218" s="33"/>
       <c r="E218" s="33"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5">
       <c r="A219" s="33"/>
       <c r="B219" s="33"/>
       <c r="C219" s="33"/>
       <c r="D219" s="33"/>
       <c r="E219" s="33"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5">
       <c r="A220" s="33"/>
       <c r="B220" s="33"/>
       <c r="C220" s="33"/>
       <c r="D220" s="33"/>
       <c r="E220" s="33"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5">
       <c r="A221" s="33"/>
       <c r="B221" s="33"/>
       <c r="C221" s="33"/>
       <c r="D221" s="33"/>
       <c r="E221" s="33"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5">
       <c r="A222" s="33"/>
       <c r="B222" s="33"/>
       <c r="C222" s="33"/>
       <c r="D222" s="33"/>
       <c r="E222" s="33"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5">
       <c r="A223" s="33"/>
       <c r="B223" s="33"/>
       <c r="C223" s="33"/>
       <c r="D223" s="33"/>
       <c r="E223" s="33"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5">
       <c r="A224" s="33"/>
       <c r="B224" s="33"/>
       <c r="C224" s="33"/>
       <c r="D224" s="33"/>
       <c r="E224" s="33"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225" s="33"/>
       <c r="B225" s="33"/>
       <c r="C225" s="33"/>
       <c r="D225" s="33"/>
       <c r="E225" s="33"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5">
       <c r="A226" s="33"/>
       <c r="B226" s="33"/>
       <c r="C226" s="33"/>
       <c r="D226" s="33"/>
       <c r="E226" s="33"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5">
       <c r="A227" s="33"/>
       <c r="B227" s="33"/>
       <c r="C227" s="33"/>
       <c r="D227" s="33"/>
       <c r="E227" s="33"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5">
       <c r="A228" s="33"/>
       <c r="B228" s="33"/>
       <c r="C228" s="33"/>
       <c r="D228" s="33"/>
       <c r="E228" s="33"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5">
       <c r="A229" s="33"/>
       <c r="B229" s="33"/>
       <c r="C229" s="33"/>
       <c r="D229" s="33"/>
       <c r="E229" s="33"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5">
       <c r="A230" s="33"/>
       <c r="B230" s="33"/>
       <c r="C230" s="33"/>
       <c r="D230" s="33"/>
       <c r="E230" s="33"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5">
       <c r="A231" s="33"/>
       <c r="B231" s="33"/>
       <c r="C231" s="33"/>
       <c r="D231" s="33"/>
       <c r="E231" s="33"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5">
       <c r="A232" s="33"/>
       <c r="B232" s="33"/>
       <c r="C232" s="33"/>
       <c r="D232" s="33"/>
       <c r="E232" s="33"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5">
       <c r="A233" s="33"/>
       <c r="B233" s="33"/>
       <c r="C233" s="33"/>
       <c r="D233" s="33"/>
       <c r="E233" s="33"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5">
       <c r="A234" s="33"/>
       <c r="B234" s="33"/>
       <c r="C234" s="33"/>
       <c r="D234" s="33"/>
       <c r="E234" s="33"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5">
       <c r="A235" s="33"/>
       <c r="B235" s="33"/>
       <c r="C235" s="33"/>
       <c r="D235" s="33"/>
       <c r="E235" s="33"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5">
       <c r="A236" s="33"/>
       <c r="B236" s="33"/>
       <c r="C236" s="33"/>
       <c r="D236" s="33"/>
       <c r="E236" s="33"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5">
       <c r="A237" s="33"/>
       <c r="B237" s="33"/>
       <c r="C237" s="33"/>
       <c r="D237" s="33"/>
       <c r="E237" s="33"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5">
       <c r="A238" s="33"/>
       <c r="B238" s="33"/>
       <c r="C238" s="33"/>
       <c r="D238" s="33"/>
       <c r="E238" s="33"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5">
       <c r="A239" s="33"/>
       <c r="B239" s="33"/>
       <c r="C239" s="33"/>
       <c r="D239" s="33"/>
       <c r="E239" s="33"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5">
       <c r="A240" s="33"/>
       <c r="B240" s="33"/>
       <c r="C240" s="33"/>
       <c r="D240" s="33"/>
       <c r="E240" s="33"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5">
       <c r="A241" s="33"/>
       <c r="B241" s="33"/>
       <c r="C241" s="33"/>
       <c r="D241" s="33"/>
       <c r="E241" s="33"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5">
       <c r="A242" s="33"/>
       <c r="B242" s="33"/>
       <c r="C242" s="33"/>
       <c r="D242" s="33"/>
       <c r="E242" s="33"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243" s="33"/>
       <c r="B243" s="33"/>
       <c r="C243" s="33"/>
       <c r="D243" s="33"/>
       <c r="E243" s="33"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244" s="33"/>
       <c r="B244" s="33"/>
       <c r="C244" s="33"/>
       <c r="D244" s="33"/>
       <c r="E244" s="33"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5">
       <c r="A245" s="33"/>
       <c r="B245" s="33"/>
       <c r="C245" s="33"/>
       <c r="D245" s="33"/>
       <c r="E245" s="33"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5">
       <c r="A246" s="33"/>
       <c r="B246" s="33"/>
       <c r="C246" s="33"/>
       <c r="D246" s="33"/>
       <c r="E246" s="33"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5">
       <c r="A247" s="33"/>
       <c r="B247" s="33"/>
       <c r="C247" s="33"/>
       <c r="D247" s="33"/>
       <c r="E247" s="33"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5">
       <c r="A248" s="33"/>
       <c r="B248" s="33"/>
       <c r="C248" s="33"/>
       <c r="D248" s="33"/>
       <c r="E248" s="33"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5">
       <c r="A249" s="33"/>
       <c r="B249" s="33"/>
       <c r="C249" s="33"/>
       <c r="D249" s="33"/>
       <c r="E249" s="33"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5">
       <c r="A250" s="33"/>
       <c r="B250" s="33"/>
       <c r="C250" s="33"/>
       <c r="D250" s="33"/>
       <c r="E250" s="33"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251" s="33"/>
       <c r="B251" s="33"/>
       <c r="C251" s="33"/>
       <c r="D251" s="33"/>
       <c r="E251" s="33"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5">
       <c r="A252" s="33"/>
       <c r="B252" s="33"/>
       <c r="C252" s="33"/>
       <c r="D252" s="33"/>
       <c r="E252" s="33"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5">
       <c r="A253" s="33"/>
       <c r="B253" s="33"/>
       <c r="C253" s="33"/>
       <c r="D253" s="33"/>
       <c r="E253" s="33"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5">
       <c r="A254" s="33"/>
       <c r="B254" s="33"/>
       <c r="C254" s="33"/>
       <c r="D254" s="33"/>
       <c r="E254" s="33"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5">
       <c r="A255" s="33"/>
       <c r="B255" s="33"/>
       <c r="C255" s="33"/>
       <c r="D255" s="33"/>
       <c r="E255" s="33"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5">
       <c r="A256" s="33"/>
       <c r="B256" s="33"/>
       <c r="C256" s="33"/>
       <c r="D256" s="33"/>
       <c r="E256" s="33"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5">
       <c r="A257" s="33"/>
       <c r="B257" s="33"/>
       <c r="C257" s="33"/>
       <c r="D257" s="33"/>
       <c r="E257" s="33"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5">
       <c r="A258" s="33"/>
       <c r="B258" s="33"/>
       <c r="C258" s="33"/>
       <c r="D258" s="33"/>
       <c r="E258" s="33"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5">
       <c r="A259" s="33"/>
       <c r="B259" s="33"/>
       <c r="C259" s="33"/>
       <c r="D259" s="33"/>
       <c r="E259" s="33"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5">
       <c r="A260" s="33"/>
       <c r="B260" s="33"/>
       <c r="C260" s="33"/>
       <c r="D260" s="33"/>
       <c r="E260" s="33"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5">
       <c r="A261" s="33"/>
       <c r="B261" s="33"/>
       <c r="C261" s="33"/>
       <c r="D261" s="33"/>
       <c r="E261" s="33"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5">
       <c r="A262" s="33"/>
       <c r="B262" s="33"/>
       <c r="C262" s="33"/>
       <c r="D262" s="33"/>
       <c r="E262" s="33"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5">
       <c r="A263" s="33"/>
       <c r="B263" s="33"/>
       <c r="C263" s="33"/>
       <c r="D263" s="33"/>
       <c r="E263" s="33"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5">
       <c r="A264" s="33"/>
       <c r="B264" s="33"/>
       <c r="C264" s="33"/>
       <c r="D264" s="33"/>
       <c r="E264" s="33"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5">
       <c r="A265" s="33"/>
       <c r="B265" s="33"/>
       <c r="C265" s="33"/>
       <c r="D265" s="33"/>
       <c r="E265" s="33"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5">
       <c r="A266" s="33"/>
       <c r="B266" s="33"/>
       <c r="C266" s="33"/>
       <c r="D266" s="33"/>
       <c r="E266" s="33"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5">
       <c r="A267" s="33"/>
       <c r="B267" s="33"/>
       <c r="C267" s="33"/>
       <c r="D267" s="33"/>
       <c r="E267" s="33"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5">
       <c r="A268" s="33"/>
       <c r="B268" s="33"/>
       <c r="C268" s="33"/>
       <c r="D268" s="33"/>
       <c r="E268" s="33"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5">
       <c r="A269" s="33"/>
       <c r="B269" s="33"/>
       <c r="C269" s="33"/>
       <c r="D269" s="33"/>
       <c r="E269" s="33"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5">
       <c r="A270" s="33"/>
       <c r="B270" s="33"/>
       <c r="C270" s="33"/>
       <c r="D270" s="33"/>
       <c r="E270" s="33"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5">
       <c r="A271" s="33"/>
       <c r="B271" s="33"/>
       <c r="C271" s="33"/>
       <c r="D271" s="33"/>
       <c r="E271" s="33"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5">
       <c r="A272" s="33"/>
       <c r="B272" s="33"/>
       <c r="C272" s="33"/>
       <c r="D272" s="33"/>
       <c r="E272" s="33"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5">
       <c r="A273" s="33"/>
       <c r="B273" s="33"/>
       <c r="C273" s="33"/>
       <c r="D273" s="33"/>
       <c r="E273" s="33"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5">
       <c r="A274" s="33"/>
       <c r="B274" s="33"/>
       <c r="C274" s="33"/>
       <c r="D274" s="33"/>
       <c r="E274" s="33"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5">
       <c r="A275" s="33"/>
       <c r="B275" s="33"/>
       <c r="C275" s="33"/>
       <c r="D275" s="33"/>
       <c r="E275" s="33"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5">
       <c r="A276" s="33"/>
       <c r="B276" s="33"/>
       <c r="C276" s="33"/>
       <c r="D276" s="33"/>
       <c r="E276" s="33"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5">
       <c r="A277" s="33"/>
       <c r="B277" s="33"/>
       <c r="C277" s="33"/>
       <c r="D277" s="33"/>
       <c r="E277" s="33"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5">
       <c r="A278" s="33"/>
       <c r="B278" s="33"/>
       <c r="C278" s="33"/>
       <c r="D278" s="33"/>
       <c r="E278" s="33"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5">
       <c r="A279" s="33"/>
       <c r="B279" s="33"/>
       <c r="C279" s="33"/>
       <c r="D279" s="33"/>
       <c r="E279" s="33"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5">
       <c r="A280" s="33"/>
       <c r="B280" s="33"/>
       <c r="C280" s="33"/>
       <c r="D280" s="33"/>
       <c r="E280" s="33"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5">
       <c r="A281" s="33"/>
       <c r="B281" s="33"/>
       <c r="C281" s="33"/>
       <c r="D281" s="33"/>
       <c r="E281" s="33"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5">
       <c r="A282" s="33"/>
       <c r="B282" s="33"/>
       <c r="C282" s="33"/>
       <c r="D282" s="33"/>
       <c r="E282" s="33"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5">
       <c r="A283" s="33"/>
       <c r="B283" s="33"/>
       <c r="C283" s="33"/>
       <c r="D283" s="33"/>
       <c r="E283" s="33"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5">
       <c r="A284" s="33"/>
       <c r="B284" s="33"/>
       <c r="C284" s="33"/>
       <c r="D284" s="33"/>
       <c r="E284" s="33"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5">
       <c r="A285" s="33"/>
       <c r="B285" s="33"/>
       <c r="C285" s="33"/>
       <c r="D285" s="33"/>
       <c r="E285" s="33"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5">
       <c r="A286" s="33"/>
       <c r="B286" s="33"/>
       <c r="C286" s="33"/>
       <c r="D286" s="33"/>
       <c r="E286" s="33"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5">
       <c r="A287" s="33"/>
       <c r="B287" s="33"/>
       <c r="C287" s="33"/>
       <c r="D287" s="33"/>
       <c r="E287" s="33"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5">
       <c r="A288" s="33"/>
       <c r="B288" s="33"/>
       <c r="C288" s="33"/>
       <c r="D288" s="33"/>
       <c r="E288" s="33"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5">
       <c r="A289" s="33"/>
       <c r="B289" s="33"/>
       <c r="C289" s="33"/>
       <c r="D289" s="33"/>
       <c r="E289" s="33"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5">
       <c r="A290" s="33"/>
       <c r="B290" s="33"/>
       <c r="C290" s="33"/>
       <c r="D290" s="33"/>
       <c r="E290" s="33"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5">
       <c r="A291" s="33"/>
       <c r="B291" s="33"/>
       <c r="C291" s="33"/>
       <c r="D291" s="33"/>
       <c r="E291" s="33"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5">
       <c r="A292" s="33"/>
       <c r="B292" s="33"/>
       <c r="C292" s="33"/>
       <c r="D292" s="33"/>
       <c r="E292" s="33"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5">
       <c r="A293" s="33"/>
       <c r="B293" s="33"/>
       <c r="C293" s="33"/>
       <c r="D293" s="33"/>
       <c r="E293" s="33"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5">
       <c r="A294" s="33"/>
       <c r="B294" s="33"/>
       <c r="C294" s="33"/>
       <c r="D294" s="33"/>
       <c r="E294" s="33"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5">
       <c r="A295" s="33"/>
       <c r="B295" s="33"/>
       <c r="C295" s="33"/>
       <c r="D295" s="33"/>
       <c r="E295" s="33"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5">
       <c r="A296" s="33"/>
       <c r="B296" s="33"/>
       <c r="C296" s="33"/>
       <c r="D296" s="33"/>
       <c r="E296" s="33"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5">
       <c r="A297" s="33"/>
       <c r="B297" s="33"/>
       <c r="C297" s="33"/>
       <c r="D297" s="33"/>
       <c r="E297" s="33"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5">
       <c r="A298" s="33"/>
       <c r="B298" s="33"/>
       <c r="C298" s="33"/>
       <c r="D298" s="33"/>
       <c r="E298" s="33"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5">
       <c r="A299" s="33"/>
       <c r="B299" s="33"/>
       <c r="C299" s="33"/>
       <c r="D299" s="33"/>
       <c r="E299" s="33"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5">
       <c r="A300" s="33"/>
       <c r="B300" s="33"/>
       <c r="C300" s="33"/>
       <c r="D300" s="33"/>
       <c r="E300" s="33"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5">
       <c r="A301" s="33"/>
       <c r="B301" s="33"/>
       <c r="C301" s="33"/>
       <c r="D301" s="33"/>
       <c r="E301" s="33"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5">
       <c r="A302" s="33"/>
       <c r="B302" s="33"/>
       <c r="C302" s="33"/>
       <c r="D302" s="33"/>
       <c r="E302" s="33"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5">
       <c r="A303" s="33"/>
       <c r="B303" s="33"/>
       <c r="C303" s="33"/>
       <c r="D303" s="33"/>
       <c r="E303" s="33"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5">
       <c r="A304" s="33"/>
       <c r="B304" s="33"/>
       <c r="C304" s="33"/>
       <c r="D304" s="33"/>
       <c r="E304" s="33"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5">
       <c r="A305" s="33"/>
       <c r="B305" s="33"/>
       <c r="C305" s="33"/>
       <c r="D305" s="33"/>
       <c r="E305" s="33"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5">
       <c r="A306" s="33"/>
       <c r="B306" s="33"/>
       <c r="C306" s="33"/>
       <c r="D306" s="33"/>
       <c r="E306" s="33"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5">
       <c r="A307" s="33"/>
       <c r="B307" s="33"/>
       <c r="C307" s="33"/>
       <c r="D307" s="33"/>
       <c r="E307" s="33"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5">
       <c r="A308" s="33"/>
       <c r="B308" s="33"/>
       <c r="C308" s="33"/>
       <c r="D308" s="33"/>
       <c r="E308" s="33"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5">
       <c r="A309" s="33"/>
       <c r="B309" s="33"/>
       <c r="C309" s="33"/>
       <c r="D309" s="33"/>
       <c r="E309" s="33"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5">
       <c r="A310" s="33"/>
       <c r="B310" s="33"/>
       <c r="C310" s="33"/>
       <c r="D310" s="33"/>
       <c r="E310" s="33"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5">
       <c r="A311" s="33"/>
       <c r="B311" s="33"/>
       <c r="C311" s="33"/>
       <c r="D311" s="33"/>
       <c r="E311" s="33"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5">
       <c r="A312" s="33"/>
       <c r="B312" s="33"/>
       <c r="C312" s="33"/>
       <c r="D312" s="33"/>
       <c r="E312" s="33"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5">
       <c r="A313" s="33"/>
       <c r="B313" s="33"/>
       <c r="C313" s="33"/>
       <c r="D313" s="33"/>
       <c r="E313" s="33"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5">
       <c r="A314" s="33"/>
       <c r="B314" s="33"/>
       <c r="C314" s="33"/>
       <c r="D314" s="33"/>
       <c r="E314" s="33"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5">
       <c r="A315" s="33"/>
       <c r="B315" s="33"/>
       <c r="C315" s="33"/>
       <c r="D315" s="33"/>
       <c r="E315" s="33"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5">
       <c r="A316" s="33"/>
       <c r="B316" s="33"/>
       <c r="C316" s="33"/>
       <c r="D316" s="33"/>
       <c r="E316" s="33"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5">
       <c r="A317" s="33"/>
       <c r="B317" s="33"/>
       <c r="C317" s="33"/>
       <c r="D317" s="33"/>
       <c r="E317" s="33"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5">
       <c r="A318" s="33"/>
       <c r="B318" s="33"/>
       <c r="C318" s="33"/>
       <c r="D318" s="33"/>
       <c r="E318" s="33"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5">
       <c r="A319" s="33"/>
       <c r="B319" s="33"/>
       <c r="C319" s="33"/>
       <c r="D319" s="33"/>
       <c r="E319" s="33"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5">
       <c r="A320" s="33"/>
       <c r="B320" s="33"/>
       <c r="C320" s="33"/>
       <c r="D320" s="33"/>
       <c r="E320" s="33"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5">
       <c r="A321" s="33"/>
       <c r="B321" s="33"/>
       <c r="C321" s="33"/>
       <c r="D321" s="33"/>
       <c r="E321" s="33"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5">
       <c r="A322" s="33"/>
       <c r="B322" s="33"/>
       <c r="C322" s="33"/>
       <c r="D322" s="33"/>
       <c r="E322" s="33"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5">
       <c r="A323" s="33"/>
       <c r="B323" s="33"/>
       <c r="C323" s="33"/>
       <c r="D323" s="33"/>
       <c r="E323" s="33"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5">
       <c r="A324" s="33"/>
       <c r="B324" s="33"/>
       <c r="C324" s="33"/>
       <c r="D324" s="33"/>
       <c r="E324" s="33"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5">
       <c r="A325" s="33"/>
       <c r="B325" s="33"/>
       <c r="C325" s="33"/>
       <c r="D325" s="33"/>
       <c r="E325" s="33"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5">
       <c r="A326" s="33"/>
       <c r="B326" s="33"/>
       <c r="C326" s="33"/>
       <c r="D326" s="33"/>
       <c r="E326" s="33"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5">
       <c r="A327" s="33"/>
       <c r="B327" s="33"/>
       <c r="C327" s="33"/>
       <c r="D327" s="33"/>
       <c r="E327" s="33"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5">
       <c r="A328" s="33"/>
       <c r="B328" s="33"/>
       <c r="C328" s="33"/>
       <c r="D328" s="33"/>
       <c r="E328" s="33"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5">
       <c r="A329" s="33"/>
       <c r="B329" s="33"/>
       <c r="C329" s="33"/>
       <c r="D329" s="33"/>
       <c r="E329" s="33"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5">
       <c r="A330" s="33"/>
       <c r="B330" s="33"/>
       <c r="C330" s="33"/>
       <c r="D330" s="33"/>
       <c r="E330" s="33"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5">
       <c r="A331" s="33"/>
       <c r="B331" s="33"/>
       <c r="C331" s="33"/>
       <c r="D331" s="33"/>
       <c r="E331" s="33"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5">
       <c r="A332" s="33"/>
       <c r="B332" s="33"/>
       <c r="C332" s="33"/>
       <c r="D332" s="33"/>
       <c r="E332" s="33"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5">
       <c r="A333" s="33"/>
       <c r="B333" s="33"/>
       <c r="C333" s="33"/>
       <c r="D333" s="33"/>
       <c r="E333" s="33"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5">
       <c r="A334" s="33"/>
       <c r="B334" s="33"/>
       <c r="C334" s="33"/>
       <c r="D334" s="33"/>
       <c r="E334" s="33"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5">
       <c r="A335" s="33"/>
       <c r="B335" s="33"/>
       <c r="C335" s="33"/>
       <c r="D335" s="33"/>
       <c r="E335" s="33"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5">
       <c r="A336" s="33"/>
       <c r="B336" s="33"/>
       <c r="C336" s="33"/>
       <c r="D336" s="33"/>
       <c r="E336" s="33"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5">
       <c r="A337" s="33"/>
       <c r="B337" s="33"/>
       <c r="C337" s="33"/>
       <c r="D337" s="33"/>
       <c r="E337" s="33"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5">
       <c r="A338" s="33"/>
       <c r="B338" s="33"/>
       <c r="C338" s="33"/>
       <c r="D338" s="33"/>
       <c r="E338" s="33"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5">
       <c r="A339" s="33"/>
       <c r="B339" s="33"/>
       <c r="C339" s="33"/>
       <c r="D339" s="33"/>
       <c r="E339" s="33"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5">
       <c r="A340" s="33"/>
       <c r="B340" s="33"/>
       <c r="C340" s="33"/>
       <c r="D340" s="33"/>
       <c r="E340" s="33"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5">
       <c r="A341" s="33"/>
       <c r="B341" s="33"/>
       <c r="C341" s="33"/>
       <c r="D341" s="33"/>
       <c r="E341" s="33"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5">
       <c r="A342" s="33"/>
       <c r="B342" s="33"/>
       <c r="C342" s="33"/>
       <c r="D342" s="33"/>
       <c r="E342" s="33"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5">
       <c r="A343" s="33"/>
       <c r="B343" s="33"/>
       <c r="C343" s="33"/>
       <c r="D343" s="33"/>
       <c r="E343" s="33"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5">
       <c r="A344" s="33"/>
       <c r="B344" s="33"/>
       <c r="C344" s="33"/>
       <c r="D344" s="33"/>
       <c r="E344" s="33"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5">
       <c r="A345" s="33"/>
       <c r="B345" s="33"/>
       <c r="C345" s="33"/>
       <c r="D345" s="33"/>
       <c r="E345" s="33"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5">
       <c r="A346" s="33"/>
       <c r="B346" s="33"/>
       <c r="C346" s="33"/>
       <c r="D346" s="33"/>
       <c r="E346" s="33"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5">
       <c r="A347" s="33"/>
       <c r="B347" s="33"/>
       <c r="C347" s="33"/>
       <c r="D347" s="33"/>
       <c r="E347" s="33"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5">
       <c r="A348" s="33"/>
       <c r="B348" s="33"/>
       <c r="C348" s="33"/>
       <c r="D348" s="33"/>
       <c r="E348" s="33"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5">
       <c r="A349" s="33"/>
       <c r="B349" s="33"/>
       <c r="C349" s="33"/>
       <c r="D349" s="33"/>
       <c r="E349" s="33"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5">
       <c r="A350" s="33"/>
       <c r="B350" s="33"/>
       <c r="C350" s="33"/>
       <c r="D350" s="33"/>
       <c r="E350" s="33"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5">
       <c r="A351" s="33"/>
       <c r="B351" s="33"/>
       <c r="C351" s="33"/>
       <c r="D351" s="33"/>
       <c r="E351" s="33"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5">
       <c r="A352" s="33"/>
       <c r="B352" s="33"/>
       <c r="C352" s="33"/>
       <c r="D352" s="33"/>
       <c r="E352" s="33"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5">
       <c r="A353" s="33"/>
       <c r="B353" s="33"/>
       <c r="C353" s="33"/>
       <c r="D353" s="33"/>
       <c r="E353" s="33"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5">
       <c r="A354" s="33"/>
       <c r="B354" s="33"/>
       <c r="C354" s="33"/>
       <c r="D354" s="33"/>
       <c r="E354" s="33"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5">
       <c r="A355" s="33"/>
       <c r="B355" s="33"/>
       <c r="C355" s="33"/>
       <c r="D355" s="33"/>
       <c r="E355" s="33"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5">
       <c r="A356" s="33"/>
       <c r="B356" s="33"/>
       <c r="C356" s="33"/>
       <c r="D356" s="33"/>
       <c r="E356" s="33"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5">
       <c r="A357" s="33"/>
       <c r="B357" s="33"/>
       <c r="C357" s="33"/>
       <c r="D357" s="33"/>
       <c r="E357" s="33"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5">
       <c r="A358" s="33"/>
       <c r="B358" s="33"/>
       <c r="C358" s="33"/>
       <c r="D358" s="33"/>
       <c r="E358" s="33"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5">
       <c r="A359" s="33"/>
       <c r="B359" s="33"/>
       <c r="C359" s="33"/>
       <c r="D359" s="33"/>
       <c r="E359" s="33"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5">
       <c r="A360" s="33"/>
       <c r="B360" s="33"/>
       <c r="C360" s="33"/>
       <c r="D360" s="33"/>
       <c r="E360" s="33"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5">
       <c r="A361" s="33"/>
       <c r="B361" s="33"/>
       <c r="C361" s="33"/>
       <c r="D361" s="33"/>
       <c r="E361" s="33"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5">
       <c r="A362" s="33"/>
       <c r="B362" s="33"/>
       <c r="C362" s="33"/>
       <c r="D362" s="33"/>
       <c r="E362" s="33"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5">
       <c r="A363" s="33"/>
       <c r="B363" s="33"/>
       <c r="C363" s="33"/>
       <c r="D363" s="33"/>
       <c r="E363" s="33"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5">
       <c r="A364" s="33"/>
       <c r="B364" s="33"/>
       <c r="C364" s="33"/>
       <c r="D364" s="33"/>
       <c r="E364" s="33"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5">
       <c r="A365" s="33"/>
       <c r="B365" s="33"/>
       <c r="C365" s="33"/>
       <c r="D365" s="33"/>
       <c r="E365" s="33"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5">
       <c r="A366" s="33"/>
       <c r="B366" s="33"/>
       <c r="C366" s="33"/>
       <c r="D366" s="33"/>
       <c r="E366" s="33"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5">
       <c r="A367" s="33"/>
       <c r="B367" s="33"/>
       <c r="C367" s="33"/>
       <c r="D367" s="33"/>
       <c r="E367" s="33"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5">
       <c r="A368" s="33"/>
       <c r="B368" s="33"/>
       <c r="C368" s="33"/>
       <c r="D368" s="33"/>
       <c r="E368" s="33"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5">
       <c r="A369" s="33"/>
       <c r="B369" s="33"/>
       <c r="C369" s="33"/>
       <c r="D369" s="33"/>
       <c r="E369" s="33"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5">
       <c r="A370" s="33"/>
       <c r="B370" s="33"/>
       <c r="C370" s="33"/>
       <c r="D370" s="33"/>
       <c r="E370" s="33"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5">
       <c r="A371" s="33"/>
       <c r="B371" s="33"/>
       <c r="C371" s="33"/>
       <c r="D371" s="33"/>
       <c r="E371" s="33"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5">
       <c r="A372" s="33"/>
       <c r="B372" s="33"/>
       <c r="C372" s="33"/>
       <c r="D372" s="33"/>
       <c r="E372" s="33"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5">
       <c r="A373" s="33"/>
       <c r="B373" s="33"/>
       <c r="C373" s="33"/>
       <c r="D373" s="33"/>
       <c r="E373" s="33"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5">
       <c r="A374" s="33"/>
       <c r="B374" s="33"/>
       <c r="C374" s="33"/>
       <c r="D374" s="33"/>
       <c r="E374" s="33"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5">
       <c r="A375" s="33"/>
       <c r="B375" s="33"/>
       <c r="C375" s="33"/>
       <c r="D375" s="33"/>
       <c r="E375" s="33"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5">
       <c r="A376" s="33"/>
       <c r="B376" s="33"/>
       <c r="C376" s="33"/>
       <c r="D376" s="33"/>
       <c r="E376" s="33"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5">
       <c r="A377" s="33"/>
       <c r="B377" s="33"/>
       <c r="C377" s="33"/>
       <c r="D377" s="33"/>
       <c r="E377" s="33"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5">
       <c r="A378" s="33"/>
       <c r="B378" s="33"/>
       <c r="C378" s="33"/>
       <c r="D378" s="33"/>
       <c r="E378" s="33"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5">
       <c r="A379" s="33"/>
       <c r="B379" s="33"/>
       <c r="C379" s="33"/>
       <c r="D379" s="33"/>
       <c r="E379" s="33"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5">
       <c r="A380" s="33"/>
       <c r="B380" s="33"/>
       <c r="C380" s="33"/>
       <c r="D380" s="33"/>
       <c r="E380" s="33"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5">
       <c r="A381" s="33"/>
       <c r="B381" s="33"/>
       <c r="C381" s="33"/>
       <c r="D381" s="33"/>
       <c r="E381" s="33"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5">
       <c r="A382" s="33"/>
       <c r="B382" s="33"/>
       <c r="C382" s="33"/>
       <c r="D382" s="33"/>
       <c r="E382" s="33"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5">
       <c r="A383" s="33"/>
       <c r="B383" s="33"/>
       <c r="C383" s="33"/>
       <c r="D383" s="33"/>
       <c r="E383" s="33"/>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5">
       <c r="A384" s="33"/>
       <c r="B384" s="33"/>
       <c r="C384" s="33"/>
       <c r="D384" s="33"/>
       <c r="E384" s="33"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5">
       <c r="A385" s="33"/>
       <c r="B385" s="33"/>
       <c r="C385" s="33"/>
       <c r="D385" s="33"/>
       <c r="E385" s="33"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5">
       <c r="A386" s="33"/>
       <c r="B386" s="33"/>
       <c r="C386" s="33"/>
       <c r="D386" s="33"/>
       <c r="E386" s="33"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5">
       <c r="A387" s="33"/>
       <c r="B387" s="33"/>
       <c r="C387" s="33"/>
       <c r="D387" s="33"/>
       <c r="E387" s="33"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5">
       <c r="A388" s="33"/>
       <c r="B388" s="33"/>
       <c r="C388" s="33"/>
       <c r="D388" s="33"/>
       <c r="E388" s="33"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5">
       <c r="A389" s="33"/>
       <c r="B389" s="33"/>
       <c r="C389" s="33"/>
       <c r="D389" s="33"/>
       <c r="E389" s="33"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5">
       <c r="A390" s="33"/>
       <c r="B390" s="33"/>
       <c r="C390" s="33"/>
       <c r="D390" s="33"/>
       <c r="E390" s="33"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5">
       <c r="A391" s="33"/>
       <c r="B391" s="33"/>
       <c r="C391" s="33"/>
       <c r="D391" s="33"/>
       <c r="E391" s="33"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5">
       <c r="A392" s="33"/>
       <c r="B392" s="33"/>
       <c r="C392" s="33"/>
       <c r="D392" s="33"/>
       <c r="E392" s="33"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5">
       <c r="A393" s="33"/>
       <c r="B393" s="33"/>
       <c r="C393" s="33"/>
       <c r="D393" s="33"/>
       <c r="E393" s="33"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5">
       <c r="A394" s="33"/>
       <c r="B394" s="33"/>
       <c r="C394" s="33"/>
       <c r="D394" s="33"/>
       <c r="E394" s="33"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5">
       <c r="A395" s="33"/>
       <c r="B395" s="33"/>
       <c r="C395" s="33"/>
       <c r="D395" s="33"/>
       <c r="E395" s="33"/>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="33"/>
+      <c r="B396" s="33"/>
+      <c r="C396" s="33"/>
+      <c r="D396" s="33"/>
+      <c r="E396" s="33"/>
     </row>
   </sheetData>
   <sortState ref="A8:J35">

--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Release_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyRelease.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Release_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyRelease.xlsx
@@ -526,10 +526,10 @@
     <t>x-ext</t>
   </si>
   <si>
-    <t>Race Code (Adams County)</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReport/nc:Person[@structures:id=/br-doc:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/ac-bkg-codes:PersonRaceCode</t>
+    <t>Race Code (Pima County)</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/nc:Person[@structures:id=/br-doc:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/pc-bkg-codes:PersonRaceCode</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1476,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1593,6 +1593,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="735" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2701,8 +2704,8 @@
   <dimension ref="A1:M396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3099,7 +3102,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="40" t="s">
         <v>81</v>
       </c>
     </row>

--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Release_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyRelease.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Release_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyRelease.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="4380" yWindow="1140" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
@@ -253,12 +253,6 @@
   </si>
   <si>
     <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ReleasePerson/@structures:ref]/j:PersonAugmentation/j:PersonStateFingerprintIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ReleasePerson/@structures:ref]/j:PersonAugmentation/j:DriverLicense/j:DriverLicenseCardIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ReleasePerson/@structures:ref]/j:PersonAugmentation/j:DriverLicense/j:DriverLicenseCardIdentification/nc:IdentificationSourceText</t>
   </si>
   <si>
     <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ReleasePerson/@structures:ref]/j:PersonAugmentation/j:PersonFBIIdentification/nc:IdentificationID</t>
@@ -530,6 +524,12 @@
   </si>
   <si>
     <t>/br-doc:BookingReport/nc:Person[@structures:id=/br-doc:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/pc-bkg-codes:PersonRaceCode</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ReleasePerson/@structures:ref]/j:PersonAugmentation/j:DriverLicense/j:DriverLicenseIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ReleasePerson/@structures:ref]/j:PersonAugmentation/j:DriverLicense/j:DriverLicenseIdentification/nc:IdentificationSourceText</t>
   </si>
 </sst>
 </file>
@@ -1592,10 +1592,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="735" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="735" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2705,7 +2705,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2719,10 +2719,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="27" customFormat="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
@@ -2864,12 +2864,12 @@
     <row r="14" spans="1:13" s="25" customFormat="1" ht="28">
       <c r="A14" s="23"/>
       <c r="B14" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="29"/>
       <c r="E14" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="31"/>
@@ -2883,12 +2883,12 @@
     <row r="15" spans="1:13" s="25" customFormat="1" ht="28">
       <c r="A15" s="23"/>
       <c r="B15" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="29"/>
       <c r="E15" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F15" s="30"/>
       <c r="G15" s="31"/>
@@ -2902,12 +2902,12 @@
     <row r="16" spans="1:13" s="25" customFormat="1" ht="28">
       <c r="A16" s="23"/>
       <c r="B16" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="29"/>
       <c r="E16" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="31"/>
@@ -2921,12 +2921,12 @@
     <row r="17" spans="1:13" s="25" customFormat="1" ht="28">
       <c r="A17" s="23"/>
       <c r="B17" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="29"/>
       <c r="E17" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="31"/>
@@ -2940,12 +2940,12 @@
     <row r="18" spans="1:13" s="25" customFormat="1" ht="28">
       <c r="A18" s="23"/>
       <c r="B18" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="29"/>
       <c r="E18" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="31"/>
@@ -2959,12 +2959,12 @@
     <row r="19" spans="1:13" s="25" customFormat="1" ht="28">
       <c r="A19" s="23"/>
       <c r="B19" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="29"/>
       <c r="E19" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="31"/>
@@ -3016,16 +3016,16 @@
     </row>
     <row r="23" spans="1:13" s="26" customFormat="1" ht="30">
       <c r="A23" s="26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="9" customFormat="1" ht="28">
@@ -3063,8 +3063,8 @@
         <v>36</v>
       </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="4" t="s">
-        <v>78</v>
+      <c r="E26" s="39" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="9" customFormat="1" ht="42">
@@ -3076,8 +3076,8 @@
         <v>38</v>
       </c>
       <c r="D27" s="5"/>
-      <c r="E27" s="4" t="s">
-        <v>79</v>
+      <c r="E27" s="39" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="9" customFormat="1" ht="28">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="9" customFormat="1" ht="28">
@@ -3102,8 +3102,8 @@
         <v>28</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="40" t="s">
-        <v>81</v>
+      <c r="E29" s="39" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="9" customFormat="1" ht="28">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="9" customFormat="1" ht="28">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="9" customFormat="1" ht="28">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="9" customFormat="1" ht="28">
@@ -3153,7 +3153,7 @@
       <c r="C33" s="8"/>
       <c r="D33" s="7"/>
       <c r="E33" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="22" customFormat="1">
@@ -3242,24 +3242,24 @@
     <row r="41" spans="1:5" s="26" customFormat="1">
       <c r="A41" s="23"/>
       <c r="B41" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
       <c r="E41" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="32" customFormat="1" ht="28">
       <c r="B42" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="14" customFormat="1">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="14" customFormat="1" ht="30">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="14" customFormat="1">
@@ -3302,7 +3302,7 @@
         <v>69</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="14" customFormat="1">
@@ -3319,7 +3319,7 @@
         <v>70</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="10" customFormat="1" ht="28">
@@ -3331,7 +3331,7 @@
         <v>43</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="9" customFormat="1" ht="14">
@@ -3342,7 +3342,7 @@
         <v>45</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="9" customFormat="1" ht="14">
@@ -3362,62 +3362,62 @@
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
       <c r="E52" s="24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="35" customFormat="1" ht="30">
       <c r="A53" s="25"/>
       <c r="B53" s="34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
       <c r="E53" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="35" customFormat="1" ht="30">
       <c r="A54" s="25"/>
       <c r="B54" s="34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
       <c r="E54" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="35" customFormat="1" ht="30">
       <c r="A55" s="25"/>
       <c r="B55" s="34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
       <c r="E55" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="35" customFormat="1" ht="30">
       <c r="A56" s="25"/>
       <c r="B56" s="34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
       <c r="E56" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="35" customFormat="1" ht="30">
       <c r="A57" s="25"/>
       <c r="B57" s="34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
       <c r="E57" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="26" customFormat="1">
@@ -3434,150 +3434,150 @@
         <v>61</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B60" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B61" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B62" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B63" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B64" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B65" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="26" customFormat="1" ht="60">
       <c r="B66" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B67" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B68" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B69" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B70" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B71" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B72" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B73" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B74" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="26" customFormat="1">
       <c r="A75" s="36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B75" s="37"/>
       <c r="C75" s="37"/>
@@ -3586,18 +3586,18 @@
     </row>
     <row r="76" spans="1:5" s="26" customFormat="1" ht="30">
       <c r="B76" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="26" customFormat="1" ht="30">
       <c r="B77" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="9" customFormat="1" ht="14"/>

--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Release_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyRelease.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Release_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyRelease.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="167">
   <si>
     <t>Race</t>
   </si>
@@ -530,6 +530,15 @@
   </si>
   <si>
     <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Person[@structures:id=/crr-doc:CustodyReleaseReport/crr-ext:Custody/nc:Release/nc:ReleasePerson/@structures:ref]/j:PersonAugmentation/j:DriverLicense/j:DriverLicenseIdentification/nc:IdentificationSourceText</t>
+  </si>
+  <si>
+    <t>Booking Status Code</t>
+  </si>
+  <si>
+    <t>Codes: InProcess; Correct; Mistaken</t>
+  </si>
+  <si>
+    <t>/crr-doc:CustodyReleaseReport/crr-ext:Custody/j:Booking/crr-ext:BookingStatusCode</t>
   </si>
 </sst>
 </file>
@@ -706,7 +715,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="768">
+  <cellStyleXfs count="770">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1443,6 +1452,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1599,7 +1610,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="768">
+  <cellStyles count="770">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1983,6 +1994,7 @@
     <cellStyle name="Followed Hyperlink" xfId="763" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="765" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="767" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="769" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2366,6 +2378,7 @@
     <cellStyle name="Hyperlink" xfId="762" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="764" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="766" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="768" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="735" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2701,11 +2714,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M396"/>
+  <dimension ref="A1:M397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3289,329 +3302,335 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="14" customFormat="1">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="16"/>
+      <c r="B45" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="18"/>
+      <c r="E45" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="14" customFormat="1">
+      <c r="A46" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-    </row>
-    <row r="46" spans="1:5" s="9" customFormat="1" ht="14">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" spans="1:5" s="9" customFormat="1" ht="14">
+      <c r="B47" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="14" customFormat="1">
-      <c r="A47" s="12" t="s">
+    <row r="48" spans="1:5" s="14" customFormat="1">
+      <c r="A48" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="48" spans="1:5" s="10" customFormat="1" ht="14">
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" spans="1:5" s="10" customFormat="1" ht="14">
+      <c r="B49" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E49" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="10" customFormat="1" ht="28">
-      <c r="A49" s="6"/>
-      <c r="B49" s="10" t="s">
+    <row r="50" spans="1:5" s="10" customFormat="1" ht="28">
+      <c r="A50" s="6"/>
+      <c r="B50" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E50" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="9" customFormat="1" ht="14">
-      <c r="B50" s="9" t="s">
+    <row r="51" spans="1:5" s="9" customFormat="1" ht="14">
+      <c r="B51" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C51" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E51" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="9" customFormat="1" ht="14">
-      <c r="A51" s="11" t="s">
+    <row r="52" spans="1:5" s="9" customFormat="1" ht="14">
+      <c r="A52" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" s="35" customFormat="1" ht="30">
-      <c r="A52" s="25"/>
-      <c r="B52" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="24" t="s">
-        <v>90</v>
-      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" s="35" customFormat="1" ht="30">
       <c r="A53" s="25"/>
       <c r="B53" s="34" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
       <c r="E53" s="24" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="35" customFormat="1" ht="30">
       <c r="A54" s="25"/>
       <c r="B54" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
       <c r="E54" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="35" customFormat="1" ht="30">
       <c r="A55" s="25"/>
       <c r="B55" s="34" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
       <c r="E55" s="24" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="35" customFormat="1" ht="30">
       <c r="A56" s="25"/>
       <c r="B56" s="34" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
       <c r="E56" s="24" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="35" customFormat="1" ht="30">
       <c r="A57" s="25"/>
       <c r="B57" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
       <c r="E57" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="35" customFormat="1" ht="30">
+      <c r="A58" s="25"/>
+      <c r="B58" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="26" customFormat="1">
-      <c r="A58" s="36" t="s">
+    <row r="59" spans="1:5" s="26" customFormat="1">
+      <c r="A59" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-    </row>
-    <row r="59" spans="1:5" s="26" customFormat="1" ht="45">
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+    </row>
+    <row r="60" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B60" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C60" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E60" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="26" customFormat="1" ht="45">
-      <c r="B60" s="24" t="s">
+    <row r="61" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B61" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C61" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E61" s="17" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="26" customFormat="1" ht="45">
-      <c r="B61" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B62" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B63" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>119</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B64" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B65" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B66" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E66" s="17" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="26" customFormat="1" ht="60">
-      <c r="B66" s="26" t="s">
+    <row r="67" spans="1:5" s="26" customFormat="1" ht="60">
+      <c r="B67" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E67" s="17" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="26" customFormat="1" ht="45">
-      <c r="B67" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B68" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B69" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>127</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B70" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B71" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B72" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B73" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E73" s="17" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="26" customFormat="1" ht="45">
-      <c r="B73" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="26" customFormat="1" ht="45">
       <c r="B74" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="26" customFormat="1" ht="45">
+      <c r="B75" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="E75" s="17" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="26" customFormat="1">
-      <c r="A75" s="36" t="s">
+    <row r="76" spans="1:5" s="26" customFormat="1">
+      <c r="A76" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="37"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-    </row>
-    <row r="76" spans="1:5" s="26" customFormat="1" ht="30">
-      <c r="B76" s="26" t="s">
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+    </row>
+    <row r="77" spans="1:5" s="26" customFormat="1" ht="30">
+      <c r="B77" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="E76" s="17" t="s">
+      <c r="E77" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="26" customFormat="1" ht="30">
-      <c r="B77" s="24" t="s">
+    <row r="78" spans="1:5" s="26" customFormat="1" ht="30">
+      <c r="B78" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="E77" s="17" t="s">
+      <c r="E78" s="17" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="9" customFormat="1" ht="14"/>
     <row r="79" spans="1:5" s="9" customFormat="1" ht="14"/>
     <row r="80" spans="1:5" s="9" customFormat="1" ht="14"/>
     <row r="81" spans="1:5" s="9" customFormat="1" ht="14"/>
     <row r="82" spans="1:5" s="9" customFormat="1" ht="14"/>
-    <row r="83" spans="1:5">
-      <c r="A83" s="33"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
-    </row>
+    <row r="83" spans="1:5" s="9" customFormat="1" ht="14"/>
     <row r="84" spans="1:5">
       <c r="A84" s="33"/>
       <c r="B84" s="33"/>
@@ -5802,6 +5821,13 @@
       <c r="C396" s="33"/>
       <c r="D396" s="33"/>
       <c r="E396" s="33"/>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="33"/>
+      <c r="B397" s="33"/>
+      <c r="C397" s="33"/>
+      <c r="D397" s="33"/>
+      <c r="E397" s="33"/>
     </row>
   </sheetData>
   <sortState ref="A8:J35">
